--- a/research/Astrophysics_Personal_Glossary_Notebook.xlsx
+++ b/research/Astrophysics_Personal_Glossary_Notebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulsc\OneDrive - AspIT\Uli\Python\curvesim\research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Python\curvesim\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_C60CB9CBE0915345C387FA26BDC5EC347CBD953F" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BD1E1D85-17E0-4F86-9734-4D7CF6875560}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B28FB21-B43E-40C7-9CF8-B3F3A01C7C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="48" windowWidth="28452" windowHeight="12036" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orbital Period" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,32 @@
     <sheet name="Sonnensystemorbits" sheetId="10" r:id="rId5"/>
     <sheet name=" TIC 178155732" sheetId="6" r:id="rId6"/>
     <sheet name="Orbit glossary" sheetId="7" r:id="rId7"/>
-    <sheet name="Kepler Parameter 6" sheetId="9" r:id="rId8"/>
-    <sheet name="Parameter-Interpretation" sheetId="13" r:id="rId9"/>
-    <sheet name="Konvertierungsbeispiele" sheetId="11" r:id="rId10"/>
-    <sheet name="Exoplanetenparameterableitung" sheetId="12" r:id="rId11"/>
+    <sheet name="Kepler Parameter" sheetId="9" r:id="rId8"/>
+    <sheet name="Parametersätze CurveSimulator" sheetId="14" r:id="rId9"/>
+    <sheet name="Parametersätze in Literatur" sheetId="11" r:id="rId10"/>
+    <sheet name="Parameter-Interpretation" sheetId="15" r:id="rId11"/>
+    <sheet name="Parameter-Interpretation alt" sheetId="13" r:id="rId12"/>
+    <sheet name="Exoplanetenparameterableitung" sheetId="12" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="318">
   <si>
     <t>DT</t>
   </si>
@@ -1167,9 +1182,6 @@
     </r>
   </si>
   <si>
-    <t>Angle in the reference plane between a reference direction and the direction to the ascending node.</t>
-  </si>
-  <si>
     <t>Angle in the plane of the orbit from the ascending node to the pericenter.</t>
   </si>
   <si>
@@ -1222,6 +1234,255 @@
   </si>
   <si>
     <t>nu=270° @ TT</t>
+  </si>
+  <si>
+    <t>Angle in the reference plane between a reference direction and the direction to the ascending node.
+Für Exoplaneten kann bei nur einem Planeten immer Ω=0 angenommen werden, denn Ω ungleich Null kann durch Kopf schieflegen ausgeglichen werden.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MA</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pot_transit_date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFFD866"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2468000.25        # Barycentric Julian Date (TDB) at the time of potential transit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># The planet is nearer to the viewer than the sun.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                                     # Planet and sun are positioned at the same x value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                     # This value should be larger than the video's start_date</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">longitude_of_ascending_node </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFFD866"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0      # [deg] Ω: longitude of ascending node</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">longitude_of_periapsis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFFD866"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>90           # [deg] ϖ: longitude of periapsis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFFD866"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0                                # [deg] mean longitude</t>
+    </r>
+  </si>
+  <si>
+    <t># argument_of_periapsis = 0          # [deg] ω: argument of periapsis</t>
+  </si>
+  <si>
+    <t># nu, ma, ea, T:   Only true anomaly or mean_anomaly or eccentric_anomaly or time_of_periapsis has to be provided.</t>
+  </si>
+  <si>
+    <t># ma can be calculated from ϖ and L.</t>
+  </si>
+  <si>
+    <t># ω can be calculated from ϖ and Ω.</t>
+  </si>
+  <si>
+    <t># nu = 0                             # [deg] true anomaly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                     # Per definition = 0° at the time of an exoplanet's primary transit.</t>
+  </si>
+  <si>
+    <t># ma = 0                             # [deg] mean anomaly</t>
+  </si>
+  <si>
+    <t># ea = 0                             # [deg] eccentric anomaly</t>
+  </si>
+  <si>
+    <t>State Vector</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFFD866"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0                                # [s] Time of periapsis</t>
+    </r>
+  </si>
+  <si>
+    <t>;T = 0#3 * 24 * 3600                                # [s] Time of periapsis</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">longitude_of_periapsis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFFD866"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0           # [deg] ϖ: longitude of periapsis</t>
+    </r>
+  </si>
+  <si>
+    <t>;nu = -125                             # [deg] true anomaly.</t>
+  </si>
+  <si>
+    <t>;t = -30.25 * 24 * 3600            # [t] Time since initial position in orbit. Default=0.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">color </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFFD866"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.01, 0.99, 0.01             # RGB value in animation. Minimum = 0, maximum = 1.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">L=270    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   L=180</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1498,7 @@
     <numFmt numFmtId="169" formatCode="0.000000"/>
     <numFmt numFmtId="170" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1367,8 +1628,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFC9867"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF3261"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFFD866"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFAAAAAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1411,8 +1697,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1712,6 +2004,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1722,7 +2042,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1764,36 +2084,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1834,7 +2147,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1846,33 +2159,29 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1883,12 +2192,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -1927,30 +2235,70 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Link" xfId="3" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Procent" xfId="2" builtinId="5"/>
+    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5702,7 +6050,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ngle between the axes of the planet's orbit and the star's spin. Often just calles misalignment.</a:t>
+            <a:t>ngle between the axes of the planet's orbit and the star's spin. Often just called</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> misalignment.</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1100" b="0"/>
         </a:p>
@@ -5725,8 +6086,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>495300</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5898,6 +6259,802 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>533794</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC1E4A4-DE5A-BF80-48E4-45C253E3F284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9582150" y="762000"/>
+          <a:ext cx="2819794" cy="1162212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>503850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Ellipse 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25446CE8-CC8A-49E0-9791-4DF096439C1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12849225" y="1314450"/>
+          <a:ext cx="180000" cy="190026"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>627006</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>742308</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>117665</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Ellipse 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC2202A-2F0D-4396-89AF-C42E146FAF58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="973206" y="1099358"/>
+          <a:ext cx="1933019" cy="888508"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>20774</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>182577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Ellipse 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE97BB2D-375D-4884-9FDA-22D68613B832}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086599" y="1384633"/>
+          <a:ext cx="744675" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381679</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>94690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>458320</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>176680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Ellipse 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{187640A1-EEA5-40C8-A4C2-93C4A29A7F69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7420654" y="1342465"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>243549</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>72837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Ellipse 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{581AEE6C-829B-4D64-9542-93845D4BB121}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885211" y="2465293"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>194569</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>374569</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>169472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Ellipse 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BE40C07-2EBA-44A6-8A0B-AAEAF9E924C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1836231" y="2000249"/>
+          <a:ext cx="180000" cy="180679"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>662446</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Ellipse 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69ADF99-C3DD-47D5-82E1-294AF7DB2669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219325" y="857250"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>687525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Ellipse 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0872B5AA-450E-44F1-A445-F8E15B94D275}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14068425" y="1057275"/>
+          <a:ext cx="1459050" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>348121</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Ellipse 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42782FEB-295B-46EA-8C5D-ABE522F0A4F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="533400"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>14746</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Ellipse 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A9F5E5-F579-4C7B-A405-5B776252B5CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571625" y="847725"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619804</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>132790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>696445</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Ellipse 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D09A00-B0C2-48AD-9444-2154CBFEAB1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7658779" y="1380565"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -9070,9 +10227,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9110,9 +10267,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9145,26 +10302,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9197,26 +10337,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9390,20 +10513,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B9:K26"/>
+  <dimension ref="B9:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>4</v>
       </c>
@@ -9419,11 +10544,11 @@
         <v>39.478417604357432</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="93">
         <v>149597870000</v>
       </c>
       <c r="J10" t="s">
@@ -9433,7 +10558,7 @@
         <v>149597870000</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>6</v>
       </c>
@@ -9449,7 +10574,7 @@
         <v>3.3479289288137507E+33</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>12756270</v>
       </c>
@@ -9466,14 +10591,14 @@
         <v>6.6740800000000003E-11</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>6378135</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="93">
         <v>1.9884E+30</v>
       </c>
       <c r="J13" t="s">
@@ -9483,12 +10608,12 @@
         <v>1.9884E+30</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="G14" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="93">
         <v>5.9720000000000003E+24</v>
       </c>
       <c r="J14" t="s">
@@ -9498,7 +10623,7 @@
         <v>5.9720000000000003E+24</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="G15" t="s">
         <v>8</v>
@@ -9515,7 +10640,7 @@
         <v>1.988405972E+30</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="G16" t="s">
         <v>11</v>
@@ -9532,7 +10657,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="G17" t="s">
         <v>12</v>
@@ -9549,7 +10674,7 @@
         <v>31558746.865251575</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>50000</v>
       </c>
@@ -9571,7 +10696,7 @@
         <v>365.26327390337474</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>30</v>
       </c>
@@ -9579,7 +10704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <f>B18*B19</f>
         <v>1500000</v>
@@ -9588,7 +10713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f>B20/3600/24</f>
         <v>17.361111111111111</v>
@@ -9611,7 +10736,7 @@
         <v>939951138769.36182</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="G22" t="s">
         <v>16</v>
@@ -9628,10 +10753,10 @@
         <v>29784.171810836851</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="G24" t="s">
         <v>19</v>
@@ -9642,7 +10767,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="G25" t="s">
         <v>18</v>
@@ -9652,7 +10777,7 @@
         <v>149597869999.99948</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="G26" t="s">
         <v>20</v>
@@ -9661,6 +10786,9 @@
         <f>(H12*H15)/(H22*H22)</f>
         <v>149597870000</v>
       </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H32" s="94"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -9670,160 +10798,163 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
   <dimension ref="B2:M8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="50" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.44140625" style="50"/>
-    <col min="7" max="7" width="13.88671875" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="11.44140625" style="50"/>
-    <col min="13" max="13" width="53.6640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="50"/>
+    <col min="1" max="1" width="2" style="45" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.42578125" style="45"/>
+    <col min="7" max="7" width="13.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="11.42578125" style="45"/>
+    <col min="13" max="13" width="53.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="45"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="34" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="31" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53" t="s">
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="54" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9834,40 +10965,1149 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAECBCED-83AE-4F4D-A925-5C28E22DAD62}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="B1:M32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="13" max="13" width="1.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="80" t="s">
+        <v>290</v>
+      </c>
+      <c r="I2" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="J2" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="K2" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="L2" s="106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="83">
+        <v>0.7</v>
+      </c>
+      <c r="C3" s="102">
+        <v>88</v>
+      </c>
+      <c r="D3" s="84">
+        <v>0</v>
+      </c>
+      <c r="E3" s="84">
+        <v>0</v>
+      </c>
+      <c r="F3" s="84">
+        <v>0</v>
+      </c>
+      <c r="G3" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="75"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="74"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="75"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="111" t="s">
+        <v>317</v>
+      </c>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="74"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="75"/>
+      <c r="C6" s="110" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="74"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="75"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="L7" s="74"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="75"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="74"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="75"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="110" t="s">
+        <v>277</v>
+      </c>
+      <c r="L9" s="74"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="75"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="74"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="75"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="74"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="75"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="74"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="75"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="74"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="109" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="95" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="95" t="s">
+        <v>312</v>
+      </c>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="95" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="99"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="98" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="98" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="98" t="s">
+        <v>303</v>
+      </c>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="98" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="108"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="98" t="s">
+        <v>306</v>
+      </c>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="98" t="s">
+        <v>307</v>
+      </c>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="98" t="s">
+        <v>308</v>
+      </c>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="98" t="s">
+        <v>311</v>
+      </c>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="98" t="s">
+        <v>314</v>
+      </c>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="108"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="95" t="s">
+        <v>315</v>
+      </c>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="108"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B1:AD56"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="11" max="11" width="1.42578125" customWidth="1"/>
+    <col min="21" max="21" width="1.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:30" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B2" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="L2" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="73"/>
+      <c r="V2" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y2" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z2" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="73"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B3" s="83">
+        <v>0</v>
+      </c>
+      <c r="C3" s="84">
+        <v>90</v>
+      </c>
+      <c r="D3" s="84">
+        <v>0</v>
+      </c>
+      <c r="E3" s="84">
+        <v>0</v>
+      </c>
+      <c r="F3" s="85">
+        <v>0</v>
+      </c>
+      <c r="J3" s="74"/>
+      <c r="L3" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="91">
+        <v>80</v>
+      </c>
+      <c r="N3" s="84">
+        <v>0</v>
+      </c>
+      <c r="O3" s="84">
+        <v>0</v>
+      </c>
+      <c r="P3" s="85">
+        <v>0</v>
+      </c>
+      <c r="T3" s="74"/>
+      <c r="V3" s="89">
+        <v>0.5</v>
+      </c>
+      <c r="W3" s="84">
+        <v>90</v>
+      </c>
+      <c r="X3" s="84">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="84">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="85">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="74"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B4" s="75"/>
+      <c r="J4" s="74"/>
+      <c r="L4" s="75"/>
+      <c r="T4" s="74"/>
+      <c r="V4" s="75"/>
+      <c r="AD4" s="74"/>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B5" s="75"/>
+      <c r="J5" s="74"/>
+      <c r="L5" s="75"/>
+      <c r="T5" s="74"/>
+      <c r="V5" s="75"/>
+      <c r="AD5" s="74"/>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B6" s="75"/>
+      <c r="J6" s="74"/>
+      <c r="L6" s="75"/>
+      <c r="T6" s="74"/>
+      <c r="V6" s="75"/>
+      <c r="AD6" s="74"/>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B7" s="75"/>
+      <c r="J7" s="74"/>
+      <c r="L7" s="75"/>
+      <c r="T7" s="74"/>
+      <c r="V7" s="75"/>
+      <c r="AD7" s="74"/>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B8" s="75"/>
+      <c r="J8" s="74"/>
+      <c r="L8" s="75"/>
+      <c r="T8" s="74"/>
+      <c r="V8" s="75"/>
+      <c r="AD8" s="74"/>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B9" s="75"/>
+      <c r="J9" s="74"/>
+      <c r="L9" s="75"/>
+      <c r="T9" s="74"/>
+      <c r="V9" s="75"/>
+      <c r="AD9" s="74"/>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B10" s="75"/>
+      <c r="J10" s="74"/>
+      <c r="L10" s="75"/>
+      <c r="T10" s="74"/>
+      <c r="V10" s="75"/>
+      <c r="AD10" s="74"/>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B11" s="75"/>
+      <c r="J11" s="74"/>
+      <c r="L11" s="75"/>
+      <c r="T11" s="74"/>
+      <c r="V11" s="75"/>
+      <c r="AD11" s="74"/>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B12" s="75"/>
+      <c r="J12" s="74"/>
+      <c r="L12" s="75"/>
+      <c r="T12" s="74"/>
+      <c r="V12" s="75"/>
+      <c r="AD12" s="74"/>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B13" s="75"/>
+      <c r="J13" s="74"/>
+      <c r="L13" s="75"/>
+      <c r="T13" s="74"/>
+      <c r="V13" s="75"/>
+      <c r="AD13" s="74"/>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="78"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="78"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="77"/>
+      <c r="AA14" s="77"/>
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="78"/>
+    </row>
+    <row r="15" spans="2:30" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B16" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="73"/>
+      <c r="L16" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="P16" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="73"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="83">
+        <v>0</v>
+      </c>
+      <c r="C17" s="84">
+        <v>90</v>
+      </c>
+      <c r="D17" s="84">
+        <v>0</v>
+      </c>
+      <c r="E17" s="84">
+        <v>0</v>
+      </c>
+      <c r="F17" s="87">
+        <v>270</v>
+      </c>
+      <c r="J17" s="74"/>
+      <c r="L17" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="91">
+        <v>80</v>
+      </c>
+      <c r="N17" s="84">
+        <v>45</v>
+      </c>
+      <c r="O17" s="84">
+        <v>0</v>
+      </c>
+      <c r="P17" s="85">
+        <v>0</v>
+      </c>
+      <c r="T17" s="74"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="75"/>
+      <c r="J18" s="74"/>
+      <c r="L18" s="75"/>
+      <c r="T18" s="74"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="75"/>
+      <c r="J19" s="74"/>
+      <c r="L19" s="75"/>
+      <c r="T19" s="74"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="75"/>
+      <c r="J20" s="74"/>
+      <c r="L20" s="75"/>
+      <c r="T20" s="74"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="75"/>
+      <c r="J21" s="74"/>
+      <c r="L21" s="75"/>
+      <c r="T21" s="74"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="75"/>
+      <c r="J22" s="74"/>
+      <c r="L22" s="75"/>
+      <c r="T22" s="74"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="75"/>
+      <c r="J23" s="74"/>
+      <c r="L23" s="75"/>
+      <c r="T23" s="74"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="75"/>
+      <c r="J24" s="74"/>
+      <c r="L24" s="75"/>
+      <c r="T24" s="74"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="75"/>
+      <c r="J25" s="74"/>
+      <c r="L25" s="75"/>
+      <c r="T25" s="74"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="75"/>
+      <c r="J26" s="74"/>
+      <c r="L26" s="75"/>
+      <c r="T26" s="74"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="75"/>
+      <c r="J27" s="74"/>
+      <c r="L27" s="75"/>
+      <c r="T27" s="74"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="76"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="78"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="78"/>
+    </row>
+    <row r="29" spans="2:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="73"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="89">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="84">
+        <v>90</v>
+      </c>
+      <c r="D31" s="84">
+        <v>0</v>
+      </c>
+      <c r="E31" s="84">
+        <v>0</v>
+      </c>
+      <c r="F31" s="85">
+        <v>0</v>
+      </c>
+      <c r="J31" s="74"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="75"/>
+      <c r="J32" s="74"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="75"/>
+      <c r="J33" s="74"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="75"/>
+      <c r="J34" s="74"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="75"/>
+      <c r="J35" s="74"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="75"/>
+      <c r="J36" s="74"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="75"/>
+      <c r="J37" s="74"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="75"/>
+      <c r="J38" s="74"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="75"/>
+      <c r="J39" s="74"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="75"/>
+      <c r="J40" s="74"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="75"/>
+      <c r="J41" s="74"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="76"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="78"/>
+    </row>
+    <row r="43" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72" t="s">
+        <v>281</v>
+      </c>
+      <c r="I44" s="72"/>
+      <c r="J44" s="73"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="89">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="84">
+        <v>90</v>
+      </c>
+      <c r="D45" s="84">
+        <v>0</v>
+      </c>
+      <c r="E45" s="84">
+        <v>0</v>
+      </c>
+      <c r="F45" s="85" t="s">
+        <v>278</v>
+      </c>
+      <c r="J45" s="74"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="75"/>
+      <c r="J46" s="74"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="75"/>
+      <c r="D47" t="s">
+        <v>277</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="J47" s="74"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="75"/>
+      <c r="J48" s="74"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="75" t="s">
+        <v>275</v>
+      </c>
+      <c r="J49" s="74"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="75"/>
+      <c r="F50" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="J50" s="74"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="75"/>
+      <c r="J51" s="74"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="75"/>
+      <c r="J52" s="74"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="75"/>
+      <c r="J53" s="74"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="75"/>
+      <c r="D54" t="s">
+        <v>274</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="J54" s="74"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="75"/>
+      <c r="J55" s="74"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="76"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="77"/>
+      <c r="J56" s="78"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="44.5546875" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="44.5703125" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="55" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="32" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>236</v>
       </c>
@@ -9878,7 +12118,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>235</v>
       </c>
@@ -9887,7 +12127,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>238</v>
       </c>
@@ -9898,7 +12138,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>245</v>
       </c>
@@ -9920,30 +12160,30 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L8" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
@@ -9951,7 +12191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
@@ -9960,7 +12200,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -9970,7 +12210,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
@@ -9980,7 +12220,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>24</v>
       </c>
@@ -9990,7 +12230,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
@@ -10000,79 +12240,79 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>30</v>
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>31</v>
       </c>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I40" s="6"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="G45" s="26" t="s">
         <v>93</v>
       </c>
@@ -10080,7 +12320,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="G46" s="26" t="s">
         <v>94</v>
       </c>
@@ -10088,7 +12328,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G47" s="26" t="s">
         <v>92</v>
       </c>
@@ -10096,13 +12336,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O49" s="18"/>
     </row>
-    <row r="50" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O50" s="20"/>
     </row>
-    <row r="51" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O51" s="19"/>
     </row>
   </sheetData>
@@ -10121,19 +12361,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>82</v>
       </c>
@@ -10156,12 +12396,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -10175,7 +12415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -10190,7 +12430,7 @@
         <v>88820</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>16.600000000000001</v>
       </c>
@@ -10220,893 +12460,893 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="42"/>
-    <col min="3" max="3" width="31.88671875" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="42"/>
+    <col min="1" max="1" width="11.42578125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="37"/>
+    <col min="3" max="3" width="31.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="61"/>
-      <c r="B1" s="68" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="56"/>
+      <c r="B1" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="64" t="str">
+      <c r="D2" s="58" t="str">
         <f t="shared" ref="D2:D7" si="0">A2&amp;" = "&amp;B2&amp;"  # "&amp;C2</f>
         <v>a = 0.38709893  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="64" t="str">
+      <c r="D3" s="58" t="str">
         <f t="shared" si="0"/>
         <v>e = 0.20563069  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="D4" s="64" t="str">
+      <c r="D4" s="58" t="str">
         <f t="shared" si="0"/>
         <v>i = 7.00487  # [deg] inclination</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="62" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="D5" s="64" t="str">
+      <c r="D5" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Ω = 48.33167  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="D6" s="64" t="str">
+      <c r="D6" s="58" t="str">
         <f t="shared" si="0"/>
         <v>ϖ = 77.45645  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="65" t="s">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="D7" s="67" t="str">
+      <c r="D7" s="61" t="str">
         <f t="shared" si="0"/>
         <v>L = 252.25084  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="68" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="56"/>
+      <c r="B8" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="62" t="s">
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="D9" s="64" t="str">
+      <c r="D9" s="58" t="str">
         <f t="shared" ref="D9:D14" si="1">A9&amp;" = "&amp;B9&amp;"  # "&amp;C9</f>
         <v>a = 0.72333199  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="62" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="D10" s="64" t="str">
+      <c r="D10" s="58" t="str">
         <f t="shared" si="1"/>
         <v>e = 0.00677323  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="64" t="str">
+      <c r="D11" s="58" t="str">
         <f t="shared" si="1"/>
         <v>i = 3.39471  # [deg] inclination</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="62" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="D12" s="64" t="str">
+      <c r="D12" s="58" t="str">
         <f t="shared" si="1"/>
         <v>Ω = 76.68069  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="62" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="D13" s="64" t="str">
+      <c r="D13" s="58" t="str">
         <f t="shared" si="1"/>
         <v>ϖ = 131.53298  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="65" t="s">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="D14" s="67" t="str">
+      <c r="D14" s="61" t="str">
         <f t="shared" si="1"/>
         <v>L = 181.97973  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
-      <c r="B15" s="68" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="56"/>
+      <c r="B15" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="62" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="D16" s="64" t="str">
+      <c r="D16" s="58" t="str">
         <f t="shared" ref="D16:D21" si="2">A16&amp;" = "&amp;B16&amp;"  # "&amp;C16</f>
         <v>a = 1.00000011  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="62" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="D17" s="64" t="str">
+      <c r="D17" s="58" t="str">
         <f t="shared" si="2"/>
         <v>e = 0.01671022  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="62" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="D18" s="64" t="str">
+      <c r="D18" s="58" t="str">
         <f t="shared" si="2"/>
         <v>i = 0.00005  # [deg] inclination</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="62" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="D19" s="64" t="str">
+      <c r="D19" s="58" t="str">
         <f t="shared" si="2"/>
         <v>Ω = -11.26064  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="62" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="D20" s="64" t="str">
+      <c r="D20" s="58" t="str">
         <f t="shared" si="2"/>
         <v>ϖ = 102.94719  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="65" t="s">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="67" t="str">
+      <c r="D21" s="61" t="str">
         <f t="shared" si="2"/>
         <v>L = 100.46435  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
-      <c r="B22" s="68" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="56"/>
+      <c r="B22" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="69"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="62" t="s">
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="D23" s="64" t="str">
+      <c r="D23" s="58" t="str">
         <f t="shared" ref="D23:D28" si="3">A23&amp;" = "&amp;B23&amp;"  # "&amp;C23</f>
         <v>a = 1.52366231  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="62" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="D24" s="64" t="str">
+      <c r="D24" s="58" t="str">
         <f t="shared" si="3"/>
         <v>e = 0.09341233  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="62" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="D25" s="64" t="str">
+      <c r="D25" s="58" t="str">
         <f t="shared" si="3"/>
         <v>i = 1.85061  # [deg] inclination</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="62" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="D26" s="64" t="str">
+      <c r="D26" s="58" t="str">
         <f t="shared" si="3"/>
         <v>Ω = 49.57854  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="62" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="D27" s="64" t="str">
+      <c r="D27" s="58" t="str">
         <f t="shared" si="3"/>
         <v>ϖ = 336.04084  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="65" t="s">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="D28" s="67" t="str">
+      <c r="D28" s="61" t="str">
         <f t="shared" si="3"/>
         <v>L = 355.45332  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
-      <c r="B29" s="68" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="56"/>
+      <c r="B29" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="69"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="62" t="s">
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="D30" s="64" t="str">
+      <c r="D30" s="58" t="str">
         <f t="shared" ref="D30:D35" si="4">A30&amp;" = "&amp;B30&amp;"  # "&amp;C30</f>
         <v>a = 5.20336301  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="62" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="D31" s="64" t="str">
+      <c r="D31" s="58" t="str">
         <f t="shared" si="4"/>
         <v>e = 0.04839266  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="62" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="D32" s="64" t="str">
+      <c r="D32" s="58" t="str">
         <f t="shared" si="4"/>
         <v>i = 1.30530  # [deg] inclination</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="62" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="D33" s="64" t="str">
+      <c r="D33" s="58" t="str">
         <f t="shared" si="4"/>
         <v>Ω = 100.55615  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="62" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="D34" s="64" t="str">
+      <c r="D34" s="58" t="str">
         <f t="shared" si="4"/>
         <v>ϖ = 14.75385  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="65" t="s">
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="D35" s="67" t="str">
+      <c r="D35" s="61" t="str">
         <f t="shared" si="4"/>
         <v>L = 34.40438  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="61"/>
-      <c r="B36" s="68" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="56"/>
+      <c r="B36" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="69"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="62" t="s">
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="D37" s="64" t="str">
+      <c r="D37" s="58" t="str">
         <f t="shared" ref="D37:D42" si="5">A37&amp;" = "&amp;B37&amp;"  # "&amp;C37</f>
         <v>a = 9.53707032  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="62" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="C38" s="70" t="s">
+      <c r="C38" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="D38" s="64" t="str">
+      <c r="D38" s="58" t="str">
         <f t="shared" si="5"/>
         <v>e = 0.05415060  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="62" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="D39" s="64" t="str">
+      <c r="D39" s="58" t="str">
         <f t="shared" si="5"/>
         <v>i = 2.48446  # [deg] inclination</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="62" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="D40" s="64" t="str">
+      <c r="D40" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Ω = 113.71504  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="62" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="D41" s="64" t="str">
+      <c r="D41" s="58" t="str">
         <f t="shared" si="5"/>
         <v>ϖ = 92.43194  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="65" t="s">
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="D42" s="67" t="str">
+      <c r="D42" s="61" t="str">
         <f t="shared" si="5"/>
         <v>L = 49.94432  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="61"/>
-      <c r="B43" s="68" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="56"/>
+      <c r="B43" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="68"/>
-      <c r="D43" s="69"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="62" t="s">
+      <c r="C43" s="62"/>
+      <c r="D43" s="63"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="C44" s="70" t="s">
+      <c r="C44" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="D44" s="64" t="str">
+      <c r="D44" s="58" t="str">
         <f t="shared" ref="D44:D49" si="6">A44&amp;" = "&amp;B44&amp;"  # "&amp;C44</f>
         <v>a = 19.19126393  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="62" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="70" t="s">
+      <c r="C45" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="D45" s="64" t="str">
+      <c r="D45" s="58" t="str">
         <f t="shared" si="6"/>
         <v>e = 0.04716771  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="62" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="70" t="s">
+      <c r="C46" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="D46" s="64" t="str">
+      <c r="D46" s="58" t="str">
         <f t="shared" si="6"/>
         <v>i = 0.76986  # [deg] inclination</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="62" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="63" t="s">
+      <c r="B47" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C47" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="D47" s="64" t="str">
+      <c r="D47" s="58" t="str">
         <f t="shared" si="6"/>
         <v>Ω = 74.22988  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="62" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="C48" s="70" t="s">
+      <c r="C48" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="D48" s="64" t="str">
+      <c r="D48" s="58" t="str">
         <f t="shared" si="6"/>
         <v>ϖ = 170.96424  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="65" t="s">
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="66" t="s">
+      <c r="B49" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="71" t="s">
+      <c r="C49" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="D49" s="67" t="str">
+      <c r="D49" s="61" t="str">
         <f t="shared" si="6"/>
         <v>L = 313.23218  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="61"/>
-      <c r="B50" s="68" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="56"/>
+      <c r="B50" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="68"/>
-      <c r="D50" s="69"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="62" t="s">
+      <c r="C50" s="62"/>
+      <c r="D50" s="63"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="C51" s="70" t="s">
+      <c r="C51" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="D51" s="64" t="str">
+      <c r="D51" s="58" t="str">
         <f t="shared" ref="D51:D56" si="7">A51&amp;" = "&amp;B51&amp;"  # "&amp;C51</f>
         <v>a = 30.06896348  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="62" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="63" t="s">
+      <c r="B52" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="C52" s="70" t="s">
+      <c r="C52" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="D52" s="64" t="str">
+      <c r="D52" s="58" t="str">
         <f t="shared" si="7"/>
         <v>e = 0.00858587  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="62" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="63" t="s">
+      <c r="B53" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="C53" s="70" t="s">
+      <c r="C53" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="D53" s="64" t="str">
+      <c r="D53" s="58" t="str">
         <f t="shared" si="7"/>
         <v>i = 1.76917  # [deg] inclination</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="62" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="63" t="s">
+      <c r="B54" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="C54" s="70" t="s">
+      <c r="C54" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="D54" s="64" t="str">
+      <c r="D54" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Ω = 131.72169  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="62" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="C55" s="70" t="s">
+      <c r="C55" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="D55" s="64" t="str">
+      <c r="D55" s="58" t="str">
         <f t="shared" si="7"/>
         <v>ϖ = 44.97135  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="65" t="s">
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="C56" s="71" t="s">
+      <c r="C56" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="D56" s="67" t="str">
+      <c r="D56" s="61" t="str">
         <f t="shared" si="7"/>
         <v>L = 304.88003  # [deg] mean longitude</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="61"/>
-      <c r="B57" s="68" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="56"/>
+      <c r="B57" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="68"/>
-      <c r="D57" s="69"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="62" t="s">
+      <c r="C57" s="62"/>
+      <c r="D57" s="63"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="63" t="s">
+      <c r="B58" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="C58" s="70" t="s">
+      <c r="C58" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="D58" s="64" t="str">
+      <c r="D58" s="58" t="str">
         <f t="shared" ref="D58:D63" si="8">A58&amp;" = "&amp;B58&amp;"  # "&amp;C58</f>
         <v>a = 39.48168677  # [au] semi-major axis</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="62" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="63" t="s">
+      <c r="B59" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="70" t="s">
+      <c r="C59" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="D59" s="64" t="str">
+      <c r="D59" s="58" t="str">
         <f t="shared" si="8"/>
         <v>e = 0.24880766  # [1] eccentricity</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="62" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="63" t="s">
+      <c r="B60" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="C60" s="70" t="s">
+      <c r="C60" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="D60" s="64" t="str">
+      <c r="D60" s="58" t="str">
         <f t="shared" si="8"/>
         <v>i = 17.14175  # [deg] inclination</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="62" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="63" t="s">
+      <c r="B61" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="C61" s="70" t="s">
+      <c r="C61" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="D61" s="64" t="str">
+      <c r="D61" s="58" t="str">
         <f t="shared" si="8"/>
         <v>Ω = 110.30347  # [deg] longitude of ascending node</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="62" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="63" t="s">
+      <c r="B62" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="C62" s="70" t="s">
+      <c r="C62" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="D62" s="64" t="str">
+      <c r="D62" s="58" t="str">
         <f t="shared" si="8"/>
         <v>ϖ = 224.06676  # [deg] longitude of periapsis</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="65" t="s">
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B63" s="66" t="s">
+      <c r="B63" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="C63" s="71" t="s">
+      <c r="C63" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="D63" s="67" t="str">
+      <c r="D63" s="61" t="str">
         <f t="shared" si="8"/>
         <v>L = 238.92881  # [deg] mean longitude</v>
       </c>
@@ -11123,12 +13363,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="12" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="21" bestFit="1" customWidth="1"/>
@@ -11139,12 +13379,12 @@
     <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="E2" s="21" t="s">
         <v>83</v>
@@ -11183,54 +13423,54 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="68" t="s">
         <v>81</v>
       </c>
       <c r="D3" s="23"/>
       <c r="N3" s="21"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="68" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="23"/>
       <c r="N4" s="21"/>
       <c r="R4" s="25"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="68" t="s">
         <v>80</v>
       </c>
       <c r="D5" s="23"/>
       <c r="N5" s="21"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="75"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="17" t="s">
         <v>88</v>
       </c>
@@ -11245,15 +13485,15 @@
       </c>
       <c r="N6" s="21"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="68"/>
+      <c r="D7" t="s">
         <v>96</v>
       </c>
       <c r="E7" s="21">
@@ -11267,14 +13507,14 @@
       </c>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="68" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="23"/>
@@ -11306,14 +13546,14 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="68" t="s">
         <v>57</v>
       </c>
       <c r="D9" s="23"/>
@@ -11345,14 +13585,14 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="68" t="s">
         <v>269</v>
       </c>
       <c r="D10" s="24"/>
@@ -11384,20 +13624,20 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="76" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="70" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>98</v>
       </c>
       <c r="H11" s="21">
@@ -11428,14 +13668,14 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="76" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="70" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -11469,14 +13709,14 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="76" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="77">
+      <c r="C13" s="70">
         <v>1</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -11492,14 +13732,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="68" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="23"/>
@@ -11531,14 +13771,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="68" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="23"/>
@@ -11570,14 +13810,14 @@
         <v>4.8999999999999998E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="68" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="23"/>
@@ -11609,14 +13849,14 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="68" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="23"/>
@@ -11648,14 +13888,14 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="68" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="23"/>
@@ -11687,14 +13927,14 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="68" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="23"/>
@@ -11726,14 +13966,14 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="75"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="17" t="s">
         <v>82</v>
       </c>
@@ -11765,17 +14005,17 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="67" t="s">
         <v>103</v>
       </c>
       <c r="H21" s="21">
@@ -11806,12 +14046,12 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D23" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D24" s="17" t="s">
         <v>101</v>
       </c>
@@ -11837,11 +14077,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11850,419 +14090,420 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K42"/>
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="41.109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.109375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="53.33203125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="32"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="K1" s="32">
+      <c r="K1">
         <f>0.043333</f>
         <v>4.3333000000000003E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K2" s="32">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2">
         <f>K1*180/PI()</f>
         <v>2.4827980136403962</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="54" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="36"/>
-    </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="37"/>
-    </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="D5" s="32"/>
+    </row>
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="37"/>
-    </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="35" t="s">
+      <c r="D7" s="32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="35" t="s">
+      <c r="D8" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="32"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="32"/>
+    </row>
+    <row r="13" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="32"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="D22" s="32"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="32"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="52"/>
+      <c r="B28" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="92"/>
+      <c r="B30" s="92" t="s">
+        <v>286</v>
+      </c>
+      <c r="C30" s="92" t="s">
+        <v>287</v>
+      </c>
+      <c r="D30" s="92" t="s">
+        <v>283</v>
+      </c>
+      <c r="E30" s="71" t="s">
         <v>272</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="35"/>
-    </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="35"/>
-    </row>
-    <row r="13" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="35"/>
-    </row>
-    <row r="15" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="35" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="44.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="D21" s="35"/>
-    </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="D22" s="35"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="D23" s="35"/>
-    </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="D24" s="35"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="57"/>
-      <c r="B28" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="103"/>
-      <c r="B30" s="103" t="s">
-        <v>287</v>
-      </c>
-      <c r="C30" s="103" t="s">
-        <v>288</v>
-      </c>
-      <c r="D30" s="103" t="s">
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="E30" s="78" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35" t="s">
+      <c r="C31" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="C31" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="56" t="s">
+      <c r="D31" s="32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="51" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12275,1100 +14516,508 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B1:AD56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49BB5F5-9694-4AF9-9C21-5C12B0B71BA5}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="B2:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" customWidth="1"/>
-    <col min="11" max="11" width="1.44140625" customWidth="1"/>
-    <col min="21" max="21" width="1.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2" style="45" customWidth="1"/>
+    <col min="2" max="15" width="6.85546875" style="45" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B2" s="87" t="s">
+    <row r="2" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="D2" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="E2" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="F2" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="H2" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
-      <c r="L2" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="89" t="s">
-        <v>115</v>
-      </c>
-      <c r="O2" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="P2" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="80"/>
-      <c r="V2" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" s="89" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y2" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z2" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="80"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B3" s="91">
-        <v>0</v>
-      </c>
-      <c r="C3" s="92">
-        <v>90</v>
-      </c>
-      <c r="D3" s="92">
-        <v>0</v>
-      </c>
-      <c r="E3" s="92">
-        <v>0</v>
-      </c>
-      <c r="F3" s="93">
-        <v>0</v>
-      </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="82"/>
-      <c r="L3" s="99">
-        <v>0.5</v>
-      </c>
-      <c r="M3" s="101">
-        <v>80</v>
-      </c>
-      <c r="N3" s="92">
-        <v>0</v>
-      </c>
-      <c r="O3" s="92">
-        <v>0</v>
-      </c>
-      <c r="P3" s="93">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="82"/>
-      <c r="V3" s="97">
-        <v>0.5</v>
-      </c>
-      <c r="W3" s="92">
-        <v>90</v>
-      </c>
-      <c r="X3" s="92">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="92">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="93">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="82"/>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B4" s="83"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="82"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="82"/>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B5" s="83"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="82"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="81"/>
-      <c r="X5" s="81"/>
-      <c r="Y5" s="81"/>
-      <c r="Z5" s="81"/>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="81"/>
-      <c r="AC5" s="81"/>
-      <c r="AD5" s="82"/>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B6" s="83"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="82"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="81"/>
-      <c r="AC6" s="81"/>
-      <c r="AD6" s="82"/>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B7" s="83"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="82"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="82"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="81"/>
-      <c r="AC7" s="81"/>
-      <c r="AD7" s="82"/>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B8" s="83"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="82"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="82"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="81"/>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="81"/>
-      <c r="AB8" s="81"/>
-      <c r="AC8" s="81"/>
-      <c r="AD8" s="82"/>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B9" s="83"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="82"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="82"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="81"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="81"/>
-      <c r="AB9" s="81"/>
-      <c r="AC9" s="81"/>
-      <c r="AD9" s="82"/>
-    </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B10" s="83"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="82"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="82"/>
-    </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B11" s="83"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="82"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="82"/>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B12" s="83"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="82"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="82"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="81"/>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="81"/>
-      <c r="Z12" s="81"/>
-      <c r="AA12" s="81"/>
-      <c r="AB12" s="81"/>
-      <c r="AC12" s="81"/>
-      <c r="AD12" s="82"/>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B13" s="83"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="82"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="81"/>
-      <c r="AA13" s="81"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="81"/>
-      <c r="AD13" s="82"/>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="86"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="86"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="85"/>
-      <c r="AC14" s="85"/>
-      <c r="AD14" s="86"/>
-    </row>
-    <row r="15" spans="2:30" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B16" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="89" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="94" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="80"/>
-      <c r="L16" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="M16" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" s="89" t="s">
-        <v>115</v>
-      </c>
-      <c r="O16" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="P16" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="80"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B17" s="91">
-        <v>0</v>
-      </c>
-      <c r="C17" s="92">
-        <v>90</v>
-      </c>
-      <c r="D17" s="92">
-        <v>0</v>
-      </c>
-      <c r="E17" s="92">
-        <v>0</v>
-      </c>
-      <c r="F17" s="95">
-        <v>270</v>
-      </c>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="82"/>
-      <c r="L17" s="99">
-        <v>0.5</v>
-      </c>
-      <c r="M17" s="101">
-        <v>80</v>
-      </c>
-      <c r="N17" s="92">
-        <v>45</v>
-      </c>
-      <c r="O17" s="92">
-        <v>0</v>
-      </c>
-      <c r="P17" s="93">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="82"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B18" s="83"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="82"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="82"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B19" s="83"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="82"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="82"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B20" s="83"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="82"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="82"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B21" s="83"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="82"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="81"/>
-      <c r="T21" s="82"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B22" s="83"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="82"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="82"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B23" s="83"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="82"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="82"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B24" s="83"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="82"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
-      <c r="T24" s="82"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B25" s="83"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="82"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="82"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B26" s="83"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="82"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="82"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B27" s="83"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="82"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="82"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B28" s="84"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="86"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="85"/>
-      <c r="T28" s="86"/>
-    </row>
-    <row r="29" spans="2:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B30" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="89" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="F30" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="80"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B31" s="97">
-        <v>0.5</v>
-      </c>
-      <c r="C31" s="92">
-        <v>90</v>
-      </c>
-      <c r="D31" s="92">
-        <v>0</v>
-      </c>
-      <c r="E31" s="92">
-        <v>0</v>
-      </c>
-      <c r="F31" s="93">
-        <v>0</v>
-      </c>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="82"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B32" s="83"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="82"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="83"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="82"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="83"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="82"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="83"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="82"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="83"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="82"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="83"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="82"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="83"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="82"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="83"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="82"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="83"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="82"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="83"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="82"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="84"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="86"/>
-    </row>
-    <row r="43" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="89" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="F44" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79" t="s">
-        <v>282</v>
-      </c>
-      <c r="I44" s="79"/>
-      <c r="J44" s="80"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="97">
-        <v>0.5</v>
-      </c>
-      <c r="C45" s="92">
-        <v>90</v>
-      </c>
-      <c r="D45" s="92">
-        <v>0</v>
-      </c>
-      <c r="E45" s="92">
-        <v>0</v>
-      </c>
-      <c r="F45" s="93" t="s">
-        <v>279</v>
-      </c>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="82"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="83"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="82"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="83"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81" t="s">
-        <v>278</v>
-      </c>
-      <c r="E47" s="102" t="s">
-        <v>277</v>
-      </c>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="82"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="83"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="82"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="83" t="s">
-        <v>276</v>
-      </c>
-      <c r="C49" s="81"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="82"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="83"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="102" t="s">
-        <v>280</v>
-      </c>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="82"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="83"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="82"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="83"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="82"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="83"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="82"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="83"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81" t="s">
-        <v>275</v>
-      </c>
-      <c r="E54" s="102" t="s">
-        <v>281</v>
-      </c>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="82"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="83"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="82"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="84"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="86"/>
+      <c r="I2" s="101" t="s">
+        <v>290</v>
+      </c>
+      <c r="J2" s="101" t="s">
+        <v>291</v>
+      </c>
+      <c r="K2" s="101" t="s">
+        <v>292</v>
+      </c>
+      <c r="L2" s="101" t="s">
+        <v>293</v>
+      </c>
+      <c r="M2" s="101" t="s">
+        <v>148</v>
+      </c>
+      <c r="N2" s="100" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="95" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="97" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="98" t="s">
+        <v>296</v>
+      </c>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="98" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="99"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="95" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="95" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="95" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="99"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="98" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="98" t="s">
+        <v>302</v>
+      </c>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="98" t="s">
+        <v>303</v>
+      </c>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="98" t="s">
+        <v>305</v>
+      </c>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="98" t="s">
+        <v>306</v>
+      </c>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="98" t="s">
+        <v>307</v>
+      </c>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="98" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="95" t="s">
+        <v>310</v>
+      </c>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/research/Astrophysics_Personal_Glossary_Notebook.xlsx
+++ b/research/Astrophysics_Personal_Glossary_Notebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Python\curvesim\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B28FB21-B43E-40C7-9CF8-B3F3A01C7C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4924ED14-E7A9-46E8-A872-412796702A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orbital Period" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name=" TIC 178155732" sheetId="6" r:id="rId6"/>
     <sheet name="Orbit glossary" sheetId="7" r:id="rId7"/>
     <sheet name="Kepler Parameter" sheetId="9" r:id="rId8"/>
-    <sheet name="Parametersätze CurveSimulator" sheetId="14" r:id="rId9"/>
-    <sheet name="Parametersätze in Literatur" sheetId="11" r:id="rId10"/>
+    <sheet name="Parametersätze in Literatur" sheetId="11" r:id="rId9"/>
+    <sheet name="Parametersätze CurveSimulator" sheetId="14" r:id="rId10"/>
     <sheet name="Parameter-Interpretation" sheetId="15" r:id="rId11"/>
     <sheet name="Parameter-Interpretation alt" sheetId="13" r:id="rId12"/>
     <sheet name="Exoplanetenparameterableitung" sheetId="12" r:id="rId13"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="333">
   <si>
     <t>DT</t>
   </si>
@@ -1255,8 +1255,116 @@
     <t>T</t>
   </si>
   <si>
+    <t>State Vector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L=270    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   L=180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nu=270    </t>
+  </si>
+  <si>
+    <t>nu=90</t>
+  </si>
+  <si>
+    <t>nu=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   nu=90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nu=0     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     nu=180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     EA=180</t>
+  </si>
+  <si>
+    <t>EA=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA=270    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   EA=90</t>
+  </si>
+  <si>
+    <t>EA=90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA=0     </t>
+  </si>
+  <si>
+    <t>MA=90</t>
+  </si>
+  <si>
+    <t>MA=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA=270  </t>
+  </si>
+  <si>
+    <t>MA=180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA=0     </t>
+  </si>
+  <si>
+    <t>T=25%*P</t>
+  </si>
+  <si>
+    <t>T=50%*P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T=75%*P  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T=0     </t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>2 out of 3 needed</t>
+  </si>
+  <si>
+    <t>1 out of 5 needed</t>
+  </si>
+  <si>
+    <t>a, e, i are mandatory.</t>
+  </si>
+  <si>
+    <t>Alternatively: State vector</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nu=0     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nu=-135     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nu=180     </t>
+  </si>
+  <si>
+    <t>2 of Ω, ω, ϖ are needed.</t>
+  </si>
+  <si>
+    <t>1 of L, nu, EA, MA, T is needed.</t>
+  </si>
+  <si>
+    <t>t is optional.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">pot_transit_date </t>
+      <t xml:space="preserve">    ω </t>
     </r>
     <r>
       <rPr>
@@ -1269,38 +1377,44 @@
     </r>
     <r>
       <rPr>
-        <i/>
         <sz val="10"/>
-        <color rgb="FFFFD866"/>
+        <color rgb="FFFC9867"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>2468000.25        # Barycentric Julian Date (TDB) at the time of potential transit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                     </t>
+      <t xml:space="preserve">ϖ </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFAAAAAA"/>
+        <color rgb="FFFF3261"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t># The planet is nearer to the viewer than the sun.</t>
+      <t xml:space="preserve">- </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                                     # Planet and sun are positioned at the same x value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                     # This value should be larger than the video's start_date</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">longitude_of_ascending_node </t>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFC9867"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ϖ </t>
     </r>
     <r>
       <rPr>
@@ -1313,18 +1427,44 @@
     </r>
     <r>
       <rPr>
-        <i/>
         <sz val="10"/>
-        <color rgb="FFFFD866"/>
+        <color rgb="FFFC9867"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>0      # [deg] Ω: longitude of ascending node</t>
+      <t xml:space="preserve">ω </t>
     </r>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">longitude_of_periapsis </t>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFC9867"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Ω </t>
     </r>
     <r>
       <rPr>
@@ -1337,18 +1477,12 @@
     </r>
     <r>
       <rPr>
-        <i/>
         <sz val="10"/>
-        <color rgb="FFFFD866"/>
+        <color rgb="FFFC9867"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>90           # [deg] ϖ: longitude of periapsis</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">L </t>
+      <t xml:space="preserve">ϖ </t>
     </r>
     <r>
       <rPr>
@@ -1357,132 +1491,17 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFFFD866"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0                                # [deg] mean longitude</t>
-    </r>
-  </si>
-  <si>
-    <t># argument_of_periapsis = 0          # [deg] ω: argument of periapsis</t>
-  </si>
-  <si>
-    <t># nu, ma, ea, T:   Only true anomaly or mean_anomaly or eccentric_anomaly or time_of_periapsis has to be provided.</t>
-  </si>
-  <si>
-    <t># ma can be calculated from ϖ and L.</t>
-  </si>
-  <si>
-    <t># ω can be calculated from ϖ and Ω.</t>
-  </si>
-  <si>
-    <t># nu = 0                             # [deg] true anomaly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                     # Per definition = 0° at the time of an exoplanet's primary transit.</t>
-  </si>
-  <si>
-    <t># ma = 0                             # [deg] mean anomaly</t>
-  </si>
-  <si>
-    <t># ea = 0                             # [deg] eccentric anomaly</t>
-  </si>
-  <si>
-    <t>State Vector</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T </t>
+      <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF3261"/>
+        <color rgb="FFFC9867"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">= </t>
+      <t>ω</t>
     </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFFFD866"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0                                # [s] Time of periapsis</t>
-    </r>
-  </si>
-  <si>
-    <t>;T = 0#3 * 24 * 3600                                # [s] Time of periapsis</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">longitude_of_periapsis </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF3261"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFFFD866"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0           # [deg] ϖ: longitude of periapsis</t>
-    </r>
-  </si>
-  <si>
-    <t>;nu = -125                             # [deg] true anomaly.</t>
-  </si>
-  <si>
-    <t>;t = -30.25 * 24 * 3600            # [t] Time since initial position in orbit. Default=0.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">color </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF3261"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFFFD866"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.01, 0.99, 0.01             # RGB value in animation. Minimum = 0, maximum = 1.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">L=270    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   L=180</t>
   </si>
 </sst>
 </file>
@@ -1641,20 +1660,19 @@
       <family val="3"/>
     </font>
     <font>
-      <i/>
       <sz val="10"/>
-      <color rgb="FFFFD866"/>
+      <color rgb="FFF6F6F6"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFAAAAAA"/>
+      <color rgb="FFC351DD"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1703,8 +1721,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -2032,6 +2074,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2042,7 +2188,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2246,37 +2392,6 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2287,10 +2402,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6259,74 +6479,25 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>533794</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19212</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC1E4A4-DE5A-BF80-48E4-45C253E3F284}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9582150" y="762000"/>
-          <a:ext cx="2819794" cy="1162212"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>503850</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66201</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>351450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>170976</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Ellipse 25">
+        <xdr:cNvPr id="80" name="Ellipse 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25446CE8-CC8A-49E0-9791-4DF096439C1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15102C99-3444-444F-ADA3-A7F3A78FC4BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6334,7 +6505,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12849225" y="1314450"/>
+          <a:off x="8353425" y="4086225"/>
           <a:ext cx="180000" cy="190026"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6378,16 +6549,152 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>627006</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>742308</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>351450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>170976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Ellipse 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{449F63FE-10A8-461F-B2B2-E4084BFE60A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8353425" y="4086225"/>
+          <a:ext cx="180000" cy="190026"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>341925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>170976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Ellipse 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25446CE8-CC8A-49E0-9791-4DF096439C1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457575" y="1419225"/>
+          <a:ext cx="180000" cy="190026"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>341256</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>80121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27933</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>117665</xdr:rowOff>
+      <xdr:rowOff>108140</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6402,8 +6709,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="973206" y="1099358"/>
-          <a:ext cx="1933019" cy="888508"/>
+          <a:off x="313460" y="1088992"/>
+          <a:ext cx="1933019" cy="886827"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6444,16 +6751,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>136858</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>20774</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>182577</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>230324</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>96852</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6468,7 +6775,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7086599" y="1384633"/>
+          <a:off x="3181349" y="1489408"/>
           <a:ext cx="744675" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6510,16 +6817,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>381679</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>94690</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219754</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>458320</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>176680</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296395</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>90955</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6534,7 +6841,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7420654" y="1342465"/>
+          <a:off x="3515404" y="1447240"/>
           <a:ext cx="76641" cy="81990"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6579,15 +6886,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>243549</xdr:colOff>
+      <xdr:colOff>329274</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>72837</xdr:rowOff>
+      <xdr:rowOff>63312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>324970</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>10645</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>158780</xdr:rowOff>
+      <xdr:rowOff>149255</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6602,7 +6909,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1885211" y="2465293"/>
+          <a:off x="1224624" y="2454087"/>
           <a:ext cx="81421" cy="85943"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6647,15 +6954,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>194569</xdr:colOff>
+      <xdr:colOff>280294</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>179293</xdr:rowOff>
+      <xdr:rowOff>169768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>374569</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60244</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>169472</xdr:rowOff>
+      <xdr:rowOff>159947</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6670,7 +6977,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1836231" y="2000249"/>
+          <a:off x="1175644" y="1989043"/>
           <a:ext cx="180000" cy="180679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6714,16 +7021,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>662446</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>386221</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>76418</xdr:rowOff>
+      <xdr:rowOff>152618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6738,7 +7045,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2219325" y="857250"/>
+          <a:off x="1600200" y="933450"/>
           <a:ext cx="81421" cy="85943"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6782,16 +7089,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>341949</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>56288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>687525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>45719</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>305664</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>113345</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6805,9 +7112,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14068425" y="1057275"/>
-          <a:ext cx="1459050" cy="45719"/>
+        <a:xfrm rot="10800000">
+          <a:off x="6923724" y="4161563"/>
+          <a:ext cx="1963965" cy="57057"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6849,15 +7156,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>348121</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33796</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>133568</xdr:rowOff>
+      <xdr:rowOff>124043</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6872,7 +7179,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1905000" y="533400"/>
+          <a:off x="1247775" y="523875"/>
           <a:ext cx="81421" cy="85943"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6917,15 +7224,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>14746</xdr:colOff>
+      <xdr:colOff>52846</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>66893</xdr:rowOff>
+      <xdr:rowOff>162143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6940,7 +7247,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1571625" y="847725"/>
+          <a:off x="866775" y="942975"/>
           <a:ext cx="81421" cy="85943"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6985,15 +7292,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>619804</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>132790</xdr:rowOff>
+      <xdr:colOff>57829</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>696445</xdr:colOff>
+      <xdr:colOff>134470</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>24280</xdr:rowOff>
+      <xdr:rowOff>129055</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7008,7 +7315,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7658779" y="1380565"/>
+          <a:off x="3753529" y="1485340"/>
           <a:ext cx="76641" cy="81990"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7050,10 +7357,4075 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>341925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>170976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Ellipse 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC804BA-4F96-44F7-8F6B-AA4A28734F03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457575" y="1419225"/>
+          <a:ext cx="180000" cy="190026"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>341256</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>80121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>27933</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>108140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Ellipse 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF08BB67-E147-44F2-85FE-C304BBCEE7F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="313460" y="1088992"/>
+          <a:ext cx="1933019" cy="886827"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>230324</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>96852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Ellipse 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF4ED95F-76CA-455F-84F8-EC43E3B8065F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181349" y="1489408"/>
+          <a:ext cx="744675" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>219754</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>296395</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>90955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Ellipse 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7301AED-7D61-44B0-B19A-52F1769D0F5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3515404" y="1447240"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>329274</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10645</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>149255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Ellipse 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E162A450-3CB6-4DA0-9CA8-84E98029B88D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1224624" y="2454087"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>280294</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>169768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>60244</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>159947</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Ellipse 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E90CF0F4-1B30-4173-8465-16656C2EAB26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1175644" y="1989043"/>
+          <a:ext cx="180000" cy="180679"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>62371</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Ellipse 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF087767-498B-48CE-8B26-F561C80C30FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="1504950"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>33796</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>124043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Ellipse 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E517E2E-5DFD-42CF-86D8-4227E4D5D804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="523875"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>386221</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>143093</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Ellipse 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C40966D-AD60-484A-9183-8248FC0D204B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5286375" y="1495425"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>162604</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>239245</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>110005</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Ellipse 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5DAEAD-6019-418B-9256-AAE1540157DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8344579" y="1466290"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>341925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>170976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Ellipse 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{229EDF46-1B00-44A5-9A80-A460020D9D63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7943850" y="1419225"/>
+          <a:ext cx="180000" cy="190026"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>341256</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>80121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>27933</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>108140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Ellipse 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD0FC4EA-B103-469F-A6F9-6A48D7C4F569}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4799735" y="1088992"/>
+          <a:ext cx="1933019" cy="886827"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>230324</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>96852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Ellipse 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B87305A-B848-4195-8028-137FB72BC9E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667624" y="1489408"/>
+          <a:ext cx="744675" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>219754</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>296395</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>90955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Ellipse 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33418DFD-A144-4F16-849C-EE852BAB44F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001679" y="1447240"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>329274</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>10645</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>149255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Ellipse 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09DECE5-680B-4DDD-AE54-88305A567772}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5710899" y="2454087"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>280294</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>169768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>60244</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>159947</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Ellipse 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5612FD5C-167B-4670-9D23-CBB92D3773A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5661919" y="1989043"/>
+          <a:ext cx="180000" cy="180679"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>43321</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Ellipse 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519D02BF-A3A9-4714-A5ED-8E1D1B6F9910}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10629900" y="1800225"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>33796</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>124043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Ellipse 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E75683-1E50-4B84-B216-F6869081AD61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5734050" y="523875"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>5221</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57368</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Ellipse 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D21324C7-B0D7-489B-9785-25EDDCA07D68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9791700" y="1790700"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>95929</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>172570</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>90955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Ellipse 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1EF6AC-F99E-480D-97AC-3AAD31F6C2D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12764179" y="1447240"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>341925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>170976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Ellipse 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B64776-6C5C-439D-AF25-621331621455}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457575" y="1419225"/>
+          <a:ext cx="180000" cy="190026"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>341256</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>80121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>27933</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>108140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Ellipse 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE67DAB-CCE8-4751-A186-CD041459B0D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="313460" y="1088992"/>
+          <a:ext cx="1933019" cy="886827"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>230324</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>96852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Ellipse 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE88EC9-A682-4B52-973B-CB30F2196B6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181349" y="1489408"/>
+          <a:ext cx="744675" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>219754</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>296395</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>90955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Ellipse 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD15C6F-03B3-4FC4-8E4E-9EA97EB28EF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3515404" y="1447240"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>329274</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>10645</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>149255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Ellipse 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{498EA7CA-8811-4ADF-A1A9-886E48BC5918}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1224624" y="2454087"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>280294</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>169768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>60244</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>159947</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Ellipse 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7568FFA0-83C8-4E27-9150-329444B8644F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1175644" y="1989043"/>
+          <a:ext cx="180000" cy="180679"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>386221</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Ellipse 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F8E335-C49B-4FCE-9030-8A998CBAD067}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="933450"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>33796</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>124043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Ellipse 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF66EED3-BE84-4B21-9942-36E2C003E4E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="523875"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>52846</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>162143</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Ellipse 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2C2ABA7-8A82-4F39-87AC-99D707C5256F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="942975"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>57829</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>129055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Ellipse 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B95A5B1-3ABE-4253-97DE-FD41AEBABB24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3753529" y="1485340"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>341925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>170976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Ellipse 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{030A4FDF-7CDB-40C7-9E31-B7C69F61AFFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457575" y="1419225"/>
+          <a:ext cx="180000" cy="190026"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>341256</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27933</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>108140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Ellipse 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16AD2031-3845-4BFF-B4F8-DA04D98CB650}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="313460" y="1088992"/>
+          <a:ext cx="1933019" cy="886827"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>51133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>230324</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>96852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Ellipse 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A4BA414-2F34-4891-8028-349AA4E9BE6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181349" y="1489408"/>
+          <a:ext cx="744675" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219754</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296395</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>90955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Ellipse 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81815B13-2EDB-4A49-9969-203EE3199B80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3515404" y="1447240"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>329274</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>10645</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>149255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Ellipse 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0040C16E-9A2B-4E9B-9A48-290A0B7DD400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1224624" y="2454087"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>280294</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>169768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60244</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>159947</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Ellipse 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C4AEE1C-2403-49F9-AC07-811C62022EB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1175644" y="1989043"/>
+          <a:ext cx="180000" cy="180679"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>386221</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Ellipse 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC6E1E2-1FA2-4FE8-BFA8-3F1A706A3A01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="933450"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33796</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>124043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Ellipse 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C2FBC9-E333-4874-9E8A-585FA661714F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="523875"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>52846</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>162143</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Ellipse 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B730CE6C-E0B1-4F20-ACB7-C039B6D83ABE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="942975"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57829</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Ellipse 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2E12140-F949-4590-8D3B-6BF50B9687DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3753529" y="1485340"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Textfeld 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C46E67C-6904-8782-09D2-A49C396BB682}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="4552949"/>
+          <a:ext cx="1352550" cy="619126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" kern="1200"/>
+            <a:t>P = Period</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" kern="1200"/>
+            <a:t>(Time it takes to complete one orbit.)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>218210</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>150979</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>156544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Ellipse 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{231292A4-1129-4C79-B0FA-8E4BA8CBD216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4799735" y="3755992"/>
+          <a:ext cx="1933019" cy="886827"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>13594</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>193594</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>169472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Ellipse 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F97A014-46D5-4E37-9D98-CC17C7E3B72F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6195319" y="4094068"/>
+          <a:ext cx="180000" cy="180679"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>186196</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Ellipse 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACDF88E4-6C44-4267-8707-FCE486625E20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6686550" y="4152900"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>257854</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>334495</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Ellipse 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA78A023-DF34-4C40-9046-ABEC9E2B9D66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839879" y="4152340"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Ellipse 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E0D1C5C-C84A-4E82-BFBE-FB813EAA0224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="11772899" y="4152898"/>
+          <a:ext cx="1590676" cy="76201"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>218210</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>150979</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>156544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Ellipse 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A98A060-1EF1-4915-B80C-37EB5C12C314}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19421040">
+          <a:off x="9286010" y="3755992"/>
+          <a:ext cx="1933019" cy="886827"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>299344</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>64993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>79294</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>55172</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Ellipse 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF9088B2-30C5-4F00-B0F6-A9BB43FF6B2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10567294" y="3789268"/>
+          <a:ext cx="180000" cy="180679"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>395746</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>143093</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Ellipse 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77414AC1-8549-4798-A76B-375E8381DB64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10982325" y="3590925"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>181654</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>56590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>258295</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>138580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="Ellipse 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C766C17-0EFC-44EA-97DD-84AB6DDABAED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13249954" y="4161865"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>24271</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Ellipse 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2ECC2F7-EE9D-4355-BD7F-08047F3B9F4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10610850" y="4381500"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>229279</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>305920</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>90955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="Ellipse 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{380FF06F-B277-4224-97F1-5C7C6E756D82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12897529" y="4114240"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>372154</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>18490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>48745</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="Ellipse 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F221A4A9-16CA-44D5-A08D-7A2F2ABFCEFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11840254" y="4123765"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>372154</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>48745</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>148105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="Ellipse 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9C9971-6162-4AB7-BC44-D705411C21AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9439954" y="4742890"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>332400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>132876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="Ellipse 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F567516-B124-420B-B1AC-6DF688A04D7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16906875" y="4619625"/>
+          <a:ext cx="180000" cy="190026"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>360302</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Ellipse 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2501FB4-4316-4BB4-8132-776E55FE4787}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="14215239" y="3899666"/>
+          <a:ext cx="1076323" cy="877948"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>338799</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>149037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>20170</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Ellipse 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E433B0F-42FF-40C3-A058-C34F8324BC28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14692974" y="4825812"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>299344</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>169768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>79294</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>159947</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="Ellipse 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBC39AA0-EA0B-4B15-AA9D-76C6BF340060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14653519" y="4656043"/>
+          <a:ext cx="180000" cy="180679"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>209547</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>132795</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="Ellipse 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6807B360-BDEB-4C80-A53A-DC87A8D55E94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="16164201" y="3733522"/>
+          <a:ext cx="1666319" cy="866778"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>200704</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>277345</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>167155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Ellipse 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E977A87-59BD-40F7-B013-5DFBA317B6E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16955179" y="4952440"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10797,169 +15169,241 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49BB5F5-9694-4AF9-9C21-5C12B0B71BA5}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="B2:M8"/>
+  <dimension ref="B2:N9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="E3" sqref="E3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="45" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.42578125" style="45"/>
-    <col min="7" max="7" width="13.85546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="11.42578125" style="45"/>
-    <col min="13" max="13" width="53.7109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="45"/>
+    <col min="2" max="12" width="6.85546875" style="45" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.85546875" style="45" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="45"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="119" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="118" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="117" t="s">
+        <v>321</v>
+      </c>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="116" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="105" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="106" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="H3" s="47" t="s">
+      <c r="G3" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="H3" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>229</v>
-      </c>
+      <c r="I3" s="108" t="s">
+        <v>290</v>
+      </c>
+      <c r="J3" s="108" t="s">
+        <v>291</v>
+      </c>
+      <c r="K3" s="108" t="s">
+        <v>292</v>
+      </c>
+      <c r="L3" s="113" t="s">
+        <v>293</v>
+      </c>
+      <c r="M3" s="120" t="s">
+        <v>148</v>
+      </c>
+      <c r="N3" s="112" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="49"/>
       <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="103" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" s="104" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" s="103" t="s">
+        <v>289</v>
+      </c>
       <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="G5" s="104" t="s">
+        <v>289</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>289</v>
+      </c>
       <c r="I5" s="49"/>
       <c r="J5" s="49"/>
       <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="103"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="104" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" s="103" t="s">
+        <v>289</v>
+      </c>
       <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
+      <c r="G6" s="104" t="s">
+        <v>289</v>
+      </c>
       <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="I6" s="49" t="s">
+        <v>289</v>
+      </c>
       <c r="J6" s="49"/>
       <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="103"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>289</v>
+      </c>
+      <c r="E7" s="103" t="s">
+        <v>289</v>
+      </c>
       <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
+      <c r="G7" s="104" t="s">
+        <v>289</v>
+      </c>
       <c r="H7" s="49"/>
       <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="J7" s="49" t="s">
+        <v>289</v>
+      </c>
       <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="103"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" s="104" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="103" t="s">
+        <v>289</v>
+      </c>
       <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
+      <c r="G8" s="104" t="s">
+        <v>289</v>
+      </c>
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
       <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
+      <c r="K8" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="L8" s="104"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="103"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="104" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" s="103" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="104" t="s">
+        <v>289</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="104" t="s">
+        <v>289</v>
+      </c>
+      <c r="M9" s="121"/>
+      <c r="N9" s="103"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10969,36 +15413,42 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="B1:M32"/>
+  <dimension ref="B1:AV35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="AH35" sqref="AH35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="12" width="6" customWidth="1"/>
     <col min="13" max="13" width="1.28515625" customWidth="1"/>
+    <col min="14" max="24" width="6" customWidth="1"/>
+    <col min="25" max="25" width="1.28515625" customWidth="1"/>
+    <col min="26" max="36" width="6" customWidth="1"/>
+    <col min="37" max="37" width="1.28515625" customWidth="1"/>
+    <col min="38" max="48" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:48" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B2" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="122" t="s">
         <v>115</v>
       </c>
       <c r="E2" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="124" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="126" t="s">
         <v>114</v>
       </c>
       <c r="H2" s="80" t="s">
@@ -11010,192 +15460,395 @@
       <c r="J2" s="80" t="s">
         <v>292</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="124" t="s">
         <v>293</v>
       </c>
-      <c r="L2" s="106" t="s">
+      <c r="L2" s="128" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N2" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="124" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="122" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="R2" s="124" t="s">
+        <v>140</v>
+      </c>
+      <c r="S2" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="T2" s="114" t="s">
+        <v>290</v>
+      </c>
+      <c r="U2" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="V2" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="W2" s="124" t="s">
+        <v>293</v>
+      </c>
+      <c r="X2" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z2" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="124" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" s="122" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC2" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD2" s="124" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE2" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF2" s="80" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG2" s="114" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH2" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="AI2" s="124" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ2" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL2" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM2" s="124" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN2" s="122" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO2" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP2" s="124" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ2" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR2" s="80" t="s">
+        <v>290</v>
+      </c>
+      <c r="AS2" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="AT2" s="114" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU2" s="124" t="s">
+        <v>293</v>
+      </c>
+      <c r="AV2" s="95" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B3" s="83">
         <v>0.7</v>
       </c>
-      <c r="C3" s="102">
-        <v>88</v>
-      </c>
-      <c r="D3" s="84">
+      <c r="C3" s="125">
+        <v>85</v>
+      </c>
+      <c r="D3" s="123">
         <v>0</v>
       </c>
       <c r="E3" s="84">
         <v>0</v>
       </c>
-      <c r="F3" s="84">
+      <c r="F3" s="125">
         <v>0</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="127" t="s">
         <v>229</v>
       </c>
-      <c r="H3" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="107">
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="129">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N3" s="83">
+        <v>0.7</v>
+      </c>
+      <c r="O3" s="125">
+        <v>85</v>
+      </c>
+      <c r="P3" s="123">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="84">
+        <v>0</v>
+      </c>
+      <c r="R3" s="125">
+        <v>0</v>
+      </c>
+      <c r="S3" s="84"/>
+      <c r="T3" s="115" t="s">
+        <v>229</v>
+      </c>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="96">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="83">
+        <v>0.7</v>
+      </c>
+      <c r="AA3" s="125">
+        <v>85</v>
+      </c>
+      <c r="AB3" s="123">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="84">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="125">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="115" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="125"/>
+      <c r="AJ3" s="96">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="83">
+        <v>0.7</v>
+      </c>
+      <c r="AM3" s="125">
+        <v>85</v>
+      </c>
+      <c r="AN3" s="123">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="84">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="125">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="84"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="84"/>
+      <c r="AT3" s="115" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU3" s="125"/>
+      <c r="AV3" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B4" s="75"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
       <c r="L4" s="74"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N4" s="75"/>
+      <c r="X4" s="74"/>
+      <c r="Z4" s="75"/>
+      <c r="AJ4" s="74"/>
+      <c r="AL4" s="75"/>
+      <c r="AV4" s="74"/>
+    </row>
+    <row r="5" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B5" s="75"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="111" t="s">
-        <v>317</v>
-      </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
+      <c r="D5" s="100" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" s="101"/>
       <c r="L5" s="74"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N5" s="75"/>
+      <c r="P5" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q5" s="101"/>
+      <c r="X5" s="74"/>
+      <c r="Z5" s="75"/>
+      <c r="AB5" s="99" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC5" s="101"/>
+      <c r="AJ5" s="74"/>
+      <c r="AL5" s="75"/>
+      <c r="AN5" s="100" t="s">
+        <v>312</v>
+      </c>
+      <c r="AO5" s="101"/>
+      <c r="AV5" s="74"/>
+    </row>
+    <row r="6" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B6" s="75"/>
-      <c r="C6" s="110" t="s">
-        <v>316</v>
-      </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103" t="s">
+      <c r="C6" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" t="s">
         <v>277</v>
       </c>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
       <c r="L6" s="74"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N6" s="75"/>
+      <c r="O6" s="27"/>
+      <c r="X6" s="74"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="27"/>
+      <c r="AJ6" s="74"/>
+      <c r="AL6" s="75"/>
+      <c r="AM6" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>309</v>
+      </c>
+      <c r="AV6" s="74"/>
+    </row>
+    <row r="7" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B7" s="75"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="105" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="74"/>
+      <c r="N7" s="75"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="74"/>
+      <c r="Z7" s="75"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="74"/>
+      <c r="AL7" s="75"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="74"/>
+    </row>
+    <row r="8" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B8" s="75"/>
+      <c r="J8" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="L7" s="74"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="75"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
       <c r="L8" s="74"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N8" s="75"/>
+      <c r="V8" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="X8" s="74"/>
+      <c r="Z8" s="75"/>
+      <c r="AH8" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ8" s="74"/>
+      <c r="AL8" s="75"/>
+      <c r="AT8" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="AV8" s="74"/>
+    </row>
+    <row r="9" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B9" s="75"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="110" t="s">
+      <c r="K9" s="18"/>
+      <c r="L9" s="74"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="W9" s="18"/>
+      <c r="X9" s="74"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="18"/>
+      <c r="AD9" s="27"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="74"/>
+      <c r="AL9" s="75"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="74"/>
+    </row>
+    <row r="10" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B10" s="75"/>
+      <c r="K10" t="s">
         <v>277</v>
       </c>
-      <c r="L9" s="74"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="75"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
       <c r="L10" s="74"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N10" s="75"/>
+      <c r="W10" t="s">
+        <v>298</v>
+      </c>
+      <c r="X10" s="74"/>
+      <c r="Z10" s="75"/>
+      <c r="AD10" s="27"/>
+      <c r="AI10" t="s">
+        <v>307</v>
+      </c>
+      <c r="AJ10" s="74"/>
+      <c r="AL10" s="75"/>
+      <c r="AU10" t="s">
+        <v>309</v>
+      </c>
+      <c r="AV10" s="74"/>
+    </row>
+    <row r="11" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B11" s="75"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
       <c r="L11" s="74"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N11" s="75"/>
+      <c r="X11" s="74"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD11" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="AJ11" s="74"/>
+      <c r="AL11" s="75"/>
+      <c r="AV11" s="74"/>
+    </row>
+    <row r="12" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B12" s="75"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
       <c r="L12" s="74"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N12" s="75"/>
+      <c r="X12" s="74"/>
+      <c r="Z12" s="75"/>
+      <c r="AJ12" s="74"/>
+      <c r="AL12" s="75"/>
+      <c r="AV12" s="74"/>
+    </row>
+    <row r="13" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B13" s="75"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
       <c r="L13" s="74"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N13" s="75"/>
+      <c r="X13" s="74"/>
+      <c r="Z13" s="75"/>
+      <c r="AJ13" s="74"/>
+      <c r="AL13" s="75"/>
+      <c r="AV13" s="74"/>
+    </row>
+    <row r="14" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="102" t="s">
         <v>279</v>
       </c>
       <c r="E14" s="77"/>
@@ -11206,270 +15859,529 @@
       <c r="J14" s="77"/>
       <c r="K14" s="77"/>
       <c r="L14" s="78"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="95" t="s">
-        <v>298</v>
-      </c>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="95" t="s">
-        <v>312</v>
-      </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="95" t="s">
-        <v>300</v>
-      </c>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="99"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="98" t="s">
+      <c r="N14" s="76"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="98" t="s">
         <v>301</v>
       </c>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="98" t="s">
-        <v>302</v>
-      </c>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="98" t="s">
-        <v>303</v>
-      </c>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="98" t="s">
-        <v>304</v>
-      </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="98" t="s">
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="78"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="77"/>
+      <c r="AB14" s="98" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="77"/>
+      <c r="AI14" s="77"/>
+      <c r="AJ14" s="78"/>
+      <c r="AL14" s="76"/>
+      <c r="AM14" s="77"/>
+      <c r="AN14" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="108"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="98" t="s">
-        <v>306</v>
-      </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="98" t="s">
-        <v>307</v>
-      </c>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="108"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="98" t="s">
-        <v>308</v>
-      </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="98" t="s">
-        <v>311</v>
-      </c>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="98" t="s">
+      <c r="AO14" s="77"/>
+      <c r="AP14" s="77"/>
+      <c r="AQ14" s="77"/>
+      <c r="AR14" s="77"/>
+      <c r="AS14" s="77"/>
+      <c r="AT14" s="77"/>
+      <c r="AU14" s="77"/>
+      <c r="AV14" s="78"/>
+    </row>
+    <row r="16" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B16" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="124" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="122" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="124" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="80" t="s">
+        <v>290</v>
+      </c>
+      <c r="I16" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="J16" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="K16" s="130" t="s">
+        <v>293</v>
+      </c>
+      <c r="L16" s="128" t="s">
+        <v>148</v>
+      </c>
+      <c r="N16" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="124" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="122" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q16" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="R16" s="130" t="s">
+        <v>140</v>
+      </c>
+      <c r="S16" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="T16" s="80" t="s">
+        <v>290</v>
+      </c>
+      <c r="U16" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="V16" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="W16" s="124" t="s">
+        <v>293</v>
+      </c>
+      <c r="X16" s="128" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z16" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA16" s="124" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB16" s="122" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC16" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD16" s="130" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE16" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF16" s="114" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG16" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH16" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="AI16" s="124" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ16" s="128" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL16" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM16" s="124" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN16" s="132" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO16" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP16" s="130" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ16" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR16" s="80" t="s">
+        <v>290</v>
+      </c>
+      <c r="AS16" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="AT16" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU16" s="124" t="s">
+        <v>293</v>
+      </c>
+      <c r="AV16" s="128" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B17" s="83">
+        <v>0.7</v>
+      </c>
+      <c r="C17" s="125">
+        <v>85</v>
+      </c>
+      <c r="D17" s="123">
+        <v>0</v>
+      </c>
+      <c r="E17" s="84">
+        <v>0</v>
+      </c>
+      <c r="F17" s="125">
+        <v>0</v>
+      </c>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="131" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="129">
+        <v>0</v>
+      </c>
+      <c r="N17" s="83">
+        <v>0.7</v>
+      </c>
+      <c r="O17" s="125">
+        <v>85</v>
+      </c>
+      <c r="P17" s="123">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="115">
+        <v>90</v>
+      </c>
+      <c r="R17" s="131">
+        <v>90</v>
+      </c>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="125">
+        <v>0</v>
+      </c>
+      <c r="X17" s="129">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="83">
+        <v>0.7</v>
+      </c>
+      <c r="AA17" s="125">
+        <v>85</v>
+      </c>
+      <c r="AB17" s="123">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="115">
+        <v>135</v>
+      </c>
+      <c r="AD17" s="131">
+        <v>135</v>
+      </c>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="115" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG17" s="84"/>
+      <c r="AH17" s="84"/>
+      <c r="AI17" s="125"/>
+      <c r="AJ17" s="129">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="83">
+        <v>0.7</v>
+      </c>
+      <c r="AM17" s="125">
+        <v>85</v>
+      </c>
+      <c r="AN17" s="127">
+        <v>80</v>
+      </c>
+      <c r="AO17" s="84">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="131">
+        <v>80</v>
+      </c>
+      <c r="AQ17" s="84"/>
+      <c r="AR17" s="84"/>
+      <c r="AS17" s="84"/>
+      <c r="AT17" s="84"/>
+      <c r="AU17" s="125">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B18" s="75"/>
+      <c r="L18" s="74"/>
+      <c r="N18" s="75"/>
+      <c r="X18" s="74"/>
+      <c r="Z18" s="75"/>
+      <c r="AJ18" s="74"/>
+      <c r="AL18" s="75"/>
+      <c r="AV18" s="74"/>
+    </row>
+    <row r="19" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B19" s="75"/>
+      <c r="D19" s="100" t="s">
+        <v>315</v>
+      </c>
+      <c r="E19" s="101"/>
+      <c r="L19" s="74"/>
+      <c r="N19" s="75"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="101"/>
+      <c r="X19" s="74"/>
+      <c r="Z19" s="75"/>
+      <c r="AB19" s="100"/>
+      <c r="AC19" s="101"/>
+      <c r="AJ19" s="74"/>
+      <c r="AL19" s="75"/>
+      <c r="AN19" s="100"/>
+      <c r="AO19" s="101"/>
+      <c r="AV19" s="74"/>
+    </row>
+    <row r="20" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B20" s="75"/>
+      <c r="C20" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="F20" t="s">
         <v>314</v>
       </c>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="95" t="s">
-        <v>315</v>
-      </c>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
+      <c r="L20" s="74"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="18"/>
+      <c r="X20" s="74"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="18"/>
+      <c r="AE20" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ20" s="74"/>
+      <c r="AL20" s="75"/>
+      <c r="AM20" s="27"/>
+      <c r="AV20" s="74"/>
+    </row>
+    <row r="21" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B21" s="75"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="74"/>
+      <c r="N21" s="75"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="74"/>
+      <c r="Z21" s="75"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="74"/>
+      <c r="AL21" s="75"/>
+      <c r="AU21" s="11"/>
+      <c r="AV21" s="74"/>
+    </row>
+    <row r="22" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B22" s="75"/>
+      <c r="J22" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="L22" s="74"/>
+      <c r="N22" s="75"/>
+      <c r="V22" s="11"/>
+      <c r="X22" s="74"/>
+      <c r="Z22" s="75"/>
+      <c r="AF22" t="s">
+        <v>326</v>
+      </c>
+      <c r="AH22" s="11"/>
+      <c r="AI22" t="s">
+        <v>325</v>
+      </c>
+      <c r="AJ22" s="74"/>
+      <c r="AL22" s="75"/>
+      <c r="AT22" s="11"/>
+      <c r="AV22" s="74"/>
+    </row>
+    <row r="23" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B23" s="75"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="74"/>
+      <c r="N23" s="75"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="74"/>
+      <c r="Z23" s="75"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="74"/>
+      <c r="AL23" s="75"/>
+      <c r="AU23" s="18"/>
+      <c r="AV23" s="74"/>
+    </row>
+    <row r="24" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B24" s="75"/>
+      <c r="K24" t="s">
+        <v>314</v>
+      </c>
+      <c r="L24" s="74"/>
+      <c r="N24" s="75"/>
+      <c r="X24" s="74"/>
+      <c r="Z24" s="75"/>
+      <c r="AJ24" s="74" t="s">
+        <v>299</v>
+      </c>
+      <c r="AL24" s="75"/>
+      <c r="AV24" s="74"/>
+    </row>
+    <row r="25" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B25" s="75"/>
+      <c r="L25" s="74"/>
+      <c r="N25" s="75"/>
+      <c r="X25" s="74"/>
+      <c r="Z25" s="75"/>
+      <c r="AD25" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="AJ25" s="74"/>
+      <c r="AL25" s="75"/>
+      <c r="AV25" s="74"/>
+    </row>
+    <row r="26" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B26" s="75"/>
+      <c r="L26" s="74"/>
+      <c r="N26" s="75"/>
+      <c r="X26" s="74"/>
+      <c r="Z26" s="75"/>
+      <c r="AJ26" s="74"/>
+      <c r="AL26" s="75"/>
+      <c r="AV26" s="74"/>
+    </row>
+    <row r="27" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B27" s="75"/>
+      <c r="L27" s="74"/>
+      <c r="N27" s="75"/>
+      <c r="X27" s="74"/>
+      <c r="Z27" s="75" t="s">
+        <v>326</v>
+      </c>
+      <c r="AJ27" s="74"/>
+      <c r="AL27" s="75"/>
+      <c r="AV27" s="74"/>
+    </row>
+    <row r="28" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B28" s="76"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="98" t="s">
+        <v>317</v>
+      </c>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="78"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="78"/>
+      <c r="Z28" s="76"/>
+      <c r="AA28" s="77"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="77"/>
+      <c r="AD28" s="77"/>
+      <c r="AE28" s="77"/>
+      <c r="AF28" s="77"/>
+      <c r="AG28" s="77"/>
+      <c r="AH28" s="77"/>
+      <c r="AI28" s="77"/>
+      <c r="AJ28" s="78"/>
+      <c r="AL28" s="76"/>
+      <c r="AM28" s="77"/>
+      <c r="AN28" s="102"/>
+      <c r="AO28" s="77"/>
+      <c r="AP28" s="77"/>
+      <c r="AQ28" s="77"/>
+      <c r="AR28" s="77"/>
+      <c r="AS28" s="77"/>
+      <c r="AT28" s="77"/>
+      <c r="AU28" s="77"/>
+      <c r="AV28" s="78"/>
+    </row>
+    <row r="30" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>327</v>
+      </c>
+      <c r="N31" s="133" t="s">
+        <v>330</v>
+      </c>
+      <c r="O31" s="97"/>
+      <c r="P31" s="97"/>
+    </row>
+    <row r="32" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>328</v>
+      </c>
+      <c r="N32" s="134"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="97"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>329</v>
+      </c>
+      <c r="N33" s="135" t="s">
+        <v>331</v>
+      </c>
+      <c r="O33" s="97"/>
+      <c r="P33" s="97"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>323</v>
+      </c>
+      <c r="N34" s="134"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="97"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N35" s="135" t="s">
+        <v>332</v>
+      </c>
+      <c r="O35" s="97"/>
+      <c r="P35" s="97"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -14095,8 +19007,8 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14516,109 +19428,110 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49BB5F5-9694-4AF9-9C21-5C12B0B71BA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="B2:Q27"/>
+  <dimension ref="B2:M8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:M2"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="45" customWidth="1"/>
-    <col min="2" max="15" width="6.85546875" style="45" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="45"/>
+    <col min="2" max="2" width="12.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.42578125" style="45"/>
+    <col min="7" max="7" width="13.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="11.42578125" style="45"/>
+    <col min="13" max="13" width="53.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="45"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="100" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C3" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D3" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="101" t="s">
+      <c r="E3" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="101" t="s">
+      <c r="F3" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="G3" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="H3" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="101" t="s">
+      <c r="I3" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="101" t="s">
-        <v>290</v>
-      </c>
-      <c r="J2" s="101" t="s">
-        <v>291</v>
-      </c>
-      <c r="K2" s="101" t="s">
-        <v>292</v>
-      </c>
-      <c r="L2" s="101" t="s">
-        <v>293</v>
-      </c>
-      <c r="M2" s="101" t="s">
-        <v>148</v>
-      </c>
-      <c r="N2" s="100" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="49" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49" t="s">
-        <v>289</v>
+        <v>229</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>231</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="I4" s="49"/>
+        <v>229</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>229</v>
+      </c>
       <c r="J4" s="49"/>
       <c r="K4" s="49"/>
       <c r="L4" s="49"/>
       <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -14631,9 +19544,8 @@
       <c r="K5" s="49"/>
       <c r="L5" s="49"/>
       <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
@@ -14646,9 +19558,8 @@
       <c r="K6" s="49"/>
       <c r="L6" s="49"/>
       <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
@@ -14661,366 +19572,25 @@
       <c r="K7" s="49"/>
       <c r="L7" s="49"/>
       <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="95" t="s">
-        <v>294</v>
-      </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="97" t="s">
-        <v>295</v>
-      </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="98" t="s">
-        <v>296</v>
-      </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="98" t="s">
-        <v>297</v>
-      </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="99"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="96"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="95" t="s">
-        <v>298</v>
-      </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="96"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="95" t="s">
-        <v>299</v>
-      </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="96"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="95" t="s">
-        <v>300</v>
-      </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="99"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="98" t="s">
-        <v>301</v>
-      </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="98" t="s">
-        <v>302</v>
-      </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="98" t="s">
-        <v>303</v>
-      </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="96"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="98" t="s">
-        <v>304</v>
-      </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="98" t="s">
-        <v>305</v>
-      </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="98" t="s">
-        <v>306</v>
-      </c>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="98" t="s">
-        <v>307</v>
-      </c>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="98" t="s">
-        <v>308</v>
-      </c>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="96"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="95" t="s">
-        <v>310</v>
-      </c>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/research/Astrophysics_Personal_Glossary_Notebook.xlsx
+++ b/research/Astrophysics_Personal_Glossary_Notebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Python\curvesim\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4924ED14-E7A9-46E8-A872-412796702A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED86CA57-CCC4-427B-898B-764A1952C552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orbital Period" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,8 @@
     <sheet name=" TIC 178155732" sheetId="6" r:id="rId6"/>
     <sheet name="Orbit glossary" sheetId="7" r:id="rId7"/>
     <sheet name="Kepler Parameter" sheetId="9" r:id="rId8"/>
-    <sheet name="Parametersätze in Literatur" sheetId="11" r:id="rId9"/>
-    <sheet name="Parametersätze CurveSimulator" sheetId="14" r:id="rId10"/>
-    <sheet name="Parameter-Interpretation" sheetId="15" r:id="rId11"/>
-    <sheet name="Parameter-Interpretation alt" sheetId="13" r:id="rId12"/>
-    <sheet name="Exoplanetenparameterableitung" sheetId="12" r:id="rId13"/>
+    <sheet name="Parameter-Interpretation" sheetId="15" r:id="rId9"/>
+    <sheet name="Exoplanetenparameterableitung" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="313">
   <si>
     <t>DT</t>
   </si>
@@ -855,25 +852,10 @@
 L = ε + n(t − t0), or L = ε + nt, since t = 0 at the epoch t0</t>
   </si>
   <si>
-    <t>benötigt für state vectors</t>
-  </si>
-  <si>
-    <t>außerdem geliefert</t>
-  </si>
-  <si>
-    <t>ω = ϖ - Ω</t>
-  </si>
-  <si>
     <t>L, l</t>
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t>nu; EA; MA; T,t</t>
-  </si>
-  <si>
-    <t>MA = L - ϖ</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Orbital_elements#Alternative_parametrizations</t>
@@ -1194,28 +1176,10 @@
     <t>Mean longitude is the ecliptic longitude at which an orbiting body could be found if its orbit were circular and free of perturbations. While nominally a simple longitude, in practice the mean longitude does not correspond to any one physical angle.</t>
   </si>
   <si>
-    <t>L=270</t>
-  </si>
-  <si>
-    <t>L=180</t>
-  </si>
-  <si>
-    <t>L=35</t>
-  </si>
-  <si>
     <t>L=90</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>L=0</t>
-  </si>
-  <si>
-    <t>L=325</t>
-  </si>
-  <si>
-    <t>L stimmt nur ungefähr.</t>
   </si>
   <si>
     <t>EXOFASTv2 - exoplanet modeling code - explains all parameters!.pdf</t>
@@ -1240,24 +1204,12 @@
 Für Exoplaneten kann bei nur einem Planeten immer Ω=0 angenommen werden, denn Ω ungleich Null kann durch Kopf schieflegen ausgeglichen werden.</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>nu</t>
   </si>
   <si>
-    <t xml:space="preserve"> EA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MA</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
-    <t>State Vector</t>
-  </si>
-  <si>
     <t xml:space="preserve">L=270    </t>
   </si>
   <si>
@@ -1282,39 +1234,6 @@
     <t xml:space="preserve">     nu=180</t>
   </si>
   <si>
-    <t xml:space="preserve">     EA=180</t>
-  </si>
-  <si>
-    <t>EA=0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA=270    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   EA=90</t>
-  </si>
-  <si>
-    <t>EA=90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA=0     </t>
-  </si>
-  <si>
-    <t>MA=90</t>
-  </si>
-  <si>
-    <t>MA=0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA=270  </t>
-  </si>
-  <si>
-    <t>MA=180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA=0     </t>
-  </si>
-  <si>
     <t>T=25%*P</t>
   </si>
   <si>
@@ -1327,18 +1246,6 @@
     <t xml:space="preserve">T=0     </t>
   </si>
   <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>mandatory</t>
-  </si>
-  <si>
-    <t>2 out of 3 needed</t>
-  </si>
-  <si>
-    <t>1 out of 5 needed</t>
-  </si>
-  <si>
     <t>a, e, i are mandatory.</t>
   </si>
   <si>
@@ -1363,145 +1270,43 @@
     <t>t is optional.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">    ω </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF3261"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFC9867"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">ϖ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF3261"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFC9867"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Ω</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFF6F6F6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">ϖ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF3261"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFC9867"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">ω </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF3261"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFC9867"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Ω</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFF6F6F6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Ω </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF3261"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFC9867"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">ϖ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF3261"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFC9867"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>ω</t>
-    </r>
+    <t xml:space="preserve">     ea=180</t>
+  </si>
+  <si>
+    <t>ea=0</t>
+  </si>
+  <si>
+    <t>ea=90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ea=270    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ea=90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ea=0     </t>
+  </si>
+  <si>
+    <t>ma=180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma=270  </t>
+  </si>
+  <si>
+    <t>ma=90</t>
+  </si>
+  <si>
+    <t>ma=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma=0     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ea</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1322,7 @@
     <numFmt numFmtId="169" formatCode="0.000000"/>
     <numFmt numFmtId="170" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1648,31 +1453,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFC9867"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF3261"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFF6F6F6"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFC351DD"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1699,12 +1487,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1715,38 +1497,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="37">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1758,43 +1510,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1898,26 +1613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1998,19 +1693,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -2029,17 +1711,6 @@
       <right style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
       <top style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </top>
@@ -2072,34 +1743,6 @@
         <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2188,7 +1831,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2238,9 +1881,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2253,75 +1893,36 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2338,20 +1939,56 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2366,153 +2003,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -6954,13 +6466,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>280294</xdr:colOff>
+      <xdr:colOff>289819</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>169768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>60244</xdr:colOff>
+      <xdr:colOff>69769</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>159947</xdr:rowOff>
     </xdr:to>
@@ -6977,7 +6489,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1175644" y="1989043"/>
+          <a:off x="1185169" y="1989043"/>
           <a:ext cx="180000" cy="180679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7696,13 +7208,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>280294</xdr:colOff>
+      <xdr:colOff>289819</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>169768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>60244</xdr:colOff>
+      <xdr:colOff>69769</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>159947</xdr:rowOff>
     </xdr:to>
@@ -7719,7 +7231,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1175644" y="1989043"/>
+          <a:off x="5671444" y="1989043"/>
           <a:ext cx="180000" cy="180679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -8372,13 +7884,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>280294</xdr:colOff>
+      <xdr:colOff>289819</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>169768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>60244</xdr:colOff>
+      <xdr:colOff>69769</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>159947</xdr:rowOff>
     </xdr:to>
@@ -8395,7 +7907,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5661919" y="1989043"/>
+          <a:off x="10157719" y="1989043"/>
           <a:ext cx="180000" cy="180679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -9048,13 +8560,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>280294</xdr:colOff>
+      <xdr:colOff>289819</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>169768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>60244</xdr:colOff>
+      <xdr:colOff>69769</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>159947</xdr:rowOff>
     </xdr:to>
@@ -9071,7 +8583,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1175644" y="1989043"/>
+          <a:off x="14643994" y="1989043"/>
           <a:ext cx="180000" cy="180679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -9724,13 +9236,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>280294</xdr:colOff>
+      <xdr:colOff>289819</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>169768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>60244</xdr:colOff>
+      <xdr:colOff>69769</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>159947</xdr:rowOff>
     </xdr:to>
@@ -9747,7 +9259,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1175644" y="1989043"/>
+          <a:off x="1185169" y="4656043"/>
           <a:ext cx="180000" cy="180679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -11388,3179 +10900,6 @@
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>503850</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>66201</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Ellipse 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000035000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5958639" y="6122569"/>
-          <a:ext cx="180000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>130872</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66201</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Ellipse 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000036000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5585661" y="3686175"/>
-          <a:ext cx="180000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>617841</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>176684</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Ellipse 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1644315" y="641684"/>
-          <a:ext cx="1440000" cy="1440000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>20775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Ellipse 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4676775" y="1685925"/>
-          <a:ext cx="1440000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>704849</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>20770</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>32301</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Ellipse 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6339638" y="1287880"/>
-          <a:ext cx="108000" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>558968</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666968</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>32301</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Ellipse 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3025442" y="1287880"/>
-          <a:ext cx="108000" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>617841</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>176684</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Ellipse 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1644315" y="3078079"/>
-          <a:ext cx="1440000" cy="1440000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>20775</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Ellipse 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4762500" y="1409700"/>
-          <a:ext cx="1440000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>781049</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>96971</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>32301</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Ellipse 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5623760" y="3724275"/>
-          <a:ext cx="108000" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>656723</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>122822</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>764723</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>50349</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Ellipse 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2331118" y="4464217"/>
-          <a:ext cx="108000" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>135074</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Ellipse 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="542925" y="6267450"/>
-          <a:ext cx="2725874" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>20775</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Ellipse 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4762500" y="4076700"/>
-          <a:ext cx="1440000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>695324</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>11245</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>32302</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Ellipse 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6330113" y="6160670"/>
-          <a:ext cx="108000" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>184199</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>13252</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Ellipse 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3334752" y="6141620"/>
-          <a:ext cx="108000" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>26096</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>56676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Ellipse 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000032000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2312570" y="1240255"/>
-          <a:ext cx="180000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>16571</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66201</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Ellipse 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000033000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2303045" y="3686175"/>
-          <a:ext cx="180000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>427650</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>56676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Ellipse 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000034000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2714124" y="6113044"/>
-          <a:ext cx="180000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>189525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66201</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Ellipse 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000037000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5644314" y="1249780"/>
-          <a:ext cx="180000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>503850</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>66201</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Ellipse 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000039000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5958639" y="8548938"/>
-          <a:ext cx="180000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>135074</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Ellipse 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="540544" y="6079331"/>
-          <a:ext cx="2725874" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>20775</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Ellipse 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4760119" y="6555581"/>
-          <a:ext cx="1440000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>765507</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>81429</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>32300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Ellipse 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5608218" y="8587037"/>
-          <a:ext cx="108000" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>196515</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>135856</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304515</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>63383</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Ellipse 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1870910" y="8979067"/>
-          <a:ext cx="108000" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>427650</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>56676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="Ellipse 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2714124" y="8539413"/>
-          <a:ext cx="180000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>503850</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66201</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Ellipse 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00003F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13187613" y="1249780"/>
-          <a:ext cx="180000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>135074</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Ellipse 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000040000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="544930" y="8538912"/>
-          <a:ext cx="2735901" cy="892342"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>36594</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>20775</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>87728</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Ellipse 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000041000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11760367" y="1264818"/>
-          <a:ext cx="1445013" cy="239127"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>722897</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>87229</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38818</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>14755</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="Ellipse 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000042000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13586660" y="1270334"/>
-          <a:ext cx="108000" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>61159</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>90739</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>169159</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>18265</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Ellipse 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000043000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10548685" y="1273844"/>
-          <a:ext cx="108000" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>427650</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>56676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Ellipse 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000044000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9943097" y="1240255"/>
-          <a:ext cx="180000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>503850</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66201</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="Ellipse 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000045000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20406561" y="1249780"/>
-          <a:ext cx="180000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>135074</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Ellipse 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000046000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7525753" y="918912"/>
-          <a:ext cx="2735900" cy="892342"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>20775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Ellipse 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000047000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11760367" y="1390149"/>
-          <a:ext cx="1445013" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>695324</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>11246</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>32301</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="Ellipse 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000048000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20778035" y="1287880"/>
-          <a:ext cx="108000" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>184199</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>13251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="Ellipse 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000049000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17782673" y="1268830"/>
-          <a:ext cx="108000" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>427650</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>56676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="Ellipse 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00004A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17162045" y="1240255"/>
-          <a:ext cx="180000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>411079</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>70184</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>519079</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>178184</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Ellipse 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84020077-5207-4C35-9B5F-09CE4DA2EA5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="501316" y="8552447"/>
-          <a:ext cx="108000" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>300789</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>100263</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>408789</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>27790</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Ellipse 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444BD849-5B69-42A7-A8F0-BEEE4F648603}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2767263" y="8221579"/>
-          <a:ext cx="108000" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>230605</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>10025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>338605</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>118025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Ellipse 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713992BC-0CD3-4EE3-BA2C-760F853F2CE7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1905000" y="8131341"/>
-          <a:ext cx="108000" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>62162</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>112295</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>170162</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>39821</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Ellipse 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2AF5CB-C03C-45A9-B989-DF00A6D0014A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3320715" y="8594558"/>
-          <a:ext cx="108000" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>274721</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>64168</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>382721</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>172168</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Ellipse 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9761C2CF-96C6-4634-8D25-ADAF929BA37A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2741195" y="8907379"/>
-          <a:ext cx="108000" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>243640</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>6517</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>423640</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>6043</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Ellipse 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE61558D-E4B0-45A7-A94F-6DDAAF29350E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13107403" y="3445543"/>
-          <a:ext cx="180000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>135074</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Ellipse 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FE3974-BA75-4D31-AB84-4B7B0CC60AA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="1830581">
-          <a:off x="7776411" y="3325228"/>
-          <a:ext cx="2846189" cy="854743"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>36594</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>20775</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>87728</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Ellipse 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB87CFC9-A63D-4E6B-9DC1-26100A45F655}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="19226963">
-          <a:off x="12176459" y="3656094"/>
-          <a:ext cx="1500158" cy="231608"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>572502</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>167439</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>680502</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>94965</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Ellipse 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E5F1D9-A23B-4E06-B6F8-1A6621E8A489}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13436265" y="3245518"/>
-          <a:ext cx="108000" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>652712</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>80712</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>760712</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>8239</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Ellipse 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA1CD07-5D6E-4670-BEDC-A5561BF33D51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10348159" y="4422107"/>
-          <a:ext cx="108000" cy="108000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>77203</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>257203</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>56676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="Ellipse 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98147E57-312F-4CB0-A9E7-4ADC3FEB3030}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9772650" y="4037597"/>
-          <a:ext cx="180000" cy="180000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -14920,7 +11259,7 @@
       <c r="G10" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="93">
+      <c r="H10" s="68">
         <v>149597870000</v>
       </c>
       <c r="J10" t="s">
@@ -14970,7 +11309,7 @@
       <c r="G13" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="93">
+      <c r="H13" s="68">
         <v>1.9884E+30</v>
       </c>
       <c r="J13" t="s">
@@ -14985,7 +11324,7 @@
       <c r="G14" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="93">
+      <c r="H14" s="68">
         <v>5.9720000000000003E+24</v>
       </c>
       <c r="J14" t="s">
@@ -15160,7 +11499,7 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H32" s="94"/>
+      <c r="H32" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -15169,1823 +11508,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49BB5F5-9694-4AF9-9C21-5C12B0B71BA5}">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="B2:N9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:N3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2" style="45" customWidth="1"/>
-    <col min="2" max="12" width="6.85546875" style="45" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.85546875" style="45" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="45"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="119" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="118" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="117" t="s">
-        <v>321</v>
-      </c>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="116" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="109" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="110" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="111" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="105" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="106" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="107" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="108" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" s="108" t="s">
-        <v>290</v>
-      </c>
-      <c r="J3" s="108" t="s">
-        <v>291</v>
-      </c>
-      <c r="K3" s="108" t="s">
-        <v>292</v>
-      </c>
-      <c r="L3" s="113" t="s">
-        <v>293</v>
-      </c>
-      <c r="M3" s="120" t="s">
-        <v>148</v>
-      </c>
-      <c r="N3" s="112" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="103" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="D5" s="104" t="s">
-        <v>289</v>
-      </c>
-      <c r="E5" s="103" t="s">
-        <v>289</v>
-      </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="104" t="s">
-        <v>289</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="103"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="D6" s="104" t="s">
-        <v>289</v>
-      </c>
-      <c r="E6" s="103" t="s">
-        <v>289</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="104" t="s">
-        <v>289</v>
-      </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="103"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="D7" s="104" t="s">
-        <v>289</v>
-      </c>
-      <c r="E7" s="103" t="s">
-        <v>289</v>
-      </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="104" t="s">
-        <v>289</v>
-      </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="K7" s="49"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="103"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="D8" s="104" t="s">
-        <v>289</v>
-      </c>
-      <c r="E8" s="103" t="s">
-        <v>289</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="104" t="s">
-        <v>289</v>
-      </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="L8" s="104"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="103"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="104" t="s">
-        <v>289</v>
-      </c>
-      <c r="E9" s="103" t="s">
-        <v>289</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="104" t="s">
-        <v>289</v>
-      </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="104" t="s">
-        <v>289</v>
-      </c>
-      <c r="M9" s="121"/>
-      <c r="N9" s="103"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAECBCED-83AE-4F4D-A925-5C28E22DAD62}">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="B1:AV35"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH35" sqref="AH35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="1.28515625" customWidth="1"/>
-    <col min="14" max="24" width="6" customWidth="1"/>
-    <col min="25" max="25" width="1.28515625" customWidth="1"/>
-    <col min="26" max="36" width="6" customWidth="1"/>
-    <col min="37" max="37" width="1.28515625" customWidth="1"/>
-    <col min="38" max="48" width="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:48" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="124" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="122" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="124" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="126" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="80" t="s">
-        <v>290</v>
-      </c>
-      <c r="I2" s="80" t="s">
-        <v>291</v>
-      </c>
-      <c r="J2" s="80" t="s">
-        <v>292</v>
-      </c>
-      <c r="K2" s="124" t="s">
-        <v>293</v>
-      </c>
-      <c r="L2" s="128" t="s">
-        <v>148</v>
-      </c>
-      <c r="N2" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="124" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="122" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q2" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="R2" s="124" t="s">
-        <v>140</v>
-      </c>
-      <c r="S2" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="T2" s="114" t="s">
-        <v>290</v>
-      </c>
-      <c r="U2" s="80" t="s">
-        <v>291</v>
-      </c>
-      <c r="V2" s="80" t="s">
-        <v>292</v>
-      </c>
-      <c r="W2" s="124" t="s">
-        <v>293</v>
-      </c>
-      <c r="X2" s="95" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z2" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA2" s="124" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB2" s="122" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC2" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD2" s="124" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE2" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF2" s="80" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG2" s="114" t="s">
-        <v>291</v>
-      </c>
-      <c r="AH2" s="80" t="s">
-        <v>292</v>
-      </c>
-      <c r="AI2" s="124" t="s">
-        <v>293</v>
-      </c>
-      <c r="AJ2" s="95" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL2" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM2" s="124" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN2" s="122" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO2" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP2" s="124" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ2" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR2" s="80" t="s">
-        <v>290</v>
-      </c>
-      <c r="AS2" s="80" t="s">
-        <v>291</v>
-      </c>
-      <c r="AT2" s="114" t="s">
-        <v>292</v>
-      </c>
-      <c r="AU2" s="124" t="s">
-        <v>293</v>
-      </c>
-      <c r="AV2" s="95" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B3" s="83">
-        <v>0.7</v>
-      </c>
-      <c r="C3" s="125">
-        <v>85</v>
-      </c>
-      <c r="D3" s="123">
-        <v>0</v>
-      </c>
-      <c r="E3" s="84">
-        <v>0</v>
-      </c>
-      <c r="F3" s="125">
-        <v>0</v>
-      </c>
-      <c r="G3" s="127" t="s">
-        <v>229</v>
-      </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="129">
-        <v>0</v>
-      </c>
-      <c r="N3" s="83">
-        <v>0.7</v>
-      </c>
-      <c r="O3" s="125">
-        <v>85</v>
-      </c>
-      <c r="P3" s="123">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="84">
-        <v>0</v>
-      </c>
-      <c r="R3" s="125">
-        <v>0</v>
-      </c>
-      <c r="S3" s="84"/>
-      <c r="T3" s="115" t="s">
-        <v>229</v>
-      </c>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="96">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="83">
-        <v>0.7</v>
-      </c>
-      <c r="AA3" s="125">
-        <v>85</v>
-      </c>
-      <c r="AB3" s="123">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="84">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="125">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="115" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="125"/>
-      <c r="AJ3" s="96">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="83">
-        <v>0.7</v>
-      </c>
-      <c r="AM3" s="125">
-        <v>85</v>
-      </c>
-      <c r="AN3" s="123">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="84">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="125">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="115" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU3" s="125"/>
-      <c r="AV3" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B4" s="75"/>
-      <c r="L4" s="74"/>
-      <c r="N4" s="75"/>
-      <c r="X4" s="74"/>
-      <c r="Z4" s="75"/>
-      <c r="AJ4" s="74"/>
-      <c r="AL4" s="75"/>
-      <c r="AV4" s="74"/>
-    </row>
-    <row r="5" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B5" s="75"/>
-      <c r="D5" s="100" t="s">
-        <v>296</v>
-      </c>
-      <c r="E5" s="101"/>
-      <c r="L5" s="74"/>
-      <c r="N5" s="75"/>
-      <c r="P5" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q5" s="101"/>
-      <c r="X5" s="74"/>
-      <c r="Z5" s="75"/>
-      <c r="AB5" s="99" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC5" s="101"/>
-      <c r="AJ5" s="74"/>
-      <c r="AL5" s="75"/>
-      <c r="AN5" s="100" t="s">
-        <v>312</v>
-      </c>
-      <c r="AO5" s="101"/>
-      <c r="AV5" s="74"/>
-    </row>
-    <row r="6" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B6" s="75"/>
-      <c r="C6" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="F6" t="s">
-        <v>277</v>
-      </c>
-      <c r="L6" s="74"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="27"/>
-      <c r="X6" s="74"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="27"/>
-      <c r="AJ6" s="74"/>
-      <c r="AL6" s="75"/>
-      <c r="AM6" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>309</v>
-      </c>
-      <c r="AV6" s="74"/>
-    </row>
-    <row r="7" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B7" s="75"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="74"/>
-      <c r="N7" s="75"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="74"/>
-      <c r="Z7" s="75"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="74"/>
-      <c r="AL7" s="75"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="74"/>
-    </row>
-    <row r="8" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B8" s="75"/>
-      <c r="J8" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="L8" s="74"/>
-      <c r="N8" s="75"/>
-      <c r="V8" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="X8" s="74"/>
-      <c r="Z8" s="75"/>
-      <c r="AH8" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="AJ8" s="74"/>
-      <c r="AL8" s="75"/>
-      <c r="AT8" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="AV8" s="74"/>
-    </row>
-    <row r="9" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B9" s="75"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="74"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="R9" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="W9" s="18"/>
-      <c r="X9" s="74"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="18"/>
-      <c r="AD9" s="27"/>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="74"/>
-      <c r="AL9" s="75"/>
-      <c r="AU9" s="18"/>
-      <c r="AV9" s="74"/>
-    </row>
-    <row r="10" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B10" s="75"/>
-      <c r="K10" t="s">
-        <v>277</v>
-      </c>
-      <c r="L10" s="74"/>
-      <c r="N10" s="75"/>
-      <c r="W10" t="s">
-        <v>298</v>
-      </c>
-      <c r="X10" s="74"/>
-      <c r="Z10" s="75"/>
-      <c r="AD10" s="27"/>
-      <c r="AI10" t="s">
-        <v>307</v>
-      </c>
-      <c r="AJ10" s="74"/>
-      <c r="AL10" s="75"/>
-      <c r="AU10" t="s">
-        <v>309</v>
-      </c>
-      <c r="AV10" s="74"/>
-    </row>
-    <row r="11" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B11" s="75"/>
-      <c r="L11" s="74"/>
-      <c r="N11" s="75"/>
-      <c r="X11" s="74"/>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="AD11" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="AJ11" s="74"/>
-      <c r="AL11" s="75"/>
-      <c r="AV11" s="74"/>
-    </row>
-    <row r="12" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B12" s="75"/>
-      <c r="L12" s="74"/>
-      <c r="N12" s="75"/>
-      <c r="X12" s="74"/>
-      <c r="Z12" s="75"/>
-      <c r="AJ12" s="74"/>
-      <c r="AL12" s="75"/>
-      <c r="AV12" s="74"/>
-    </row>
-    <row r="13" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B13" s="75"/>
-      <c r="L13" s="74"/>
-      <c r="N13" s="75"/>
-      <c r="X13" s="74"/>
-      <c r="Z13" s="75"/>
-      <c r="AJ13" s="74"/>
-      <c r="AL13" s="75"/>
-      <c r="AV13" s="74"/>
-    </row>
-    <row r="14" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B14" s="76"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="102" t="s">
-        <v>279</v>
-      </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="98" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="78"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="77"/>
-      <c r="AB14" s="98" t="s">
-        <v>308</v>
-      </c>
-      <c r="AC14" s="77"/>
-      <c r="AD14" s="77"/>
-      <c r="AE14" s="77"/>
-      <c r="AF14" s="77"/>
-      <c r="AG14" s="77"/>
-      <c r="AH14" s="77"/>
-      <c r="AI14" s="77"/>
-      <c r="AJ14" s="78"/>
-      <c r="AL14" s="76"/>
-      <c r="AM14" s="77"/>
-      <c r="AN14" s="98" t="s">
-        <v>313</v>
-      </c>
-      <c r="AO14" s="77"/>
-      <c r="AP14" s="77"/>
-      <c r="AQ14" s="77"/>
-      <c r="AR14" s="77"/>
-      <c r="AS14" s="77"/>
-      <c r="AT14" s="77"/>
-      <c r="AU14" s="77"/>
-      <c r="AV14" s="78"/>
-    </row>
-    <row r="16" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B16" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="124" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="122" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="124" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="80" t="s">
-        <v>290</v>
-      </c>
-      <c r="I16" s="80" t="s">
-        <v>291</v>
-      </c>
-      <c r="J16" s="80" t="s">
-        <v>292</v>
-      </c>
-      <c r="K16" s="130" t="s">
-        <v>293</v>
-      </c>
-      <c r="L16" s="128" t="s">
-        <v>148</v>
-      </c>
-      <c r="N16" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="O16" s="124" t="s">
-        <v>46</v>
-      </c>
-      <c r="P16" s="122" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q16" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="R16" s="130" t="s">
-        <v>140</v>
-      </c>
-      <c r="S16" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="T16" s="80" t="s">
-        <v>290</v>
-      </c>
-      <c r="U16" s="80" t="s">
-        <v>291</v>
-      </c>
-      <c r="V16" s="80" t="s">
-        <v>292</v>
-      </c>
-      <c r="W16" s="124" t="s">
-        <v>293</v>
-      </c>
-      <c r="X16" s="128" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z16" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA16" s="124" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB16" s="122" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC16" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD16" s="130" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE16" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF16" s="114" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG16" s="80" t="s">
-        <v>291</v>
-      </c>
-      <c r="AH16" s="80" t="s">
-        <v>292</v>
-      </c>
-      <c r="AI16" s="124" t="s">
-        <v>293</v>
-      </c>
-      <c r="AJ16" s="128" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL16" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM16" s="124" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN16" s="132" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO16" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP16" s="130" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ16" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR16" s="80" t="s">
-        <v>290</v>
-      </c>
-      <c r="AS16" s="80" t="s">
-        <v>291</v>
-      </c>
-      <c r="AT16" s="80" t="s">
-        <v>292</v>
-      </c>
-      <c r="AU16" s="124" t="s">
-        <v>293</v>
-      </c>
-      <c r="AV16" s="128" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B17" s="83">
-        <v>0.7</v>
-      </c>
-      <c r="C17" s="125">
-        <v>85</v>
-      </c>
-      <c r="D17" s="123">
-        <v>0</v>
-      </c>
-      <c r="E17" s="84">
-        <v>0</v>
-      </c>
-      <c r="F17" s="125">
-        <v>0</v>
-      </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="131" t="s">
-        <v>229</v>
-      </c>
-      <c r="L17" s="129">
-        <v>0</v>
-      </c>
-      <c r="N17" s="83">
-        <v>0.7</v>
-      </c>
-      <c r="O17" s="125">
-        <v>85</v>
-      </c>
-      <c r="P17" s="123">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="115">
-        <v>90</v>
-      </c>
-      <c r="R17" s="131">
-        <v>90</v>
-      </c>
-      <c r="S17" s="84"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="84"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="125">
-        <v>0</v>
-      </c>
-      <c r="X17" s="129">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="83">
-        <v>0.7</v>
-      </c>
-      <c r="AA17" s="125">
-        <v>85</v>
-      </c>
-      <c r="AB17" s="123">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="115">
-        <v>135</v>
-      </c>
-      <c r="AD17" s="131">
-        <v>135</v>
-      </c>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="115" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG17" s="84"/>
-      <c r="AH17" s="84"/>
-      <c r="AI17" s="125"/>
-      <c r="AJ17" s="129">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="83">
-        <v>0.7</v>
-      </c>
-      <c r="AM17" s="125">
-        <v>85</v>
-      </c>
-      <c r="AN17" s="127">
-        <v>80</v>
-      </c>
-      <c r="AO17" s="84">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="131">
-        <v>80</v>
-      </c>
-      <c r="AQ17" s="84"/>
-      <c r="AR17" s="84"/>
-      <c r="AS17" s="84"/>
-      <c r="AT17" s="84"/>
-      <c r="AU17" s="125">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B18" s="75"/>
-      <c r="L18" s="74"/>
-      <c r="N18" s="75"/>
-      <c r="X18" s="74"/>
-      <c r="Z18" s="75"/>
-      <c r="AJ18" s="74"/>
-      <c r="AL18" s="75"/>
-      <c r="AV18" s="74"/>
-    </row>
-    <row r="19" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B19" s="75"/>
-      <c r="D19" s="100" t="s">
-        <v>315</v>
-      </c>
-      <c r="E19" s="101"/>
-      <c r="L19" s="74"/>
-      <c r="N19" s="75"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="101"/>
-      <c r="X19" s="74"/>
-      <c r="Z19" s="75"/>
-      <c r="AB19" s="100"/>
-      <c r="AC19" s="101"/>
-      <c r="AJ19" s="74"/>
-      <c r="AL19" s="75"/>
-      <c r="AN19" s="100"/>
-      <c r="AO19" s="101"/>
-      <c r="AV19" s="74"/>
-    </row>
-    <row r="20" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B20" s="75"/>
-      <c r="C20" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="F20" t="s">
-        <v>314</v>
-      </c>
-      <c r="L20" s="74"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="18"/>
-      <c r="X20" s="74"/>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="18"/>
-      <c r="AE20" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="AJ20" s="74"/>
-      <c r="AL20" s="75"/>
-      <c r="AM20" s="27"/>
-      <c r="AV20" s="74"/>
-    </row>
-    <row r="21" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B21" s="75"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="74"/>
-      <c r="N21" s="75"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="74"/>
-      <c r="Z21" s="75"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="74"/>
-      <c r="AL21" s="75"/>
-      <c r="AU21" s="11"/>
-      <c r="AV21" s="74"/>
-    </row>
-    <row r="22" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B22" s="75"/>
-      <c r="J22" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="L22" s="74"/>
-      <c r="N22" s="75"/>
-      <c r="V22" s="11"/>
-      <c r="X22" s="74"/>
-      <c r="Z22" s="75"/>
-      <c r="AF22" t="s">
-        <v>326</v>
-      </c>
-      <c r="AH22" s="11"/>
-      <c r="AI22" t="s">
-        <v>325</v>
-      </c>
-      <c r="AJ22" s="74"/>
-      <c r="AL22" s="75"/>
-      <c r="AT22" s="11"/>
-      <c r="AV22" s="74"/>
-    </row>
-    <row r="23" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B23" s="75"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="74"/>
-      <c r="N23" s="75"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="74"/>
-      <c r="Z23" s="75"/>
-      <c r="AI23" s="18"/>
-      <c r="AJ23" s="74"/>
-      <c r="AL23" s="75"/>
-      <c r="AU23" s="18"/>
-      <c r="AV23" s="74"/>
-    </row>
-    <row r="24" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B24" s="75"/>
-      <c r="K24" t="s">
-        <v>314</v>
-      </c>
-      <c r="L24" s="74"/>
-      <c r="N24" s="75"/>
-      <c r="X24" s="74"/>
-      <c r="Z24" s="75"/>
-      <c r="AJ24" s="74" t="s">
-        <v>299</v>
-      </c>
-      <c r="AL24" s="75"/>
-      <c r="AV24" s="74"/>
-    </row>
-    <row r="25" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B25" s="75"/>
-      <c r="L25" s="74"/>
-      <c r="N25" s="75"/>
-      <c r="X25" s="74"/>
-      <c r="Z25" s="75"/>
-      <c r="AD25" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="AJ25" s="74"/>
-      <c r="AL25" s="75"/>
-      <c r="AV25" s="74"/>
-    </row>
-    <row r="26" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B26" s="75"/>
-      <c r="L26" s="74"/>
-      <c r="N26" s="75"/>
-      <c r="X26" s="74"/>
-      <c r="Z26" s="75"/>
-      <c r="AJ26" s="74"/>
-      <c r="AL26" s="75"/>
-      <c r="AV26" s="74"/>
-    </row>
-    <row r="27" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B27" s="75"/>
-      <c r="L27" s="74"/>
-      <c r="N27" s="75"/>
-      <c r="X27" s="74"/>
-      <c r="Z27" s="75" t="s">
-        <v>326</v>
-      </c>
-      <c r="AJ27" s="74"/>
-      <c r="AL27" s="75"/>
-      <c r="AV27" s="74"/>
-    </row>
-    <row r="28" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B28" s="76"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="98" t="s">
-        <v>317</v>
-      </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="78"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="77"/>
-      <c r="T28" s="77"/>
-      <c r="U28" s="77"/>
-      <c r="V28" s="77"/>
-      <c r="W28" s="77"/>
-      <c r="X28" s="78"/>
-      <c r="Z28" s="76"/>
-      <c r="AA28" s="77"/>
-      <c r="AB28" s="98"/>
-      <c r="AC28" s="77"/>
-      <c r="AD28" s="77"/>
-      <c r="AE28" s="77"/>
-      <c r="AF28" s="77"/>
-      <c r="AG28" s="77"/>
-      <c r="AH28" s="77"/>
-      <c r="AI28" s="77"/>
-      <c r="AJ28" s="78"/>
-      <c r="AL28" s="76"/>
-      <c r="AM28" s="77"/>
-      <c r="AN28" s="102"/>
-      <c r="AO28" s="77"/>
-      <c r="AP28" s="77"/>
-      <c r="AQ28" s="77"/>
-      <c r="AR28" s="77"/>
-      <c r="AS28" s="77"/>
-      <c r="AT28" s="77"/>
-      <c r="AU28" s="77"/>
-      <c r="AV28" s="78"/>
-    </row>
-    <row r="30" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="31" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>327</v>
-      </c>
-      <c r="N31" s="133" t="s">
-        <v>330</v>
-      </c>
-      <c r="O31" s="97"/>
-      <c r="P31" s="97"/>
-    </row>
-    <row r="32" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>328</v>
-      </c>
-      <c r="N32" s="134"/>
-      <c r="O32" s="97"/>
-      <c r="P32" s="97"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>329</v>
-      </c>
-      <c r="N33" s="135" t="s">
-        <v>331</v>
-      </c>
-      <c r="O33" s="97"/>
-      <c r="P33" s="97"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>323</v>
-      </c>
-      <c r="N34" s="134"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="97"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="N35" s="135" t="s">
-        <v>332</v>
-      </c>
-      <c r="O35" s="97"/>
-      <c r="P35" s="97"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B1:AD56"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="11" max="11" width="1.42578125" customWidth="1"/>
-    <col min="21" max="21" width="1.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:30" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
-      <c r="L2" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="90" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="O2" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="P2" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="73"/>
-      <c r="V2" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y2" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z2" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="73"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B3" s="83">
-        <v>0</v>
-      </c>
-      <c r="C3" s="84">
-        <v>90</v>
-      </c>
-      <c r="D3" s="84">
-        <v>0</v>
-      </c>
-      <c r="E3" s="84">
-        <v>0</v>
-      </c>
-      <c r="F3" s="85">
-        <v>0</v>
-      </c>
-      <c r="J3" s="74"/>
-      <c r="L3" s="83">
-        <v>0.5</v>
-      </c>
-      <c r="M3" s="91">
-        <v>80</v>
-      </c>
-      <c r="N3" s="84">
-        <v>0</v>
-      </c>
-      <c r="O3" s="84">
-        <v>0</v>
-      </c>
-      <c r="P3" s="85">
-        <v>0</v>
-      </c>
-      <c r="T3" s="74"/>
-      <c r="V3" s="89">
-        <v>0.5</v>
-      </c>
-      <c r="W3" s="84">
-        <v>90</v>
-      </c>
-      <c r="X3" s="84">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="84">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="85">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="74"/>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="75"/>
-      <c r="J4" s="74"/>
-      <c r="L4" s="75"/>
-      <c r="T4" s="74"/>
-      <c r="V4" s="75"/>
-      <c r="AD4" s="74"/>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="75"/>
-      <c r="J5" s="74"/>
-      <c r="L5" s="75"/>
-      <c r="T5" s="74"/>
-      <c r="V5" s="75"/>
-      <c r="AD5" s="74"/>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="75"/>
-      <c r="J6" s="74"/>
-      <c r="L6" s="75"/>
-      <c r="T6" s="74"/>
-      <c r="V6" s="75"/>
-      <c r="AD6" s="74"/>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="75"/>
-      <c r="J7" s="74"/>
-      <c r="L7" s="75"/>
-      <c r="T7" s="74"/>
-      <c r="V7" s="75"/>
-      <c r="AD7" s="74"/>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B8" s="75"/>
-      <c r="J8" s="74"/>
-      <c r="L8" s="75"/>
-      <c r="T8" s="74"/>
-      <c r="V8" s="75"/>
-      <c r="AD8" s="74"/>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="75"/>
-      <c r="J9" s="74"/>
-      <c r="L9" s="75"/>
-      <c r="T9" s="74"/>
-      <c r="V9" s="75"/>
-      <c r="AD9" s="74"/>
-    </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="75"/>
-      <c r="J10" s="74"/>
-      <c r="L10" s="75"/>
-      <c r="T10" s="74"/>
-      <c r="V10" s="75"/>
-      <c r="AD10" s="74"/>
-    </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="75"/>
-      <c r="J11" s="74"/>
-      <c r="L11" s="75"/>
-      <c r="T11" s="74"/>
-      <c r="V11" s="75"/>
-      <c r="AD11" s="74"/>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="75"/>
-      <c r="J12" s="74"/>
-      <c r="L12" s="75"/>
-      <c r="T12" s="74"/>
-      <c r="V12" s="75"/>
-      <c r="AD12" s="74"/>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="75"/>
-      <c r="J13" s="74"/>
-      <c r="L13" s="75"/>
-      <c r="T13" s="74"/>
-      <c r="V13" s="75"/>
-      <c r="AD13" s="74"/>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B14" s="76"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="78"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="78"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="77"/>
-      <c r="AA14" s="77"/>
-      <c r="AB14" s="77"/>
-      <c r="AC14" s="77"/>
-      <c r="AD14" s="78"/>
-    </row>
-    <row r="15" spans="2:30" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="73"/>
-      <c r="L16" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="M16" s="90" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="O16" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="P16" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="73"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="83">
-        <v>0</v>
-      </c>
-      <c r="C17" s="84">
-        <v>90</v>
-      </c>
-      <c r="D17" s="84">
-        <v>0</v>
-      </c>
-      <c r="E17" s="84">
-        <v>0</v>
-      </c>
-      <c r="F17" s="87">
-        <v>270</v>
-      </c>
-      <c r="J17" s="74"/>
-      <c r="L17" s="83">
-        <v>0.5</v>
-      </c>
-      <c r="M17" s="91">
-        <v>80</v>
-      </c>
-      <c r="N17" s="84">
-        <v>45</v>
-      </c>
-      <c r="O17" s="84">
-        <v>0</v>
-      </c>
-      <c r="P17" s="85">
-        <v>0</v>
-      </c>
-      <c r="T17" s="74"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="75"/>
-      <c r="J18" s="74"/>
-      <c r="L18" s="75"/>
-      <c r="T18" s="74"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="75"/>
-      <c r="J19" s="74"/>
-      <c r="L19" s="75"/>
-      <c r="T19" s="74"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="75"/>
-      <c r="J20" s="74"/>
-      <c r="L20" s="75"/>
-      <c r="T20" s="74"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="75"/>
-      <c r="J21" s="74"/>
-      <c r="L21" s="75"/>
-      <c r="T21" s="74"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="75"/>
-      <c r="J22" s="74"/>
-      <c r="L22" s="75"/>
-      <c r="T22" s="74"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="75"/>
-      <c r="J23" s="74"/>
-      <c r="L23" s="75"/>
-      <c r="T23" s="74"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="75"/>
-      <c r="J24" s="74"/>
-      <c r="L24" s="75"/>
-      <c r="T24" s="74"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="75"/>
-      <c r="J25" s="74"/>
-      <c r="L25" s="75"/>
-      <c r="T25" s="74"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="75"/>
-      <c r="J26" s="74"/>
-      <c r="L26" s="75"/>
-      <c r="T26" s="74"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="75"/>
-      <c r="J27" s="74"/>
-      <c r="L27" s="75"/>
-      <c r="T27" s="74"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="76"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="78"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="77"/>
-      <c r="T28" s="78"/>
-    </row>
-    <row r="29" spans="2:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="F30" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="73"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="89">
-        <v>0.5</v>
-      </c>
-      <c r="C31" s="84">
-        <v>90</v>
-      </c>
-      <c r="D31" s="84">
-        <v>0</v>
-      </c>
-      <c r="E31" s="84">
-        <v>0</v>
-      </c>
-      <c r="F31" s="85">
-        <v>0</v>
-      </c>
-      <c r="J31" s="74"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="75"/>
-      <c r="J32" s="74"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="75"/>
-      <c r="J33" s="74"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="75"/>
-      <c r="J34" s="74"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="75"/>
-      <c r="J35" s="74"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="75"/>
-      <c r="J36" s="74"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="75"/>
-      <c r="J37" s="74"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="75"/>
-      <c r="J38" s="74"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="75"/>
-      <c r="J39" s="74"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="75"/>
-      <c r="J40" s="74"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="75"/>
-      <c r="J41" s="74"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="76"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="78"/>
-    </row>
-    <row r="43" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="F44" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72" t="s">
-        <v>281</v>
-      </c>
-      <c r="I44" s="72"/>
-      <c r="J44" s="73"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="89">
-        <v>0.5</v>
-      </c>
-      <c r="C45" s="84">
-        <v>90</v>
-      </c>
-      <c r="D45" s="84">
-        <v>0</v>
-      </c>
-      <c r="E45" s="84">
-        <v>0</v>
-      </c>
-      <c r="F45" s="85" t="s">
-        <v>278</v>
-      </c>
-      <c r="J45" s="74"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="75"/>
-      <c r="J46" s="74"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="75"/>
-      <c r="D47" t="s">
-        <v>277</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="J47" s="74"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="75"/>
-      <c r="J48" s="74"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="75" t="s">
-        <v>275</v>
-      </c>
-      <c r="J49" s="74"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="75"/>
-      <c r="F50" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="J50" s="74"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="75"/>
-      <c r="J51" s="74"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="75"/>
-      <c r="J52" s="74"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="75"/>
-      <c r="J53" s="74"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="75"/>
-      <c r="D54" t="s">
-        <v>274</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="J54" s="74"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="75"/>
-      <c r="J55" s="74"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="76"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="78"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -16998,67 +11520,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>243</v>
+      <c r="A1" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>248</v>
+        <v>245</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -17374,891 +11896,891 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="37"/>
-    <col min="3" max="3" width="31.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="37"/>
+    <col min="1" max="1" width="11.42578125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="36"/>
+    <col min="3" max="3" width="31.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="56"/>
-      <c r="B1" s="62" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>169</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="D2" s="58" t="str">
+        <v>246</v>
+      </c>
+      <c r="D2" s="44" t="str">
         <f t="shared" ref="D2:D7" si="0">A2&amp;" = "&amp;B2&amp;"  # "&amp;C2</f>
         <v>a = 0.38709893  # [au] semi-major axis</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>170</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="D3" s="58" t="str">
+        <v>247</v>
+      </c>
+      <c r="D3" s="44" t="str">
         <f t="shared" si="0"/>
         <v>e = 0.20563069  # [1] eccentricity</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>182</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="D4" s="58" t="str">
+        <v>248</v>
+      </c>
+      <c r="D4" s="44" t="str">
         <f t="shared" si="0"/>
         <v>i = 7.00487  # [deg] inclination</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>183</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="D5" s="58" t="str">
+        <v>249</v>
+      </c>
+      <c r="D5" s="44" t="str">
         <f t="shared" si="0"/>
         <v>Ω = 48.33167  # [deg] longitude of ascending node</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>184</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="D6" s="58" t="str">
+        <v>250</v>
+      </c>
+      <c r="D6" s="44" t="str">
         <f t="shared" si="0"/>
         <v>ϖ = 77.45645  # [deg] longitude of periapsis</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" s="61" t="str">
+      <c r="C7" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="47" t="str">
         <f t="shared" si="0"/>
         <v>L = 252.25084  # [deg] mean longitude</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="62" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>171</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="58" t="str">
+        <v>246</v>
+      </c>
+      <c r="D9" s="44" t="str">
         <f t="shared" ref="D9:D14" si="1">A9&amp;" = "&amp;B9&amp;"  # "&amp;C9</f>
         <v>a = 0.72333199  # [au] semi-major axis</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>172</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="D10" s="58" t="str">
+        <v>247</v>
+      </c>
+      <c r="D10" s="44" t="str">
         <f t="shared" si="1"/>
         <v>e = 0.00677323  # [1] eccentricity</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>186</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="D11" s="58" t="str">
+        <v>248</v>
+      </c>
+      <c r="D11" s="44" t="str">
         <f t="shared" si="1"/>
         <v>i = 3.39471  # [deg] inclination</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>187</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="D12" s="58" t="str">
+        <v>249</v>
+      </c>
+      <c r="D12" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Ω = 76.68069  # [deg] longitude of ascending node</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>188</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="D13" s="58" t="str">
+        <v>250</v>
+      </c>
+      <c r="D13" s="44" t="str">
         <f t="shared" si="1"/>
         <v>ϖ = 131.53298  # [deg] longitude of periapsis</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="D14" s="61" t="str">
+      <c r="C14" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="47" t="str">
         <f t="shared" si="1"/>
         <v>L = 181.97973  # [deg] mean longitude</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="62" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>190</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="D16" s="58" t="str">
+        <v>246</v>
+      </c>
+      <c r="D16" s="44" t="str">
         <f t="shared" ref="D16:D21" si="2">A16&amp;" = "&amp;B16&amp;"  # "&amp;C16</f>
         <v>a = 1.00000011  # [au] semi-major axis</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>173</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="D17" s="58" t="str">
+        <v>247</v>
+      </c>
+      <c r="D17" s="44" t="str">
         <f t="shared" si="2"/>
         <v>e = 0.01671022  # [1] eccentricity</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>174</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="D18" s="58" t="str">
+        <v>248</v>
+      </c>
+      <c r="D18" s="44" t="str">
         <f t="shared" si="2"/>
         <v>i = 0.00005  # [deg] inclination</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>191</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="D19" s="58" t="str">
+        <v>249</v>
+      </c>
+      <c r="D19" s="44" t="str">
         <f t="shared" si="2"/>
         <v>Ω = -11.26064  # [deg] longitude of ascending node</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="36" t="s">
         <v>192</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="D20" s="58" t="str">
+        <v>250</v>
+      </c>
+      <c r="D20" s="44" t="str">
         <f t="shared" si="2"/>
         <v>ϖ = 102.94719  # [deg] longitude of periapsis</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="D21" s="61" t="str">
+      <c r="C21" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" s="47" t="str">
         <f t="shared" si="2"/>
         <v>L = 100.46435  # [deg] mean longitude</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="62" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="36" t="s">
         <v>194</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="D23" s="58" t="str">
+        <v>246</v>
+      </c>
+      <c r="D23" s="44" t="str">
         <f t="shared" ref="D23:D28" si="3">A23&amp;" = "&amp;B23&amp;"  # "&amp;C23</f>
         <v>a = 1.52366231  # [au] semi-major axis</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="36" t="s">
         <v>175</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="D24" s="58" t="str">
+        <v>247</v>
+      </c>
+      <c r="D24" s="44" t="str">
         <f t="shared" si="3"/>
         <v>e = 0.09341233  # [1] eccentricity</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="36" t="s">
         <v>195</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="D25" s="58" t="str">
+        <v>248</v>
+      </c>
+      <c r="D25" s="44" t="str">
         <f t="shared" si="3"/>
         <v>i = 1.85061  # [deg] inclination</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="36" t="s">
         <v>196</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="D26" s="58" t="str">
+        <v>249</v>
+      </c>
+      <c r="D26" s="44" t="str">
         <f t="shared" si="3"/>
         <v>Ω = 49.57854  # [deg] longitude of ascending node</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="36" t="s">
         <v>197</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" s="58" t="str">
+        <v>250</v>
+      </c>
+      <c r="D27" s="44" t="str">
         <f t="shared" si="3"/>
         <v>ϖ = 336.04084  # [deg] longitude of periapsis</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="C28" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="D28" s="61" t="str">
+      <c r="C28" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" s="47" t="str">
         <f t="shared" si="3"/>
         <v>L = 355.45332  # [deg] mean longitude</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="62" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="63"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="36" t="s">
         <v>199</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="D30" s="58" t="str">
+        <v>246</v>
+      </c>
+      <c r="D30" s="44" t="str">
         <f t="shared" ref="D30:D35" si="4">A30&amp;" = "&amp;B30&amp;"  # "&amp;C30</f>
         <v>a = 5.20336301  # [au] semi-major axis</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="36" t="s">
         <v>176</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="D31" s="58" t="str">
+        <v>247</v>
+      </c>
+      <c r="D31" s="44" t="str">
         <f t="shared" si="4"/>
         <v>e = 0.04839266  # [1] eccentricity</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="36" t="s">
         <v>200</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="D32" s="58" t="str">
+        <v>248</v>
+      </c>
+      <c r="D32" s="44" t="str">
         <f t="shared" si="4"/>
         <v>i = 1.30530  # [deg] inclination</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="36" t="s">
         <v>201</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="D33" s="58" t="str">
+        <v>249</v>
+      </c>
+      <c r="D33" s="44" t="str">
         <f t="shared" si="4"/>
         <v>Ω = 100.55615  # [deg] longitude of ascending node</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="36" t="s">
         <v>202</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="D34" s="58" t="str">
+        <v>250</v>
+      </c>
+      <c r="D34" s="44" t="str">
         <f t="shared" si="4"/>
         <v>ϖ = 14.75385  # [deg] longitude of periapsis</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="C35" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="D35" s="61" t="str">
+      <c r="C35" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D35" s="47" t="str">
         <f t="shared" si="4"/>
         <v>L = 34.40438  # [deg] mean longitude</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
-      <c r="B36" s="62" t="s">
+      <c r="A36" s="42"/>
+      <c r="B36" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="36" t="s">
         <v>204</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="D37" s="58" t="str">
+        <v>246</v>
+      </c>
+      <c r="D37" s="44" t="str">
         <f t="shared" ref="D37:D42" si="5">A37&amp;" = "&amp;B37&amp;"  # "&amp;C37</f>
         <v>a = 9.53707032  # [au] semi-major axis</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="36" t="s">
         <v>177</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="D38" s="58" t="str">
+        <v>247</v>
+      </c>
+      <c r="D38" s="44" t="str">
         <f t="shared" si="5"/>
         <v>e = 0.05415060  # [1] eccentricity</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="36" t="s">
         <v>205</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="D39" s="58" t="str">
+        <v>248</v>
+      </c>
+      <c r="D39" s="44" t="str">
         <f t="shared" si="5"/>
         <v>i = 2.48446  # [deg] inclination</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="36" t="s">
         <v>206</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="D40" s="58" t="str">
+        <v>249</v>
+      </c>
+      <c r="D40" s="44" t="str">
         <f t="shared" si="5"/>
         <v>Ω = 113.71504  # [deg] longitude of ascending node</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="36" t="s">
         <v>207</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="D41" s="58" t="str">
+        <v>250</v>
+      </c>
+      <c r="D41" s="44" t="str">
         <f t="shared" si="5"/>
         <v>ϖ = 92.43194  # [deg] longitude of periapsis</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="C42" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="D42" s="61" t="str">
+      <c r="C42" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D42" s="47" t="str">
         <f t="shared" si="5"/>
         <v>L = 49.94432  # [deg] mean longitude</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
-      <c r="B43" s="62" t="s">
+      <c r="A43" s="42"/>
+      <c r="B43" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="63"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="36" t="s">
         <v>209</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="D44" s="58" t="str">
+        <v>246</v>
+      </c>
+      <c r="D44" s="44" t="str">
         <f t="shared" ref="D44:D49" si="6">A44&amp;" = "&amp;B44&amp;"  # "&amp;C44</f>
         <v>a = 19.19126393  # [au] semi-major axis</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="36" t="s">
         <v>178</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="D45" s="58" t="str">
+        <v>247</v>
+      </c>
+      <c r="D45" s="44" t="str">
         <f t="shared" si="6"/>
         <v>e = 0.04716771  # [1] eccentricity</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="57" t="s">
+      <c r="A46" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="36" t="s">
         <v>179</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="D46" s="58" t="str">
+        <v>248</v>
+      </c>
+      <c r="D46" s="44" t="str">
         <f t="shared" si="6"/>
         <v>i = 0.76986  # [deg] inclination</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="36" t="s">
         <v>210</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="D47" s="58" t="str">
+        <v>249</v>
+      </c>
+      <c r="D47" s="44" t="str">
         <f t="shared" si="6"/>
         <v>Ω = 74.22988  # [deg] longitude of ascending node</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="57" t="s">
+      <c r="A48" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="36" t="s">
         <v>211</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="D48" s="58" t="str">
+        <v>250</v>
+      </c>
+      <c r="D48" s="44" t="str">
         <f t="shared" si="6"/>
         <v>ϖ = 170.96424  # [deg] longitude of periapsis</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="60" t="s">
+      <c r="B49" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="D49" s="61" t="str">
+      <c r="C49" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D49" s="47" t="str">
         <f t="shared" si="6"/>
         <v>L = 313.23218  # [deg] mean longitude</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
-      <c r="B50" s="62" t="s">
+      <c r="A50" s="42"/>
+      <c r="B50" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="63"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="49"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="36" t="s">
         <v>213</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="D51" s="58" t="str">
+        <v>246</v>
+      </c>
+      <c r="D51" s="44" t="str">
         <f t="shared" ref="D51:D56" si="7">A51&amp;" = "&amp;B51&amp;"  # "&amp;C51</f>
         <v>a = 30.06896348  # [au] semi-major axis</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="57" t="s">
+      <c r="A52" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="36" t="s">
         <v>180</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="D52" s="58" t="str">
+        <v>247</v>
+      </c>
+      <c r="D52" s="44" t="str">
         <f t="shared" si="7"/>
         <v>e = 0.00858587  # [1] eccentricity</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="57" t="s">
+      <c r="A53" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="36" t="s">
         <v>214</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="D53" s="58" t="str">
+        <v>248</v>
+      </c>
+      <c r="D53" s="44" t="str">
         <f t="shared" si="7"/>
         <v>i = 1.76917  # [deg] inclination</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="57" t="s">
+      <c r="A54" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="36" t="s">
         <v>215</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="D54" s="58" t="str">
+        <v>249</v>
+      </c>
+      <c r="D54" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Ω = 131.72169  # [deg] longitude of ascending node</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="57" t="s">
+      <c r="A55" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="36" t="s">
         <v>216</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="D55" s="58" t="str">
+        <v>250</v>
+      </c>
+      <c r="D55" s="44" t="str">
         <f t="shared" si="7"/>
         <v>ϖ = 44.97135  # [deg] longitude of periapsis</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="59" t="s">
+      <c r="A56" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="60" t="s">
+      <c r="B56" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="C56" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="D56" s="61" t="str">
+      <c r="C56" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D56" s="47" t="str">
         <f t="shared" si="7"/>
         <v>L = 304.88003  # [deg] mean longitude</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
-      <c r="B57" s="62" t="s">
+      <c r="A57" s="42"/>
+      <c r="B57" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="62"/>
-      <c r="D57" s="63"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="49"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="57" t="s">
+      <c r="A58" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="36" t="s">
         <v>218</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="D58" s="58" t="str">
+        <v>246</v>
+      </c>
+      <c r="D58" s="44" t="str">
         <f t="shared" ref="D58:D63" si="8">A58&amp;" = "&amp;B58&amp;"  # "&amp;C58</f>
         <v>a = 39.48168677  # [au] semi-major axis</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="57" t="s">
+      <c r="A59" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="36" t="s">
         <v>181</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="D59" s="58" t="str">
+        <v>247</v>
+      </c>
+      <c r="D59" s="44" t="str">
         <f t="shared" si="8"/>
         <v>e = 0.24880766  # [1] eccentricity</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="57" t="s">
+      <c r="A60" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="36" t="s">
         <v>219</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="D60" s="58" t="str">
+        <v>248</v>
+      </c>
+      <c r="D60" s="44" t="str">
         <f t="shared" si="8"/>
         <v>i = 17.14175  # [deg] inclination</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="57" t="s">
+      <c r="A61" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="36" t="s">
         <v>220</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="D61" s="58" t="str">
+        <v>249</v>
+      </c>
+      <c r="D61" s="44" t="str">
         <f t="shared" si="8"/>
         <v>Ω = 110.30347  # [deg] longitude of ascending node</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="57" t="s">
+      <c r="A62" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="36" t="s">
         <v>221</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="D62" s="58" t="str">
+        <v>250</v>
+      </c>
+      <c r="D62" s="44" t="str">
         <f t="shared" si="8"/>
         <v>ϖ = 224.06676  # [deg] longitude of periapsis</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="59" t="s">
+      <c r="A63" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B63" s="60" t="s">
+      <c r="B63" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="C63" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="D63" s="61" t="str">
+      <c r="C63" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D63" s="47" t="str">
         <f t="shared" si="8"/>
         <v>L = 238.92881  # [deg] mean longitude</v>
       </c>
@@ -18339,10 +12861,10 @@
       <c r="A3" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="54" t="s">
         <v>81</v>
       </c>
       <c r="D3" s="23"/>
@@ -18352,10 +12874,10 @@
       <c r="A4" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="54" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="23"/>
@@ -18366,10 +12888,10 @@
       <c r="A5" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D5" s="23"/>
@@ -18379,10 +12901,10 @@
       <c r="A6" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="17" t="s">
         <v>88</v>
       </c>
@@ -18401,10 +12923,10 @@
       <c r="A7" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="54"/>
       <c r="D7" t="s">
         <v>96</v>
       </c>
@@ -18423,10 +12945,10 @@
       <c r="A8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="54" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="23"/>
@@ -18462,10 +12984,10 @@
       <c r="A9" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="54" t="s">
         <v>57</v>
       </c>
       <c r="D9" s="23"/>
@@ -18501,11 +13023,11 @@
       <c r="A10" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="68" t="s">
-        <v>269</v>
+      <c r="C10" s="54" t="s">
+        <v>264</v>
       </c>
       <c r="D10" s="24"/>
       <c r="H10" s="21">
@@ -18537,13 +13059,13 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="56" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -18581,13 +13103,13 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="56" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -18622,13 +13144,13 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="56">
         <v>1</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -18648,10 +13170,10 @@
       <c r="A14" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="54" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="23"/>
@@ -18687,10 +13209,10 @@
       <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="54" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="23"/>
@@ -18726,10 +13248,10 @@
       <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="54" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="23"/>
@@ -18765,10 +13287,10 @@
       <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="54" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="23"/>
@@ -18804,10 +13326,10 @@
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="54" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="23"/>
@@ -18843,10 +13365,10 @@
       <c r="A19" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="54" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="23"/>
@@ -18882,10 +13404,10 @@
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="17" t="s">
         <v>82</v>
       </c>
@@ -18921,13 +13443,13 @@
       <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="53" t="s">
         <v>103</v>
       </c>
       <c r="H21" s="21">
@@ -18989,9 +13511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -19007,8 +13527,8 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19021,7 +13541,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>162</v>
       </c>
       <c r="K1">
@@ -19036,16 +13556,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="40" t="s">
         <v>122</v>
       </c>
     </row>
@@ -19056,268 +13576,268 @@
       <c r="B4" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>134</v>
       </c>
       <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="D6" s="32"/>
+      <c r="C6" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>267</v>
+      <c r="C7" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="D8" s="32" t="s">
+      <c r="C8" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="32" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="31" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+    </row>
+    <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-    </row>
-    <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="31" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="31" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="31" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="31" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" s="31"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32" t="s">
+      <c r="B22" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="31" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="B21" s="32" t="s">
+      <c r="D22" s="31"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" s="31"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="D21" s="32"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="D22" s="32"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="D23" s="32"/>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
@@ -19332,89 +13852,89 @@
       <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="53" t="s">
+      <c r="D28" s="39" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="34" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
-      <c r="B30" s="92" t="s">
-        <v>286</v>
-      </c>
-      <c r="C30" s="92" t="s">
-        <v>287</v>
-      </c>
-      <c r="D30" s="92" t="s">
-        <v>283</v>
-      </c>
-      <c r="E30" s="71" t="s">
+      <c r="A30" s="67"/>
+      <c r="B30" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" s="67" t="s">
         <v>272</v>
       </c>
+      <c r="E30" s="57" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>282</v>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
-        <v>232</v>
+      <c r="A38" s="37" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -19428,169 +13948,960 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAECBCED-83AE-4F4D-A925-5C28E22DAD62}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="B2:M8"/>
+  <dimension ref="B1:AV34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="45" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.42578125" style="45"/>
-    <col min="7" max="7" width="13.85546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="11.42578125" style="45"/>
-    <col min="13" max="13" width="53.7109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="45"/>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="1.28515625" customWidth="1"/>
+    <col min="14" max="24" width="6" customWidth="1"/>
+    <col min="25" max="25" width="1.28515625" customWidth="1"/>
+    <col min="26" max="36" width="6" customWidth="1"/>
+    <col min="37" max="37" width="1.28515625" customWidth="1"/>
+    <col min="38" max="48" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42" t="s">
+    <row r="1" spans="2:48" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B2" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="I2" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="J2" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="K2" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="N2" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="R2" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="S2" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="T2" s="77" t="s">
+        <v>278</v>
+      </c>
+      <c r="U2" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="V2" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="W2" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="X2" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z2" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC2" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD2" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE2" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF2" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="AG2" s="77" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH2" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI2" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ2" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL2" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM2" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN2" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO2" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP2" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ2" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR2" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="AS2" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT2" s="77" t="s">
+        <v>311</v>
+      </c>
+      <c r="AU2" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="AV2" s="70" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B3" s="65">
+        <v>0.7</v>
+      </c>
+      <c r="C3" s="82">
+        <v>85</v>
+      </c>
+      <c r="D3" s="80">
+        <v>0</v>
+      </c>
+      <c r="E3" s="66">
+        <v>0</v>
+      </c>
+      <c r="F3" s="82">
+        <v>0</v>
+      </c>
+      <c r="G3" s="84" t="s">
         <v>226</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="46" t="s">
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="86">
+        <v>0</v>
+      </c>
+      <c r="N3" s="65">
+        <v>0.7</v>
+      </c>
+      <c r="O3" s="82">
+        <v>85</v>
+      </c>
+      <c r="P3" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="66">
+        <v>0</v>
+      </c>
+      <c r="R3" s="82">
+        <v>0</v>
+      </c>
+      <c r="S3" s="66"/>
+      <c r="T3" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="71">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="65">
+        <v>0.7</v>
+      </c>
+      <c r="AA3" s="82">
+        <v>85</v>
+      </c>
+      <c r="AB3" s="80">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="66">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="82">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="71">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="65">
+        <v>0.7</v>
+      </c>
+      <c r="AM3" s="82">
+        <v>85</v>
+      </c>
+      <c r="AN3" s="80">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="66">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="82">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
+      <c r="AS3" s="66"/>
+      <c r="AT3" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="AU3" s="82"/>
+      <c r="AV3" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B4" s="59"/>
+      <c r="L4" s="58"/>
+      <c r="N4" s="59"/>
+      <c r="X4" s="58"/>
+      <c r="Z4" s="59"/>
+      <c r="AJ4" s="58"/>
+      <c r="AL4" s="59"/>
+      <c r="AV4" s="58"/>
+    </row>
+    <row r="5" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B5" s="59"/>
+      <c r="D5" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="75"/>
+      <c r="L5" s="58"/>
+      <c r="N5" s="59"/>
+      <c r="P5" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q5" s="75"/>
+      <c r="X5" s="58"/>
+      <c r="Z5" s="59"/>
+      <c r="AB5" s="73" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC5" s="75"/>
+      <c r="AJ5" s="58"/>
+      <c r="AL5" s="59"/>
+      <c r="AN5" s="74" t="s">
+        <v>306</v>
+      </c>
+      <c r="AO5" s="75"/>
+      <c r="AV5" s="58"/>
+    </row>
+    <row r="6" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B6" s="59"/>
+      <c r="C6" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6" t="s">
+        <v>269</v>
+      </c>
+      <c r="L6" s="58"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="27"/>
+      <c r="X6" s="58"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="27"/>
+      <c r="AJ6" s="58"/>
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>308</v>
+      </c>
+      <c r="AV6" s="58"/>
+    </row>
+    <row r="7" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B7" s="59"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="58"/>
+      <c r="N7" s="59"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="58"/>
+      <c r="Z7" s="59"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="58"/>
+      <c r="AL7" s="59"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="58"/>
+    </row>
+    <row r="8" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B8" s="59"/>
+      <c r="J8" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="L8" s="58"/>
+      <c r="N8" s="59"/>
+      <c r="V8" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="X8" s="58"/>
+      <c r="Z8" s="59"/>
+      <c r="AH8" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="AJ8" s="58"/>
+      <c r="AL8" s="59"/>
+      <c r="AT8" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="AV8" s="58"/>
+    </row>
+    <row r="9" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B9" s="59"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="58"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="W9" s="18"/>
+      <c r="X9" s="58"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="18"/>
+      <c r="AD9" s="27"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="58"/>
+      <c r="AL9" s="59"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="58"/>
+    </row>
+    <row r="10" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B10" s="59"/>
+      <c r="K10" t="s">
+        <v>269</v>
+      </c>
+      <c r="L10" s="58"/>
+      <c r="N10" s="59"/>
+      <c r="W10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X10" s="58"/>
+      <c r="Z10" s="59"/>
+      <c r="AD10" s="27"/>
+      <c r="AI10" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ10" s="58"/>
+      <c r="AL10" s="59"/>
+      <c r="AU10" t="s">
+        <v>308</v>
+      </c>
+      <c r="AV10" s="58"/>
+    </row>
+    <row r="11" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B11" s="59"/>
+      <c r="L11" s="58"/>
+      <c r="N11" s="59"/>
+      <c r="X11" s="58"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD11" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ11" s="58"/>
+      <c r="AL11" s="59"/>
+      <c r="AV11" s="58"/>
+    </row>
+    <row r="12" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B12" s="59"/>
+      <c r="L12" s="58"/>
+      <c r="N12" s="59"/>
+      <c r="X12" s="58"/>
+      <c r="Z12" s="59"/>
+      <c r="AJ12" s="58"/>
+      <c r="AL12" s="59"/>
+      <c r="AV12" s="58"/>
+    </row>
+    <row r="13" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B13" s="59"/>
+      <c r="L13" s="58"/>
+      <c r="N13" s="59"/>
+      <c r="X13" s="58"/>
+      <c r="Z13" s="59"/>
+      <c r="AJ13" s="58"/>
+      <c r="AL13" s="59"/>
+      <c r="AV13" s="58"/>
+    </row>
+    <row r="14" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="76" t="s">
+        <v>270</v>
+      </c>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="72" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="62"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="72" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="61"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="61"/>
+      <c r="AI14" s="61"/>
+      <c r="AJ14" s="62"/>
+      <c r="AL14" s="60"/>
+      <c r="AM14" s="61"/>
+      <c r="AN14" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="AO14" s="61"/>
+      <c r="AP14" s="61"/>
+      <c r="AQ14" s="61"/>
+      <c r="AR14" s="61"/>
+      <c r="AS14" s="61"/>
+      <c r="AT14" s="61"/>
+      <c r="AU14" s="61"/>
+      <c r="AV14" s="62"/>
+    </row>
+    <row r="16" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B16" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="C16" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="D16" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="E16" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="H3" s="47" t="s">
+      <c r="F16" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="G16" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
+      <c r="H16" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="I16" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="J16" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="K16" s="87" t="s">
+        <v>279</v>
+      </c>
+      <c r="L16" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="N16" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q16" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="R16" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="S16" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="T16" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="U16" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="V16" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="W16" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="X16" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z16" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA16" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB16" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC16" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD16" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE16" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF16" s="77" t="s">
+        <v>278</v>
+      </c>
+      <c r="AG16" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH16" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI16" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ16" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL16" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM16" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN16" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO16" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP16" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ16" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR16" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="AS16" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT16" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="AU16" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="AV16" s="85" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B17" s="65">
+        <v>0.7</v>
+      </c>
+      <c r="C17" s="82">
+        <v>85</v>
+      </c>
+      <c r="D17" s="80">
+        <v>0</v>
+      </c>
+      <c r="E17" s="66">
+        <v>0</v>
+      </c>
+      <c r="F17" s="82">
+        <v>0</v>
+      </c>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="88" t="s">
+        <v>226</v>
+      </c>
+      <c r="L17" s="86">
+        <v>0</v>
+      </c>
+      <c r="N17" s="65">
+        <v>0.7</v>
+      </c>
+      <c r="O17" s="82">
+        <v>85</v>
+      </c>
+      <c r="P17" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="78">
+        <v>90</v>
+      </c>
+      <c r="R17" s="88">
+        <v>90</v>
+      </c>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="82">
+        <v>0</v>
+      </c>
+      <c r="X17" s="86">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="65">
+        <v>0.7</v>
+      </c>
+      <c r="AA17" s="82">
+        <v>85</v>
+      </c>
+      <c r="AB17" s="80">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="78">
+        <v>135</v>
+      </c>
+      <c r="AD17" s="88">
+        <v>135</v>
+      </c>
+      <c r="AE17" s="66"/>
+      <c r="AF17" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG17" s="66"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="82"/>
+      <c r="AJ17" s="86">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="65">
+        <v>0.7</v>
+      </c>
+      <c r="AM17" s="82">
+        <v>85</v>
+      </c>
+      <c r="AN17" s="84">
+        <v>80</v>
+      </c>
+      <c r="AO17" s="66">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="88">
+        <v>80</v>
+      </c>
+      <c r="AQ17" s="66"/>
+      <c r="AR17" s="66"/>
+      <c r="AS17" s="66"/>
+      <c r="AT17" s="66"/>
+      <c r="AU17" s="82">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B18" s="59"/>
+      <c r="L18" s="58"/>
+      <c r="N18" s="59"/>
+      <c r="X18" s="58"/>
+      <c r="Z18" s="59"/>
+      <c r="AJ18" s="58"/>
+      <c r="AL18" s="59"/>
+      <c r="AV18" s="58"/>
+    </row>
+    <row r="19" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B19" s="59"/>
+      <c r="D19" s="74" t="s">
+        <v>289</v>
+      </c>
+      <c r="E19" s="75"/>
+      <c r="L19" s="58"/>
+      <c r="N19" s="59"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="75"/>
+      <c r="X19" s="58"/>
+      <c r="Z19" s="59"/>
+      <c r="AB19" s="74"/>
+      <c r="AC19" s="75"/>
+      <c r="AJ19" s="58"/>
+      <c r="AL19" s="59"/>
+      <c r="AN19" s="74"/>
+      <c r="AO19" s="75"/>
+      <c r="AV19" s="58"/>
+    </row>
+    <row r="20" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B20" s="59"/>
+      <c r="C20" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="F20" t="s">
+        <v>288</v>
+      </c>
+      <c r="L20" s="58"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="18"/>
+      <c r="X20" s="58"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="18"/>
+      <c r="AE20" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ20" s="58"/>
+      <c r="AL20" s="59"/>
+      <c r="AM20" s="27"/>
+      <c r="AV20" s="58"/>
+    </row>
+    <row r="21" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B21" s="59"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="58"/>
+      <c r="N21" s="59"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="58"/>
+      <c r="Z21" s="59"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="58"/>
+      <c r="AL21" s="59"/>
+      <c r="AU21" s="11"/>
+      <c r="AV21" s="58"/>
+    </row>
+    <row r="22" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B22" s="59"/>
+      <c r="J22" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="L22" s="58"/>
+      <c r="N22" s="59"/>
+      <c r="V22" s="11"/>
+      <c r="X22" s="58"/>
+      <c r="Z22" s="59"/>
+      <c r="AF22" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH22" s="11"/>
+      <c r="AI22" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ22" s="58"/>
+      <c r="AL22" s="59"/>
+      <c r="AT22" s="11"/>
+      <c r="AV22" s="58"/>
+    </row>
+    <row r="23" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B23" s="59"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="58"/>
+      <c r="N23" s="59"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="58"/>
+      <c r="Z23" s="59"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="58"/>
+      <c r="AL23" s="59"/>
+      <c r="AU23" s="18"/>
+      <c r="AV23" s="58"/>
+    </row>
+    <row r="24" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B24" s="59"/>
+      <c r="K24" t="s">
+        <v>288</v>
+      </c>
+      <c r="L24" s="58"/>
+      <c r="N24" s="59"/>
+      <c r="X24" s="58"/>
+      <c r="Z24" s="59"/>
+      <c r="AJ24" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL24" s="59"/>
+      <c r="AV24" s="58"/>
+    </row>
+    <row r="25" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B25" s="59"/>
+      <c r="L25" s="58"/>
+      <c r="N25" s="59"/>
+      <c r="X25" s="58"/>
+      <c r="Z25" s="59"/>
+      <c r="AD25" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ25" s="58"/>
+      <c r="AL25" s="59"/>
+      <c r="AV25" s="58"/>
+    </row>
+    <row r="26" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B26" s="59"/>
+      <c r="L26" s="58"/>
+      <c r="N26" s="59"/>
+      <c r="X26" s="58"/>
+      <c r="Z26" s="59"/>
+      <c r="AJ26" s="58"/>
+      <c r="AL26" s="59"/>
+      <c r="AV26" s="58"/>
+    </row>
+    <row r="27" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B27" s="59"/>
+      <c r="L27" s="58"/>
+      <c r="N27" s="59"/>
+      <c r="X27" s="58"/>
+      <c r="Z27" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="AJ27" s="58"/>
+      <c r="AL27" s="59"/>
+      <c r="AV27" s="58"/>
+    </row>
+    <row r="28" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="72" t="s">
+        <v>291</v>
+      </c>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="62"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="62"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="72"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="61"/>
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="61"/>
+      <c r="AJ28" s="62"/>
+      <c r="AL28" s="60"/>
+      <c r="AM28" s="61"/>
+      <c r="AN28" s="76"/>
+      <c r="AO28" s="61"/>
+      <c r="AP28" s="61"/>
+      <c r="AQ28" s="61"/>
+      <c r="AR28" s="61"/>
+      <c r="AS28" s="61"/>
+      <c r="AT28" s="61"/>
+      <c r="AU28" s="61"/>
+      <c r="AV28" s="62"/>
+    </row>
+    <row r="30" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>297</v>
+      </c>
+      <c r="T31" s="90"/>
+    </row>
+    <row r="32" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>293</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/research/Astrophysics_Personal_Glossary_Notebook.xlsx
+++ b/research/Astrophysics_Personal_Glossary_Notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Python\curvesim\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED86CA57-CCC4-427B-898B-764A1952C552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15DF87C-F04C-459C-8E52-C1AFEB80AD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="323">
   <si>
     <t>DT</t>
   </si>
@@ -1213,9 +1213,6 @@
     <t xml:space="preserve">L=270    </t>
   </si>
   <si>
-    <t xml:space="preserve">   L=180</t>
-  </si>
-  <si>
     <t xml:space="preserve">nu=270    </t>
   </si>
   <si>
@@ -1307,6 +1304,39 @@
   </si>
   <si>
     <t xml:space="preserve"> ea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L=0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        L=180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  L=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L=90        </t>
+  </si>
+  <si>
+    <t>z (to viewer)</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  z</t>
+  </si>
+  <si>
+    <t>y (to viewer)</t>
+  </si>
+  <si>
+    <t>overhead view</t>
+  </si>
+  <si>
+    <t>edge-on view</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1352,7 @@
     <numFmt numFmtId="169" formatCode="0.000000"/>
     <numFmt numFmtId="170" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1452,13 +1482,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1498,7 +1521,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1821,6 +1844,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1831,7 +1885,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2024,7 +2078,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -5993,6 +6078,140 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>284775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Ellipse 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25446CE8-CC8A-49E0-9791-4DF096439C1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3800475" y="1428750"/>
+          <a:ext cx="180000" cy="190026"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>294324</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>258039</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>113345</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Ellipse 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14354A59-D6FF-4163-8B46-88AEC84AD586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2389824" y="1494563"/>
+          <a:ext cx="1963965" cy="57057"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>21</xdr:row>
@@ -6129,84 +6348,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180110</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>341925</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>170976</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Ellipse 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25446CE8-CC8A-49E0-9791-4DF096439C1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3457575" y="1419225"/>
-          <a:ext cx="180000" cy="190026"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>341256</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>80121</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>27933</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>108140</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>112879</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>156544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6220,8 +6371,8 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="313460" y="1088992"/>
+        <a:xfrm>
+          <a:off x="275360" y="1088992"/>
           <a:ext cx="1933019" cy="886827"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6263,80 +6414,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>51133</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>230324</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>96852</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Ellipse 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE97BB2D-375D-4884-9FDA-22D68613B832}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3181349" y="1489408"/>
-          <a:ext cx="744675" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219754</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>334054</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>8965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>296395</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10645</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>90955</xdr:rowOff>
     </xdr:to>
@@ -6353,7 +6438,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3515404" y="1447240"/>
+          <a:off x="2829604" y="1447240"/>
           <a:ext cx="76641" cy="81990"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6397,16 +6482,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>329274</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63312</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>62574</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>44262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>10645</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>149255</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>143995</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>130205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6421,7 +6506,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1224624" y="2454087"/>
+          <a:off x="2158074" y="1482537"/>
           <a:ext cx="81421" cy="85943"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6465,16 +6550,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>289819</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>169768</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>366019</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>69769</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>159947</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145969</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>169472</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6489,7 +6574,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1185169" y="1989043"/>
+          <a:off x="1661419" y="1427068"/>
           <a:ext cx="180000" cy="180679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6533,16 +6618,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>386221</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152618</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>262396</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>124043</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6557,7 +6642,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1600200" y="933450"/>
+          <a:off x="676275" y="1857375"/>
           <a:ext cx="81421" cy="85943"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6667,16 +6752,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>33796</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>124043</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>224296</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133568</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6691,7 +6776,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1247775" y="523875"/>
+          <a:off x="238125" y="1485900"/>
           <a:ext cx="81421" cy="85943"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6736,15 +6821,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>52846</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>162143</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>271921</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>143093</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6759,7 +6844,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="866775" y="942975"/>
+          <a:off x="685800" y="1114425"/>
           <a:ext cx="81421" cy="85943"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6803,16 +6888,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57829</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200704</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>47065</xdr:rowOff>
+      <xdr:rowOff>37540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>277345</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>129055</xdr:rowOff>
+      <xdr:rowOff>119530</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6827,7 +6912,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3753529" y="1485340"/>
+          <a:off x="4296454" y="1475815"/>
           <a:ext cx="76641" cy="81990"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -10600,72 +10685,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>360302</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76203</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="Ellipse 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2501FB4-4316-4BB4-8132-776E55FE4787}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="14215239" y="3899666"/>
-          <a:ext cx="1076323" cy="877948"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>338799</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -10802,72 +10821,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>209547</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>132795</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="Ellipse 98">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6807B360-BDEB-4C80-A53A-DC87A8D55E94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="16164201" y="3733522"/>
-          <a:ext cx="1666319" cy="866778"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>200704</xdr:colOff>
       <xdr:row>26</xdr:row>
@@ -10932,6 +10885,424 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>119313</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>71187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>217208</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>71187</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Gerade Verbindung mit Pfeil 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405DFE8C-F9B2-1B61-45CA-6DC0CA8735DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4711366" y="6462963"/>
+          <a:ext cx="900000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>118812</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>120317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>118812</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>67817</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Gerade Verbindung mit Pfeil 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D4ACF7-2CE9-4851-BC7F-D2D3A6142336}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4710865" y="5559593"/>
+          <a:ext cx="0" cy="900000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>61662</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>75699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>118812</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>189999</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Gerade Verbindung mit Pfeil 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3374E3D0-8923-4E1A-B276-25A3559CEE52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4653715" y="6467475"/>
+          <a:ext cx="57150" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>119313</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>71187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>217208</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>71187</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Gerade Verbindung mit Pfeil 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{900CF406-D927-4591-A5F7-AB95BBF56226}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7501188" y="7033962"/>
+          <a:ext cx="897995" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>118812</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>118812</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>10667</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Gerade Verbindung mit Pfeil 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F0C9A0-9749-4A13-B4B8-390115960076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5100387" y="6835442"/>
+          <a:ext cx="0" cy="900000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>61662</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>75699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>118812</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>189999</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="Gerade Verbindung mit Pfeil 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72998A57-F9D0-48AC-AC3B-35AC18F57649}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7443537" y="7038474"/>
+          <a:ext cx="57150" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Grafik 101" descr="Häkchen mit einfarbiger Füllung">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CE6169A-C560-F154-F9F4-2EF5693EDE67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="1724025"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Grafik 102" descr="Häkchen mit einfarbiger Füllung">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29B6B37-E7AA-4BC7-8358-EDD03C230581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7839075" y="6010275"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13952,10 +14323,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="B1:AV34"/>
+  <dimension ref="B1:AV42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13994,10 +14365,10 @@
         <v>278</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J2" s="64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K2" s="81" t="s">
         <v>279</v>
@@ -14027,10 +14398,10 @@
         <v>278</v>
       </c>
       <c r="U2" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V2" s="64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="W2" s="81" t="s">
         <v>279</v>
@@ -14060,10 +14431,10 @@
         <v>278</v>
       </c>
       <c r="AG2" s="77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AH2" s="64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AI2" s="81" t="s">
         <v>279</v>
@@ -14093,10 +14464,10 @@
         <v>278</v>
       </c>
       <c r="AS2" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AT2" s="77" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU2" s="81" t="s">
         <v>279</v>
@@ -14219,26 +14590,24 @@
     </row>
     <row r="5" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B5" s="59"/>
-      <c r="D5" s="74" t="s">
-        <v>281</v>
-      </c>
+      <c r="D5" s="74"/>
       <c r="E5" s="75"/>
       <c r="L5" s="58"/>
       <c r="N5" s="59"/>
       <c r="P5" s="73" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="75"/>
       <c r="X5" s="58"/>
       <c r="Z5" s="59"/>
       <c r="AB5" s="73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC5" s="75"/>
       <c r="AJ5" s="58"/>
       <c r="AL5" s="59"/>
       <c r="AN5" s="74" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AO5" s="75"/>
       <c r="AV5" s="58"/>
@@ -14247,9 +14616,6 @@
       <c r="B6" s="59"/>
       <c r="C6" s="27" t="s">
         <v>280</v>
-      </c>
-      <c r="F6" t="s">
-        <v>269</v>
       </c>
       <c r="L6" s="58"/>
       <c r="N6" s="59"/>
@@ -14260,10 +14626,10 @@
       <c r="AJ6" s="58"/>
       <c r="AL6" s="59"/>
       <c r="AM6" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="AP6" t="s">
         <v>307</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>308</v>
       </c>
       <c r="AV6" s="58"/>
     </row>
@@ -14283,36 +14649,41 @@
     </row>
     <row r="8" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B8" s="59"/>
-      <c r="J8" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="L8" s="58"/>
+      <c r="I8" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="L8" s="90" t="s">
+        <v>312</v>
+      </c>
       <c r="N8" s="59"/>
       <c r="V8" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X8" s="58"/>
       <c r="Z8" s="59"/>
       <c r="AH8" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AJ8" s="58"/>
       <c r="AL8" s="59"/>
       <c r="AT8" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AV8" s="58"/>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B9" s="59"/>
+      <c r="B9" s="59" t="s">
+        <v>313</v>
+      </c>
       <c r="K9" s="18"/>
       <c r="L9" s="58"/>
       <c r="N9" s="59"/>
       <c r="O9" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R9" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W9" s="18"/>
       <c r="X9" s="58"/>
@@ -14327,24 +14698,24 @@
     </row>
     <row r="10" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B10" s="59"/>
-      <c r="K10" t="s">
-        <v>269</v>
+      <c r="G10" t="s">
+        <v>314</v>
       </c>
       <c r="L10" s="58"/>
       <c r="N10" s="59"/>
       <c r="W10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X10" s="58"/>
       <c r="Z10" s="59"/>
       <c r="AD10" s="27"/>
       <c r="AI10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AJ10" s="58"/>
       <c r="AL10" s="59"/>
       <c r="AU10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AV10" s="58"/>
     </row>
@@ -14355,10 +14726,10 @@
       <c r="X11" s="58"/>
       <c r="Z11" s="59"/>
       <c r="AA11" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD11" s="27" t="s">
         <v>303</v>
-      </c>
-      <c r="AD11" s="27" t="s">
-        <v>304</v>
       </c>
       <c r="AJ11" s="58"/>
       <c r="AL11" s="59"/>
@@ -14366,6 +14737,9 @@
     </row>
     <row r="12" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B12" s="59"/>
+      <c r="C12" t="s">
+        <v>269</v>
+      </c>
       <c r="L12" s="58"/>
       <c r="N12" s="59"/>
       <c r="X12" s="58"/>
@@ -14387,9 +14761,7 @@
     <row r="14" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B14" s="60"/>
       <c r="C14" s="61"/>
-      <c r="D14" s="76" t="s">
-        <v>270</v>
-      </c>
+      <c r="D14" s="76"/>
       <c r="E14" s="61"/>
       <c r="F14" s="61"/>
       <c r="G14" s="61"/>
@@ -14401,7 +14773,7 @@
       <c r="N14" s="60"/>
       <c r="O14" s="61"/>
       <c r="P14" s="72" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="61"/>
       <c r="R14" s="61"/>
@@ -14414,7 +14786,7 @@
       <c r="Z14" s="60"/>
       <c r="AA14" s="61"/>
       <c r="AB14" s="72" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AC14" s="61"/>
       <c r="AD14" s="61"/>
@@ -14427,7 +14799,7 @@
       <c r="AL14" s="60"/>
       <c r="AM14" s="61"/>
       <c r="AN14" s="72" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AO14" s="61"/>
       <c r="AP14" s="61"/>
@@ -14461,10 +14833,10 @@
         <v>278</v>
       </c>
       <c r="I16" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J16" s="64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K16" s="87" t="s">
         <v>279</v>
@@ -14494,10 +14866,10 @@
         <v>278</v>
       </c>
       <c r="U16" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V16" s="64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="W16" s="81" t="s">
         <v>279</v>
@@ -14527,10 +14899,10 @@
         <v>278</v>
       </c>
       <c r="AG16" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AH16" s="64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AI16" s="81" t="s">
         <v>279</v>
@@ -14560,10 +14932,10 @@
         <v>278</v>
       </c>
       <c r="AS16" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AT16" s="64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU16" s="81" t="s">
         <v>279</v>
@@ -14687,7 +15059,7 @@
     <row r="19" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B19" s="59"/>
       <c r="D19" s="74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E19" s="75"/>
       <c r="L19" s="58"/>
@@ -14707,10 +15079,10 @@
     <row r="20" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B20" s="59"/>
       <c r="C20" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L20" s="58"/>
       <c r="N20" s="59"/>
@@ -14719,7 +15091,7 @@
       <c r="Z20" s="59"/>
       <c r="AA20" s="18"/>
       <c r="AE20" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AJ20" s="58"/>
       <c r="AL20" s="59"/>
@@ -14751,11 +15123,11 @@
       <c r="X22" s="58"/>
       <c r="Z22" s="59"/>
       <c r="AF22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AH22" s="11"/>
       <c r="AI22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AJ22" s="58"/>
       <c r="AL22" s="59"/>
@@ -14779,14 +15151,14 @@
     <row r="24" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B24" s="59"/>
       <c r="K24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L24" s="58"/>
       <c r="N24" s="59"/>
       <c r="X24" s="58"/>
       <c r="Z24" s="59"/>
       <c r="AJ24" s="58" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL24" s="59"/>
       <c r="AV24" s="58"/>
@@ -14798,7 +15170,7 @@
       <c r="X25" s="58"/>
       <c r="Z25" s="59"/>
       <c r="AD25" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AJ25" s="58"/>
       <c r="AL25" s="59"/>
@@ -14820,7 +15192,7 @@
       <c r="N27" s="59"/>
       <c r="X27" s="58"/>
       <c r="Z27" s="59" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AJ27" s="58"/>
       <c r="AL27" s="59"/>
@@ -14830,7 +15202,7 @@
       <c r="B28" s="60"/>
       <c r="C28" s="61"/>
       <c r="D28" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E28" s="61"/>
       <c r="F28" s="61"/>
@@ -14876,29 +15248,258 @@
     </row>
     <row r="30" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>292</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N30" s="98"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="99"/>
+      <c r="U30" s="99"/>
+      <c r="V30" s="99"/>
+      <c r="W30" s="99"/>
+      <c r="X30" s="100"/>
+      <c r="Z30" s="91"/>
+      <c r="AA30" s="92"/>
+      <c r="AB30" s="93"/>
+      <c r="AC30" s="92"/>
+      <c r="AD30" s="92"/>
+      <c r="AE30" s="92"/>
+      <c r="AF30" s="92"/>
+      <c r="AG30" s="92"/>
+      <c r="AH30" s="92"/>
+      <c r="AI30" s="92"/>
+      <c r="AJ30" s="94"/>
     </row>
     <row r="31" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>297</v>
-      </c>
-      <c r="T31" s="90"/>
+        <v>296</v>
+      </c>
+      <c r="N31" s="59"/>
+      <c r="O31" s="103" t="s">
+        <v>321</v>
+      </c>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="103"/>
+      <c r="S31" s="103"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="58"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="96"/>
+      <c r="AB31" s="96"/>
+      <c r="AC31" s="96"/>
+      <c r="AD31" s="96"/>
+      <c r="AE31" s="96"/>
+      <c r="AF31" s="96"/>
+      <c r="AG31" s="96"/>
+      <c r="AH31" s="96"/>
+      <c r="AI31" s="96"/>
+      <c r="AJ31" s="97"/>
     </row>
     <row r="32" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>297</v>
+      </c>
+      <c r="N32" s="59"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="101"/>
+      <c r="R32" s="101"/>
+      <c r="S32" s="101"/>
+      <c r="X32" s="58"/>
+      <c r="Z32" s="59"/>
+      <c r="AJ32" s="58"/>
+    </row>
+    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="N33" s="59"/>
+      <c r="O33" s="101" t="s">
+        <v>320</v>
+      </c>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="101"/>
+      <c r="S33" s="101"/>
+      <c r="T33" s="101"/>
+      <c r="U33" s="101"/>
+      <c r="V33" s="101"/>
+      <c r="W33" s="101"/>
+      <c r="X33" s="58"/>
+      <c r="Z33" s="59"/>
+      <c r="AB33" s="74"/>
+      <c r="AC33" s="75"/>
+      <c r="AJ33" s="58"/>
+    </row>
+    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>293</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N34" s="59"/>
+      <c r="O34" s="101"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="102" t="s">
+        <v>318</v>
+      </c>
+      <c r="R34" s="101"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="101"/>
+      <c r="U34" s="101" t="s">
+        <v>317</v>
+      </c>
+      <c r="V34" s="101"/>
+      <c r="W34" s="101"/>
+      <c r="X34" s="58"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="18"/>
+      <c r="AJ34" s="58"/>
+    </row>
+    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="N35" s="59"/>
+      <c r="O35" s="102"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="101"/>
+      <c r="R35" s="101"/>
+      <c r="S35" s="101"/>
+      <c r="T35" s="101"/>
+      <c r="U35" s="101"/>
+      <c r="V35" s="101"/>
+      <c r="W35" s="101"/>
+      <c r="X35" s="58"/>
+      <c r="Z35" s="59"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="58"/>
+    </row>
+    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="N36" s="59"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="101"/>
+      <c r="Q36" s="101"/>
+      <c r="R36" s="101"/>
+      <c r="S36" s="101"/>
+      <c r="T36" s="101"/>
+      <c r="U36" s="101"/>
+      <c r="V36" s="101"/>
+      <c r="W36" s="101"/>
+      <c r="X36" s="58"/>
+      <c r="Z36" s="59"/>
+      <c r="AH36" s="11"/>
+      <c r="AJ36" s="58"/>
+    </row>
+    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="N37" s="59"/>
+      <c r="O37" s="101"/>
+      <c r="P37" s="101"/>
+      <c r="Q37" s="101"/>
+      <c r="R37" s="101"/>
+      <c r="S37" s="101"/>
+      <c r="T37" s="101"/>
+      <c r="U37" s="101"/>
+      <c r="V37" s="101"/>
+      <c r="W37" s="101"/>
+      <c r="X37" s="58"/>
+      <c r="Z37" s="59"/>
+      <c r="AI37" s="18"/>
+      <c r="AJ37" s="58"/>
+    </row>
+    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="N38" s="59"/>
+      <c r="O38" s="101"/>
+      <c r="P38" s="101"/>
+      <c r="Q38" s="101"/>
+      <c r="R38" s="101"/>
+      <c r="S38" s="101"/>
+      <c r="T38" s="101"/>
+      <c r="U38" s="101"/>
+      <c r="V38" s="101"/>
+      <c r="W38" s="101"/>
+      <c r="X38" s="58"/>
+      <c r="Z38" s="59"/>
+      <c r="AJ38" s="58"/>
+    </row>
+    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="N39" s="59"/>
+      <c r="O39" s="101" t="s">
+        <v>319</v>
+      </c>
+      <c r="P39" s="101"/>
+      <c r="Q39" s="101"/>
+      <c r="R39" s="101"/>
+      <c r="S39" s="101"/>
+      <c r="T39" s="101"/>
+      <c r="U39" s="101"/>
+      <c r="V39" s="101"/>
+      <c r="W39" s="102" t="s">
+        <v>318</v>
+      </c>
+      <c r="X39" s="58"/>
+      <c r="Z39" s="59"/>
+      <c r="AJ39" s="58"/>
+    </row>
+    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="N40" s="59"/>
+      <c r="O40" s="101"/>
+      <c r="P40" s="101"/>
+      <c r="Q40" s="101"/>
+      <c r="R40" s="101"/>
+      <c r="S40" s="101"/>
+      <c r="T40" s="101"/>
+      <c r="U40" s="101" t="s">
+        <v>316</v>
+      </c>
+      <c r="V40" s="101"/>
+      <c r="W40" s="101"/>
+      <c r="X40" s="58"/>
+      <c r="Z40" s="59"/>
+      <c r="AJ40" s="58"/>
+    </row>
+    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="N41" s="59"/>
+      <c r="O41" s="101"/>
+      <c r="P41" s="101"/>
+      <c r="Q41" s="101"/>
+      <c r="R41" s="101"/>
+      <c r="S41" s="101"/>
+      <c r="T41" s="101"/>
+      <c r="U41" s="101"/>
+      <c r="V41" s="101"/>
+      <c r="W41" s="101"/>
+      <c r="X41" s="58"/>
+      <c r="Z41" s="59"/>
+      <c r="AJ41" s="58"/>
+    </row>
+    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="N42" s="60"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="61"/>
+      <c r="U42" s="61"/>
+      <c r="V42" s="61"/>
+      <c r="W42" s="61"/>
+      <c r="X42" s="62"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="72"/>
+      <c r="AC42" s="61"/>
+      <c r="AD42" s="61"/>
+      <c r="AE42" s="61"/>
+      <c r="AF42" s="61"/>
+      <c r="AG42" s="61"/>
+      <c r="AH42" s="61"/>
+      <c r="AI42" s="61"/>
+      <c r="AJ42" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/research/Astrophysics_Personal_Glossary_Notebook.xlsx
+++ b/research/Astrophysics_Personal_Glossary_Notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Python\curvesim\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15DF87C-F04C-459C-8E52-C1AFEB80AD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429D38E9-2BB1-4333-A93B-508ED3005387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,8 @@
     <sheet name="Orbit glossary" sheetId="7" r:id="rId7"/>
     <sheet name="Kepler Parameter" sheetId="9" r:id="rId8"/>
     <sheet name="Parameter-Interpretation" sheetId="15" r:id="rId9"/>
-    <sheet name="Exoplanetenparameterableitung" sheetId="12" r:id="rId10"/>
+    <sheet name="delete" sheetId="16" r:id="rId10"/>
+    <sheet name="Exoplanetenparameterableitung" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="337">
   <si>
     <t>DT</t>
   </si>
@@ -1179,9 +1180,6 @@
     <t>L=90</t>
   </si>
   <si>
-    <t>L=0</t>
-  </si>
-  <si>
     <t>EXOFASTv2 - exoplanet modeling code - explains all parameters!.pdf</t>
   </si>
   <si>
@@ -1240,9 +1238,6 @@
     <t xml:space="preserve">T=75%*P  </t>
   </si>
   <si>
-    <t xml:space="preserve">T=0     </t>
-  </si>
-  <si>
     <t>a, e, i are mandatory.</t>
   </si>
   <si>
@@ -1252,9 +1247,6 @@
     <t xml:space="preserve"> nu=0     </t>
   </si>
   <si>
-    <t xml:space="preserve"> nu=-135     </t>
-  </si>
-  <si>
     <t xml:space="preserve"> nu=180     </t>
   </si>
   <si>
@@ -1285,21 +1277,9 @@
     <t xml:space="preserve">ea=0     </t>
   </si>
   <si>
-    <t>ma=180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ma=270  </t>
-  </si>
-  <si>
     <t>ma=90</t>
   </si>
   <si>
-    <t>ma=0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ma=0     </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ma</t>
   </si>
   <si>
@@ -1337,6 +1317,69 @@
   </si>
   <si>
     <t>edge-on view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma=270    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma=90        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma=0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ma=180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ma=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  T=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T=0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nu=90        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nu=0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        nu=180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  nu=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ea=0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ea=180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ea=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ea=90        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nu=135     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nu=90    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nu=135 (eclipse)    </t>
+  </si>
+  <si>
+    <t>nu=90 (eclipse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nu=270      </t>
+  </si>
+  <si>
+    <t>nu = 315</t>
   </si>
 </sst>
 </file>
@@ -1885,7 +1928,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2081,35 +2124,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -6956,2720 +6973,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>341925</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>170976</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Ellipse 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC804BA-4F96-44F7-8F6B-AA4A28734F03}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3457575" y="1419225"/>
-          <a:ext cx="180000" cy="190026"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>341256</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>80121</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>27933</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>108140</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Ellipse 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF08BB67-E147-44F2-85FE-C304BBCEE7F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="313460" y="1088992"/>
-          <a:ext cx="1933019" cy="886827"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>51133</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>230324</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>96852</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Ellipse 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF4ED95F-76CA-455F-84F8-EC43E3B8065F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3181349" y="1489408"/>
-          <a:ext cx="744675" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>219754</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>296395</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>90955</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Ellipse 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7301AED-7D61-44B0-B19A-52F1769D0F5B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3515404" y="1447240"/>
-          <a:ext cx="76641" cy="81990"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>329274</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63312</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>10645</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>149255</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Ellipse 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E162A450-3CB6-4DA0-9CA8-84E98029B88D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1224624" y="2454087"/>
-          <a:ext cx="81421" cy="85943"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>289819</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>169768</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>69769</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>159947</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Ellipse 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E90CF0F4-1B30-4173-8465-16656C2EAB26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5671444" y="1989043"/>
-          <a:ext cx="180000" cy="180679"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>62371</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152618</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Ellipse 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF087767-498B-48CE-8B26-F561C80C30FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6162675" y="1504950"/>
-          <a:ext cx="81421" cy="85943"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>33796</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>124043</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Ellipse 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E517E2E-5DFD-42CF-86D8-4227E4D5D804}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1247775" y="523875"/>
-          <a:ext cx="81421" cy="85943"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>386221</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>143093</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Ellipse 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C40966D-AD60-484A-9183-8248FC0D204B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5286375" y="1495425"/>
-          <a:ext cx="81421" cy="85943"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>162604</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28015</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>239245</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>110005</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Ellipse 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5DAEAD-6019-418B-9256-AAE1540157DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8344579" y="1466290"/>
-          <a:ext cx="76641" cy="81990"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>341925</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>170976</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Ellipse 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{229EDF46-1B00-44A5-9A80-A460020D9D63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7943850" y="1419225"/>
-          <a:ext cx="180000" cy="190026"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>341256</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>80121</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>27933</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>108140</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Ellipse 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD0FC4EA-B103-469F-A6F9-6A48D7C4F569}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4799735" y="1088992"/>
-          <a:ext cx="1933019" cy="886827"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>51133</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>230324</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>96852</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Ellipse 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B87305A-B848-4195-8028-137FB72BC9E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7667624" y="1489408"/>
-          <a:ext cx="744675" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>219754</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>296395</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>90955</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Ellipse 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33418DFD-A144-4F16-849C-EE852BAB44F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8001679" y="1447240"/>
-          <a:ext cx="76641" cy="81990"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>329274</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63312</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>10645</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>149255</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Ellipse 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09DECE5-680B-4DDD-AE54-88305A567772}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5710899" y="2454087"/>
-          <a:ext cx="81421" cy="85943"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>289819</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>169768</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>69769</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>159947</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Ellipse 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5612FD5C-167B-4670-9D23-CBB92D3773A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10157719" y="1989043"/>
-          <a:ext cx="180000" cy="180679"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>43321</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66893</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Ellipse 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519D02BF-A3A9-4714-A5ED-8E1D1B6F9910}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10629900" y="1800225"/>
-          <a:ext cx="81421" cy="85943"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>33796</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>124043</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Ellipse 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E75683-1E50-4B84-B216-F6869081AD61}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5734050" y="523875"/>
-          <a:ext cx="81421" cy="85943"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>5221</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57368</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Ellipse 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D21324C7-B0D7-489B-9785-25EDDCA07D68}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9791700" y="1790700"/>
-          <a:ext cx="81421" cy="85943"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>95929</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>172570</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>90955</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Ellipse 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1EF6AC-F99E-480D-97AC-3AAD31F6C2D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12764179" y="1447240"/>
-          <a:ext cx="76641" cy="81990"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>341925</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>170976</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Ellipse 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B64776-6C5C-439D-AF25-621331621455}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3457575" y="1419225"/>
-          <a:ext cx="180000" cy="190026"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>341256</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>80121</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>27933</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>108140</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Ellipse 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE67DAB-CCE8-4751-A186-CD041459B0D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="313460" y="1088992"/>
-          <a:ext cx="1933019" cy="886827"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>51133</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>230324</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>96852</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Ellipse 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE88EC9-A682-4B52-973B-CB30F2196B6F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3181349" y="1489408"/>
-          <a:ext cx="744675" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>219754</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>296395</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>90955</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Ellipse 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD15C6F-03B3-4FC4-8E4E-9EA97EB28EF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3515404" y="1447240"/>
-          <a:ext cx="76641" cy="81990"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>329274</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63312</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>10645</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>149255</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Ellipse 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{498EA7CA-8811-4ADF-A1A9-886E48BC5918}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1224624" y="2454087"/>
-          <a:ext cx="81421" cy="85943"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>289819</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>169768</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>69769</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>159947</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Ellipse 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7568FFA0-83C8-4E27-9150-329444B8644F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14643994" y="1989043"/>
-          <a:ext cx="180000" cy="180679"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>386221</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152618</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Ellipse 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F8E335-C49B-4FCE-9030-8A998CBAD067}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1600200" y="933450"/>
-          <a:ext cx="81421" cy="85943"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>33796</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>124043</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Ellipse 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF66EED3-BE84-4B21-9942-36E2C003E4E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1247775" y="523875"/>
-          <a:ext cx="81421" cy="85943"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>52846</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>162143</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Ellipse 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2C2ABA7-8A82-4F39-87AC-99D707C5256F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="866775" y="942975"/>
-          <a:ext cx="81421" cy="85943"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>57829</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47065</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>129055</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Ellipse 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B95A5B1-3ABE-4253-97DE-FD41AEBABB24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3753529" y="1485340"/>
-          <a:ext cx="76641" cy="81990"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>341925</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>170976</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Ellipse 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{030A4FDF-7CDB-40C7-9E31-B7C69F61AFFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3457575" y="1419225"/>
-          <a:ext cx="180000" cy="190026"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>341256</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>80121</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>27933</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>108140</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Ellipse 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16AD2031-3845-4BFF-B4F8-DA04D98CB650}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="313460" y="1088992"/>
-          <a:ext cx="1933019" cy="886827"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>51133</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>230324</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>96852</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Ellipse 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A4BA414-2F34-4891-8028-349AA4E9BE6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3181349" y="1489408"/>
-          <a:ext cx="744675" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219754</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>296395</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>90955</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Ellipse 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81815B13-2EDB-4A49-9969-203EE3199B80}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3515404" y="1447240"/>
-          <a:ext cx="76641" cy="81990"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>329274</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>63312</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>10645</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>149255</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Ellipse 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0040C16E-9A2B-4E9B-9A48-290A0B7DD400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1224624" y="2454087"/>
-          <a:ext cx="81421" cy="85943"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>289819</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>169768</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>69769</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>159947</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="Ellipse 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C4AEE1C-2403-49F9-AC07-811C62022EB7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1185169" y="4656043"/>
-          <a:ext cx="180000" cy="180679"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>386221</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152618</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Ellipse 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC6E1E2-1FA2-4FE8-BFA8-3F1A706A3A01}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1600200" y="933450"/>
-          <a:ext cx="81421" cy="85943"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>33796</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>124043</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Ellipse 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C2FBC9-E333-4874-9E8A-585FA661714F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1247775" y="523875"/>
-          <a:ext cx="81421" cy="85943"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>52846</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>162143</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Ellipse 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B730CE6C-E0B1-4F20-ACB7-C039B6D83ABE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="866775" y="942975"/>
-          <a:ext cx="81421" cy="85943"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57829</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47065</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>129055</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="Ellipse 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2E12140-F949-4590-8D3B-6BF50B9687DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3753529" y="1485340"/>
-          <a:ext cx="76641" cy="81990"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9684,7 +6997,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="4552949"/>
+          <a:off x="3057525" y="4533899"/>
           <a:ext cx="1352550" cy="619126"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10278,15 +7591,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>181654</xdr:colOff>
+      <xdr:colOff>229279</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>56590</xdr:rowOff>
+      <xdr:rowOff>37540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>258295</xdr:colOff>
+      <xdr:colOff>305920</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>138580</xdr:rowOff>
+      <xdr:rowOff>119530</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10301,7 +7614,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13249954" y="4161865"/>
+          <a:off x="13297579" y="4142815"/>
           <a:ext cx="76641" cy="81990"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -10348,13 +7661,13 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>24271</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>171668</xdr:rowOff>
+      <xdr:rowOff>181193</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10369,7 +7682,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10610850" y="4381500"/>
+          <a:off x="10610850" y="4391025"/>
           <a:ext cx="81421" cy="85943"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -10482,15 +7795,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>372154</xdr:colOff>
+      <xdr:colOff>295954</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>18490</xdr:rowOff>
+      <xdr:rowOff>37540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>48745</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>372595</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>100480</xdr:rowOff>
+      <xdr:rowOff>119530</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10505,7 +7818,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11840254" y="4123765"/>
+          <a:off x="11764054" y="4142815"/>
           <a:ext cx="76641" cy="81990"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -11305,6 +8618,5485 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>284775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Ellipse 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B51D1E-6494-48DC-8F21-31EBC04BDB10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3800475" y="1428750"/>
+          <a:ext cx="180000" cy="190026"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>294324</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>258039</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>113345</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Ellipse 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40D9FB0-1ED6-4513-B11D-B4FFC859846C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2389824" y="1494563"/>
+          <a:ext cx="1963965" cy="57057"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>180110</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>112879</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>156544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Ellipse 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7BB302F-A8EA-4CE0-86BA-E0B212A77CA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="275360" y="1088992"/>
+          <a:ext cx="1933019" cy="886827"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>334054</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>10645</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>90955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Ellipse 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F138008-6A92-42E2-B5FE-BE3253A273AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2829604" y="1447240"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>62574</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>44262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>143995</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>130205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Ellipse 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A272EB33-D747-42DA-8F0C-9E19502207D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2158074" y="1482537"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>366019</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>145969</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>169472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Ellipse 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE92E232-AE58-4CC6-867A-17256C14BB07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1661419" y="1427068"/>
+          <a:ext cx="180000" cy="180679"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>262396</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>124043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Ellipse 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BCEF2A3-7EE6-4DAC-9646-8A2EBA50DF02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="1857375"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>224296</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Ellipse 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20342960-FEC8-4A92-A163-F811E0DF3223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="1485900"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>271921</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>143093</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Ellipse 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C3B90D-D2F4-409A-BEDB-78F7D73BA92F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1114425"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>200704</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>37540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>277345</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Ellipse 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E55BC9BE-6C2A-4C8A-8800-3CA4B7DD0B18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4296454" y="1475815"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914400" cy="914400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Grafik 50" descr="Häkchen mit einfarbiger Füllung">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2638F282-8DF8-4359-92EB-5A291143121A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="1724025"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>284775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Ellipse 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D311F49D-A6D3-46EC-9422-341C05ACA117}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3800475" y="1428750"/>
+          <a:ext cx="180000" cy="190026"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>294324</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>56288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>258039</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>113345</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Ellipse 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1701B3BC-2671-4946-8B4E-1B44F4D89E0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2389824" y="1494563"/>
+          <a:ext cx="1963965" cy="57057"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180110</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>112879</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>156544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Ellipse 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C91A8DC-ABB8-4438-98BC-F2EBB342E1A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="275360" y="1088992"/>
+          <a:ext cx="1933019" cy="886827"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>334054</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10645</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>90955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Ellipse 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8556B29-450C-4D41-A85C-171DE1CEF574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2829604" y="1447240"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>62574</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>143995</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>130205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Ellipse 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07BF5B2-0DD2-4DE3-B72C-1DCDA3E6A422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2158074" y="1482537"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>366019</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145969</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>169472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Ellipse 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95085395-AF68-43A4-9DFE-4ABBA35C3A18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1661419" y="1427068"/>
+          <a:ext cx="180000" cy="180679"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>262396</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>124043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Ellipse 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7399AA93-50A4-4D87-B045-1C436C2B6F4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="1857375"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>224296</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Ellipse 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FDB4F22-8BBC-466B-AB65-818B07993954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="1485900"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>271921</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>143093</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="Ellipse 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10282128-60AF-4103-B76A-62D6241402F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1114425"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200704</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>37540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>277345</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>119530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="Ellipse 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820E8A67-024E-473E-A8C2-6B16C12AA6A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4296454" y="1475815"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914400" cy="914400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Grafik 98" descr="Häkchen mit einfarbiger Füllung">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9037319A-F5B2-46FB-9413-874648D369FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3209925" y="3219450"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Grafik 106" descr="Schließen mit einfarbiger Füllung">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8413BA3-9861-46CB-AD70-D5C6765CF1E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981825" y="3533775"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Grafik 107" descr="Schließen mit einfarbiger Füllung">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE231AE-DB92-46F0-8A48-7E7EA5937F5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13954125" y="3724275"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>376696</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95468</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="Ellipse 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92218115-F519-4DDB-8A5D-48F4374ED3F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390525" y="1638300"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>284775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="Ellipse 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F57A90-FDAF-4534-9EB4-9707EFDEF77E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12773025" y="6762750"/>
+          <a:ext cx="180000" cy="190026"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>294324</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>258039</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>113345</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="Ellipse 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B679590D-4A56-4E21-BD12-F85BDAFC309C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="11362374" y="6828563"/>
+          <a:ext cx="1963965" cy="57057"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180110</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>112879</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>156544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="Ellipse 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B412B093-FA15-440B-AC4F-C37D99B84A43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9247910" y="6422992"/>
+          <a:ext cx="1933019" cy="886827"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>162604</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>18490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>239245</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="Ellipse 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B07041-750F-47FF-9ACE-3035148E543E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12830854" y="6790765"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>366019</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>145969</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>169472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="Ellipse 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC2132F8-D91E-49DE-B94A-1AF7145FFF61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10633969" y="6761068"/>
+          <a:ext cx="180000" cy="180679"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>90946</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>124043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="Ellipse 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47238341-17EF-4D4D-B840-D7C3635EDA92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10677525" y="7191375"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>224296</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="Ellipse 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A0258E-B6F7-4378-AAB4-BBE3DD062F7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9210675" y="6819900"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>90946</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>143093</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="Ellipse 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35666CEC-CA6F-4111-9F76-671C017BAF83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10677525" y="6448425"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>200704</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>37540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>277345</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="Ellipse 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1013F5-EC7F-4920-8315-82535ECCAFBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13269004" y="6809815"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>157621</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>124043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="Ellipse 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDBD8D08-0722-4CB4-A135-48A0A4E14517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11144250" y="6810375"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914400" cy="914400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="133" name="Grafik 132" descr="Häkchen mit einfarbiger Füllung">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B83C008-D3FC-4D53-A9BF-C6F4211A4B60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11544300" y="6848475"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>284775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="Ellipse 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4730E1BC-EF63-4D87-9D04-4968BA19B81D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286750" y="1428750"/>
+          <a:ext cx="180000" cy="190026"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>294324</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>258039</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>113345</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="Ellipse 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9FB668-C362-4457-9E58-B2D26DA35F65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6876099" y="1494563"/>
+          <a:ext cx="1963965" cy="57057"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>180110</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>112879</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>156544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="Ellipse 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA391B8-C058-4BCC-9A47-C1A38F4C555A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4761635" y="1088992"/>
+          <a:ext cx="1933019" cy="886827"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>162604</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>239245</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>90955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="Ellipse 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFEB9F92-1BE1-4E7E-A4B5-DB6EA31E3F9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12430804" y="6781240"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>366019</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>145969</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>169472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="Ellipse 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F4DF4D9-77B7-4870-8808-6ACC31EA12E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6147694" y="1427068"/>
+          <a:ext cx="180000" cy="180679"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>205246</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="Ellipse 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A395102A-154C-4D2B-83AB-F04BC600D64E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="7239000"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>224296</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="Ellipse 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBB47B7-240B-4923-B320-0667736C0E18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="1485900"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>214771</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85943</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="Ellipse 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5278B35B-89C1-4536-A969-1635E190CA5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10401300" y="6391275"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>200704</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>37540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>277345</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="Ellipse 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E744748-7532-4A20-AF6F-252F968A6BDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8782729" y="1475815"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>157621</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>124043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="Ellipse 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3309DFD0-F919-47AD-9AC3-3D61AC877748}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6657975" y="1476375"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="145" name="Grafik 144" descr="Häkchen mit einfarbiger Füllung">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD069741-C122-4779-9E29-F9102B796C05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11563350" y="5962650"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>252871</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="Ellipse 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC7445D7-6A26-4EAC-9DDF-35276A35E1BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10839450" y="4152900"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>205246</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95468</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="Ellipse 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B6CFD1-EC88-44A8-9DFE-29FD6277C9B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="3543300"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>24271</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28793</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="Ellipse 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1F3FA14-72DC-4B88-88D3-CB775407844C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10610850" y="3476625"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="150" name="Grafik 149" descr="Häkchen mit einfarbiger Füllung">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D89972-D5E8-4BD5-912C-7A0D09AD5E3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12011025" y="4133850"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>341925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>170976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Ellipse 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078407D3-7535-40A6-A56B-FC0BDF809136}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7943850" y="1419225"/>
+          <a:ext cx="180000" cy="190026"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>341256</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>80121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>27933</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>108140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Ellipse 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD3E740A-E927-4F6B-BDC5-49651020C43C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4799735" y="1088992"/>
+          <a:ext cx="1933019" cy="886827"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>51133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>230324</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>96852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Ellipse 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E58F25-62EA-4C06-B2E2-F68BDE46311B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667624" y="1489408"/>
+          <a:ext cx="744675" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219754</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>296395</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Ellipse 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69259080-6548-4201-851C-CB29AAA3470D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001679" y="1447240"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>329274</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10645</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>149255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Ellipse 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B09D21-D47F-4B00-A04F-190ABFE03574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5710899" y="2454087"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>289819</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>169768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69769</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>159947</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Ellipse 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7CF9BD5-9083-444A-ACAA-01FCF8E976F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5671444" y="1989043"/>
+          <a:ext cx="180000" cy="180679"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>62371</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Ellipse 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D07FF1-AF13-4F6F-9B70-24B524CB3CB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="1504950"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33796</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>124043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Ellipse 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2DF305-FE97-4532-A073-0CC1F9AD063D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5734050" y="523875"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>386221</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143093</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Ellipse 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F032819D-2D98-4BF4-877B-1ED927FEEDE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5286375" y="1495425"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>162604</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>239245</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>110005</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Ellipse 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87D00F2-75DB-418F-A4FA-289519234D64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8344579" y="1466290"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914400" cy="914400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Grafik 11" descr="Schließen mit einfarbiger Füllung">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA49F973-C10C-431E-B741-4CA888359624}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553200" y="1638300"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>284775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Ellipse 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F67B110-AF37-4D28-9527-9EEB6BFA3130}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12773025" y="6762750"/>
+          <a:ext cx="180000" cy="190026"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>294324</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>56288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>258039</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>113345</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Ellipse 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96EFDD3F-88BF-445F-8372-E9B05A1DEE7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="11362374" y="6828563"/>
+          <a:ext cx="1963965" cy="57057"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180110</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>31717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>112879</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>156544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Ellipse 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AEA57C-3F01-49A4-903E-F628CA73CA2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9247910" y="6422992"/>
+          <a:ext cx="1933019" cy="886827"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>162604</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>18490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>239245</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>100480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Ellipse 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EB88717-2CA4-444C-9318-33638750648A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12830854" y="6790765"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>366019</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>145969</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>169472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Ellipse 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0BD683-C350-4F65-AAF0-41E9C159DBDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10633969" y="6761068"/>
+          <a:ext cx="180000" cy="180679"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>90946</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>124043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Ellipse 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F027ABD5-653D-4904-9041-9D9CDAA8FE18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10677525" y="7191375"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>224296</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Ellipse 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED8118A-23CB-4646-8E1A-FCB121501F5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9210675" y="6819900"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>90946</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>143093</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Ellipse 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A740F960-3A23-4556-BCC0-FBE66161145C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10677525" y="6448425"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200704</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>277345</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>119530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Ellipse 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D926524-60A2-4868-B697-E53111F20FC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13269004" y="6809815"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>157621</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>124043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Ellipse 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA29E0C-9DD4-4A32-A7D9-918E9C5D01A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11144250" y="6810375"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914400" cy="914400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Grafik 22" descr="Häkchen mit einfarbiger Füllung">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCDC9D06-FFDA-42C1-A73F-93A35D04286D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11544300" y="6848475"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>341925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>170976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Ellipse 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF60C981-D252-4FD5-9C4F-BF8D45FA43A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12430125" y="1419225"/>
+          <a:ext cx="180000" cy="190026"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>341256</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>80121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>27933</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>108140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Ellipse 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5598FDF8-5E06-44A6-BB37-8AECE40A4CD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9286010" y="1088992"/>
+          <a:ext cx="1933019" cy="886827"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>51133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>230324</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>96852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Ellipse 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE318E8-152C-457B-A65C-856949EC22C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12153899" y="1489408"/>
+          <a:ext cx="744675" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>219754</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>296395</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Ellipse 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D4EDB9A-F36C-49F6-987D-E37411B34699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12487954" y="1447240"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>329274</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>10645</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>149255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Ellipse 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{668E11C5-AE35-4D32-A02B-B7671A725F3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10197174" y="2454087"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>289819</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>169768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>69769</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>159947</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Ellipse 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B45C4FF-E173-4C6C-B810-5A999FD9F1A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10157719" y="1989043"/>
+          <a:ext cx="180000" cy="180679"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>43321</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Ellipse 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BBB6AF1-7124-48E6-8AA4-F8807108741C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10629900" y="1800225"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>33796</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>124043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Ellipse 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD23A70A-4BBE-448A-91F8-B0AE681DF230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10220325" y="523875"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>5221</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57368</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Ellipse 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38D67C6-AB85-4D8B-BED7-C879E8823EDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9791700" y="1790700"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95929</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>172570</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Ellipse 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A99ADAF1-0C38-463D-A095-B239DD4BEE55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12764179" y="1447240"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914400" cy="914400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Grafik 33" descr="Schließen mit einfarbiger Füllung">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF3B4CB4-627C-4006-BB59-0D7AFB2E7923}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11068050" y="1057275"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11879,6 +14671,409 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB2A4CD-F821-4A7B-B9C5-50F953ABE9A7}">
+  <dimension ref="A1:W27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:W13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="J1" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="K1" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="R1" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="T1" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="U1" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="V1" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="W1" s="70" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="65">
+        <v>0.7</v>
+      </c>
+      <c r="B2" s="82">
+        <v>85</v>
+      </c>
+      <c r="C2" s="80">
+        <v>0</v>
+      </c>
+      <c r="D2" s="66">
+        <v>0</v>
+      </c>
+      <c r="E2" s="82">
+        <v>0</v>
+      </c>
+      <c r="F2" s="66"/>
+      <c r="G2" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="71">
+        <v>0</v>
+      </c>
+      <c r="M2" s="65">
+        <v>0.7</v>
+      </c>
+      <c r="N2" s="82">
+        <v>85</v>
+      </c>
+      <c r="O2" s="80">
+        <v>0</v>
+      </c>
+      <c r="P2" s="66">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="82">
+        <v>0</v>
+      </c>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="U2" s="66"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
+      <c r="K3" s="58"/>
+      <c r="M3" s="59"/>
+      <c r="W3" s="58"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
+      <c r="C4" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="K4" s="58"/>
+      <c r="M4" s="59"/>
+      <c r="O4" s="73" t="s">
+        <v>296</v>
+      </c>
+      <c r="P4" s="75"/>
+      <c r="W4" s="58"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="27"/>
+      <c r="K5" s="58"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="27"/>
+      <c r="W5" s="58"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="59"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="58"/>
+      <c r="M6" s="59"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="58"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
+      <c r="I7" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="K7" s="58"/>
+      <c r="M7" s="59"/>
+      <c r="U7" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="W7" s="58"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="58"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="18"/>
+      <c r="Q8" s="27"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="58"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="59"/>
+      <c r="J9" t="s">
+        <v>281</v>
+      </c>
+      <c r="K9" s="58"/>
+      <c r="M9" s="59"/>
+      <c r="Q9" s="27"/>
+      <c r="V9" t="s">
+        <v>298</v>
+      </c>
+      <c r="W9" s="58"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
+      <c r="K10" s="58"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q10" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="W10" s="58"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="K11" s="58"/>
+      <c r="M11" s="59"/>
+      <c r="W11" s="58"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="59"/>
+      <c r="K12" s="58"/>
+      <c r="M12" s="59"/>
+      <c r="W12" s="58"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="72" t="s">
+        <v>301</v>
+      </c>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="62"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="I15" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="J15" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="K15" s="70" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="65">
+        <v>0.7</v>
+      </c>
+      <c r="B16" s="82">
+        <v>85</v>
+      </c>
+      <c r="C16" s="80">
+        <v>0</v>
+      </c>
+      <c r="D16" s="66">
+        <v>0</v>
+      </c>
+      <c r="E16" s="82">
+        <v>0</v>
+      </c>
+      <c r="F16" s="66"/>
+      <c r="G16" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
+      <c r="K17" s="58"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="K18" s="58"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="27"/>
+      <c r="E19" t="s">
+        <v>280</v>
+      </c>
+      <c r="K19" s="58"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="59"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="58"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="59"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="11"/>
+      <c r="K21" s="90" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="J22" s="18"/>
+      <c r="K22" s="58"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="F23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J23" t="s">
+        <v>323</v>
+      </c>
+      <c r="K23" s="58"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="K24" s="58"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="59"/>
+      <c r="E25" t="s">
+        <v>281</v>
+      </c>
+      <c r="K25" s="58"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="59"/>
+      <c r="K26" s="58"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -13972,7 +17167,7 @@
         <v>137</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D6" s="31"/>
     </row>
@@ -14249,13 +17444,13 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="67"/>
       <c r="B30" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="C30" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="C30" s="67" t="s">
-        <v>276</v>
-      </c>
       <c r="D30" s="67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E30" s="57" t="s">
         <v>267</v>
@@ -14264,13 +17459,13 @@
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="C31" s="31" t="s">
-        <v>274</v>
-      </c>
       <c r="D31" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -14323,10 +17518,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="B1:AV42"/>
+  <dimension ref="B1:AV49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="AJ33" sqref="AJ33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14362,16 +17557,16 @@
         <v>114</v>
       </c>
       <c r="H2" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="K2" s="81" t="s">
         <v>278</v>
-      </c>
-      <c r="I2" s="64" t="s">
-        <v>311</v>
-      </c>
-      <c r="J2" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="K2" s="81" t="s">
-        <v>279</v>
       </c>
       <c r="L2" s="85" t="s">
         <v>148</v>
@@ -14395,16 +17590,16 @@
         <v>114</v>
       </c>
       <c r="T2" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="U2" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="V2" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="W2" s="81" t="s">
         <v>278</v>
-      </c>
-      <c r="U2" s="64" t="s">
-        <v>311</v>
-      </c>
-      <c r="V2" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="W2" s="81" t="s">
-        <v>279</v>
       </c>
       <c r="X2" s="70" t="s">
         <v>148</v>
@@ -14428,16 +17623,16 @@
         <v>114</v>
       </c>
       <c r="AF2" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG2" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH2" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="AI2" s="81" t="s">
         <v>278</v>
-      </c>
-      <c r="AG2" s="77" t="s">
-        <v>311</v>
-      </c>
-      <c r="AH2" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="AI2" s="81" t="s">
-        <v>279</v>
       </c>
       <c r="AJ2" s="70" t="s">
         <v>148</v>
@@ -14461,16 +17656,16 @@
         <v>114</v>
       </c>
       <c r="AR2" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="AS2" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="AT2" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="AU2" s="81" t="s">
         <v>278</v>
-      </c>
-      <c r="AS2" s="64" t="s">
-        <v>311</v>
-      </c>
-      <c r="AT2" s="77" t="s">
-        <v>310</v>
-      </c>
-      <c r="AU2" s="81" t="s">
-        <v>279</v>
       </c>
       <c r="AV2" s="70" t="s">
         <v>148</v>
@@ -14594,42 +17789,39 @@
       <c r="E5" s="75"/>
       <c r="L5" s="58"/>
       <c r="N5" s="59"/>
-      <c r="P5" s="73" t="s">
-        <v>286</v>
-      </c>
+      <c r="P5" s="74"/>
       <c r="Q5" s="75"/>
       <c r="X5" s="58"/>
       <c r="Z5" s="59"/>
-      <c r="AB5" s="73" t="s">
-        <v>299</v>
-      </c>
+      <c r="AB5" s="74"/>
       <c r="AC5" s="75"/>
       <c r="AJ5" s="58"/>
       <c r="AL5" s="59"/>
-      <c r="AN5" s="74" t="s">
-        <v>305</v>
-      </c>
+      <c r="AN5" s="74"/>
       <c r="AO5" s="75"/>
       <c r="AV5" s="58"/>
     </row>
     <row r="6" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B6" s="59"/>
       <c r="C6" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L6" s="58"/>
       <c r="N6" s="59"/>
       <c r="O6" s="27"/>
+      <c r="R6" t="s">
+        <v>280</v>
+      </c>
       <c r="X6" s="58"/>
       <c r="Z6" s="59"/>
       <c r="AA6" s="27"/>
+      <c r="AC6" t="s">
+        <v>299</v>
+      </c>
       <c r="AJ6" s="58"/>
       <c r="AL6" s="59"/>
-      <c r="AM6" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>307</v>
+      <c r="AM6" s="27" t="s">
+        <v>316</v>
       </c>
       <c r="AV6" s="58"/>
     </row>
@@ -14650,72 +17842,79 @@
     <row r="8" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B8" s="59"/>
       <c r="I8" s="18" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="J8" s="11"/>
       <c r="L8" s="90" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="N8" s="59"/>
-      <c r="V8" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="X8" s="58"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="11"/>
+      <c r="X8" s="90" t="s">
+        <v>324</v>
+      </c>
       <c r="Z8" s="59"/>
+      <c r="AG8" s="18"/>
       <c r="AH8" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="AJ8" s="58"/>
+        <v>330</v>
+      </c>
+      <c r="AJ8" s="90" t="s">
+        <v>327</v>
+      </c>
       <c r="AL8" s="59"/>
-      <c r="AT8" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="AV8" s="58"/>
+      <c r="AS8" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="AT8" s="11"/>
+      <c r="AV8" s="90" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B9" s="59" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="58"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="R9" s="27" t="s">
-        <v>284</v>
+      <c r="N9" s="59" t="s">
+        <v>325</v>
       </c>
       <c r="W9" s="18"/>
       <c r="X9" s="58"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="18"/>
-      <c r="AD9" s="27"/>
+      <c r="Z9" s="59" t="s">
+        <v>328</v>
+      </c>
       <c r="AI9" s="18"/>
       <c r="AJ9" s="58"/>
-      <c r="AL9" s="59"/>
+      <c r="AL9" s="59" t="s">
+        <v>319</v>
+      </c>
       <c r="AU9" s="18"/>
       <c r="AV9" s="58"/>
     </row>
     <row r="10" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B10" s="59"/>
       <c r="G10" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L10" s="58"/>
       <c r="N10" s="59"/>
+      <c r="S10" t="s">
+        <v>326</v>
+      </c>
       <c r="W10" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="X10" s="58"/>
       <c r="Z10" s="59"/>
-      <c r="AD10" s="27"/>
-      <c r="AI10" t="s">
-        <v>301</v>
+      <c r="AE10" t="s">
+        <v>329</v>
       </c>
       <c r="AJ10" s="58"/>
       <c r="AL10" s="59"/>
-      <c r="AU10" t="s">
-        <v>307</v>
+      <c r="AQ10" t="s">
+        <v>320</v>
       </c>
       <c r="AV10" s="58"/>
     </row>
@@ -14725,12 +17924,6 @@
       <c r="N11" s="59"/>
       <c r="X11" s="58"/>
       <c r="Z11" s="59"/>
-      <c r="AA11" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="AD11" s="27" t="s">
-        <v>303</v>
-      </c>
       <c r="AJ11" s="58"/>
       <c r="AL11" s="59"/>
       <c r="AV11" s="58"/>
@@ -14742,10 +17935,19 @@
       </c>
       <c r="L12" s="58"/>
       <c r="N12" s="59"/>
+      <c r="R12" t="s">
+        <v>334</v>
+      </c>
       <c r="X12" s="58"/>
       <c r="Z12" s="59"/>
+      <c r="AC12" t="s">
+        <v>298</v>
+      </c>
       <c r="AJ12" s="58"/>
       <c r="AL12" s="59"/>
+      <c r="AM12" t="s">
+        <v>302</v>
+      </c>
       <c r="AV12" s="58"/>
     </row>
     <row r="13" spans="2:48" x14ac:dyDescent="0.25">
@@ -14772,9 +17974,7 @@
       <c r="L14" s="62"/>
       <c r="N14" s="60"/>
       <c r="O14" s="61"/>
-      <c r="P14" s="72" t="s">
-        <v>285</v>
-      </c>
+      <c r="P14" s="76"/>
       <c r="Q14" s="61"/>
       <c r="R14" s="61"/>
       <c r="S14" s="61"/>
@@ -14785,9 +17985,7 @@
       <c r="X14" s="62"/>
       <c r="Z14" s="60"/>
       <c r="AA14" s="61"/>
-      <c r="AB14" s="72" t="s">
-        <v>304</v>
-      </c>
+      <c r="AB14" s="76"/>
       <c r="AC14" s="61"/>
       <c r="AD14" s="61"/>
       <c r="AE14" s="61"/>
@@ -14798,9 +17996,7 @@
       <c r="AJ14" s="62"/>
       <c r="AL14" s="60"/>
       <c r="AM14" s="61"/>
-      <c r="AN14" s="72" t="s">
-        <v>309</v>
-      </c>
+      <c r="AN14" s="76"/>
       <c r="AO14" s="61"/>
       <c r="AP14" s="61"/>
       <c r="AQ14" s="61"/>
@@ -14830,16 +18026,16 @@
         <v>114</v>
       </c>
       <c r="H16" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="I16" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="K16" s="87" t="s">
         <v>278</v>
-      </c>
-      <c r="I16" s="64" t="s">
-        <v>311</v>
-      </c>
-      <c r="J16" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="K16" s="87" t="s">
-        <v>279</v>
       </c>
       <c r="L16" s="85" t="s">
         <v>148</v>
@@ -14863,16 +18059,16 @@
         <v>114</v>
       </c>
       <c r="T16" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="U16" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="V16" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="W16" s="81" t="s">
         <v>278</v>
-      </c>
-      <c r="U16" s="64" t="s">
-        <v>311</v>
-      </c>
-      <c r="V16" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="W16" s="81" t="s">
-        <v>279</v>
       </c>
       <c r="X16" s="85" t="s">
         <v>148</v>
@@ -14896,16 +18092,16 @@
         <v>114</v>
       </c>
       <c r="AF16" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG16" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH16" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="AI16" s="81" t="s">
         <v>278</v>
-      </c>
-      <c r="AG16" s="64" t="s">
-        <v>311</v>
-      </c>
-      <c r="AH16" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="AI16" s="81" t="s">
-        <v>279</v>
       </c>
       <c r="AJ16" s="85" t="s">
         <v>148</v>
@@ -14929,16 +18125,16 @@
         <v>114</v>
       </c>
       <c r="AR16" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="AS16" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="AT16" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="AU16" s="81" t="s">
         <v>278</v>
-      </c>
-      <c r="AS16" s="64" t="s">
-        <v>311</v>
-      </c>
-      <c r="AT16" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="AU16" s="81" t="s">
-        <v>279</v>
       </c>
       <c r="AV16" s="85" t="s">
         <v>148</v>
@@ -15005,10 +18201,10 @@
         <v>0</v>
       </c>
       <c r="AC17" s="78">
-        <v>135</v>
+        <v>315</v>
       </c>
       <c r="AD17" s="88">
-        <v>135</v>
+        <v>315</v>
       </c>
       <c r="AE17" s="66"/>
       <c r="AF17" s="78" t="s">
@@ -15058,9 +18254,7 @@
     </row>
     <row r="19" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B19" s="59"/>
-      <c r="D19" s="74" t="s">
-        <v>288</v>
-      </c>
+      <c r="D19" s="74"/>
       <c r="E19" s="75"/>
       <c r="L19" s="58"/>
       <c r="N19" s="59"/>
@@ -15069,7 +18263,12 @@
       <c r="X19" s="58"/>
       <c r="Z19" s="59"/>
       <c r="AB19" s="74"/>
-      <c r="AC19" s="75"/>
+      <c r="AC19" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>336</v>
+      </c>
       <c r="AJ19" s="58"/>
       <c r="AL19" s="59"/>
       <c r="AN19" s="74"/>
@@ -15078,11 +18277,8 @@
     </row>
     <row r="20" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B20" s="59"/>
-      <c r="C20" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="F20" t="s">
-        <v>287</v>
+      <c r="C20" s="27" t="s">
+        <v>288</v>
       </c>
       <c r="L20" s="58"/>
       <c r="N20" s="59"/>
@@ -15091,7 +18287,7 @@
       <c r="Z20" s="59"/>
       <c r="AA20" s="18"/>
       <c r="AE20" s="27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AJ20" s="58"/>
       <c r="AL20" s="59"/>
@@ -15114,20 +18310,23 @@
     </row>
     <row r="22" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B22" s="59"/>
-      <c r="J22" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="L22" s="58"/>
+      <c r="I22" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="L22" s="90" t="s">
+        <v>322</v>
+      </c>
       <c r="N22" s="59"/>
       <c r="V22" s="11"/>
       <c r="X22" s="58"/>
       <c r="Z22" s="59"/>
       <c r="AF22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AH22" s="11"/>
       <c r="AI22" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="AJ22" s="58"/>
       <c r="AL22" s="59"/>
@@ -15135,13 +18334,18 @@
       <c r="AV22" s="58"/>
     </row>
     <row r="23" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B23" s="59"/>
+      <c r="B23" s="59" t="s">
+        <v>287</v>
+      </c>
       <c r="K23" s="18"/>
       <c r="L23" s="58"/>
       <c r="N23" s="59"/>
       <c r="W23" s="18"/>
       <c r="X23" s="58"/>
       <c r="Z23" s="59"/>
+      <c r="AE23" s="18" t="s">
+        <v>332</v>
+      </c>
       <c r="AI23" s="18"/>
       <c r="AJ23" s="58"/>
       <c r="AL23" s="59"/>
@@ -15150,15 +18354,15 @@
     </row>
     <row r="24" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B24" s="59"/>
-      <c r="K24" t="s">
-        <v>287</v>
+      <c r="G24" t="s">
+        <v>321</v>
       </c>
       <c r="L24" s="58"/>
       <c r="N24" s="59"/>
       <c r="X24" s="58"/>
       <c r="Z24" s="59"/>
       <c r="AJ24" s="58" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL24" s="59"/>
       <c r="AV24" s="58"/>
@@ -15170,7 +18374,7 @@
       <c r="X25" s="58"/>
       <c r="Z25" s="59"/>
       <c r="AD25" s="27" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="AJ25" s="58"/>
       <c r="AL25" s="59"/>
@@ -15178,6 +18382,9 @@
     </row>
     <row r="26" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B26" s="59"/>
+      <c r="C26" t="s">
+        <v>286</v>
+      </c>
       <c r="L26" s="58"/>
       <c r="N26" s="59"/>
       <c r="X26" s="58"/>
@@ -15192,7 +18399,7 @@
       <c r="N27" s="59"/>
       <c r="X27" s="58"/>
       <c r="Z27" s="59" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AJ27" s="58"/>
       <c r="AL27" s="59"/>
@@ -15201,9 +18408,7 @@
     <row r="28" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B28" s="60"/>
       <c r="C28" s="61"/>
-      <c r="D28" s="72" t="s">
-        <v>290</v>
-      </c>
+      <c r="D28" s="76"/>
       <c r="E28" s="61"/>
       <c r="F28" s="61"/>
       <c r="G28" s="61"/>
@@ -15248,236 +18453,109 @@
     </row>
     <row r="30" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>291</v>
-      </c>
-      <c r="N30" s="98"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="99"/>
-      <c r="S30" s="99"/>
-      <c r="T30" s="99"/>
-      <c r="U30" s="99"/>
-      <c r="V30" s="99"/>
-      <c r="W30" s="99"/>
-      <c r="X30" s="100"/>
-      <c r="Z30" s="91"/>
-      <c r="AA30" s="92"/>
-      <c r="AB30" s="93"/>
-      <c r="AC30" s="92"/>
-      <c r="AD30" s="92"/>
-      <c r="AE30" s="92"/>
-      <c r="AF30" s="92"/>
-      <c r="AG30" s="92"/>
-      <c r="AH30" s="92"/>
-      <c r="AI30" s="92"/>
-      <c r="AJ30" s="94"/>
+        <v>289</v>
+      </c>
+      <c r="N30" s="91"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="93"/>
     </row>
     <row r="31" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="N31" s="59"/>
-      <c r="O31" s="103" t="s">
-        <v>321</v>
-      </c>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="103"/>
-      <c r="S31" s="103"/>
+      <c r="O31" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
       <c r="T31" s="21"/>
       <c r="U31" s="21" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
       <c r="X31" s="58"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="96"/>
-      <c r="AB31" s="96"/>
-      <c r="AC31" s="96"/>
-      <c r="AD31" s="96"/>
-      <c r="AE31" s="96"/>
-      <c r="AF31" s="96"/>
-      <c r="AG31" s="96"/>
-      <c r="AH31" s="96"/>
-      <c r="AI31" s="96"/>
-      <c r="AJ31" s="97"/>
     </row>
     <row r="32" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N32" s="59"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="101"/>
-      <c r="S32" s="101"/>
       <c r="X32" s="58"/>
-      <c r="Z32" s="59"/>
-      <c r="AJ32" s="58"/>
-    </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="N33" s="59"/>
-      <c r="O33" s="101" t="s">
-        <v>320</v>
-      </c>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="101"/>
-      <c r="S33" s="101"/>
-      <c r="T33" s="101"/>
-      <c r="U33" s="101"/>
-      <c r="V33" s="101"/>
-      <c r="W33" s="101"/>
+      <c r="O33" t="s">
+        <v>313</v>
+      </c>
       <c r="X33" s="58"/>
-      <c r="Z33" s="59"/>
-      <c r="AB33" s="74"/>
-      <c r="AC33" s="75"/>
-      <c r="AJ33" s="58"/>
-    </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N34" s="59"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="102" t="s">
-        <v>318</v>
-      </c>
-      <c r="R34" s="101"/>
-      <c r="S34" s="101"/>
-      <c r="T34" s="101"/>
-      <c r="U34" s="101" t="s">
-        <v>317</v>
-      </c>
-      <c r="V34" s="101"/>
-      <c r="W34" s="101"/>
+      <c r="Q34" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="U34" t="s">
+        <v>310</v>
+      </c>
       <c r="X34" s="58"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="18"/>
-      <c r="AJ34" s="58"/>
-    </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N35" s="59"/>
-      <c r="O35" s="102"/>
-      <c r="P35" s="101"/>
-      <c r="Q35" s="101"/>
-      <c r="R35" s="101"/>
-      <c r="S35" s="101"/>
-      <c r="T35" s="101"/>
-      <c r="U35" s="101"/>
-      <c r="V35" s="101"/>
-      <c r="W35" s="101"/>
+      <c r="O35" s="18"/>
       <c r="X35" s="58"/>
-      <c r="Z35" s="59"/>
-      <c r="AI35" s="11"/>
-      <c r="AJ35" s="58"/>
-    </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N36" s="59"/>
-      <c r="O36" s="101"/>
-      <c r="P36" s="101"/>
-      <c r="Q36" s="101"/>
-      <c r="R36" s="101"/>
-      <c r="S36" s="101"/>
-      <c r="T36" s="101"/>
-      <c r="U36" s="101"/>
-      <c r="V36" s="101"/>
-      <c r="W36" s="101"/>
       <c r="X36" s="58"/>
-      <c r="Z36" s="59"/>
-      <c r="AH36" s="11"/>
-      <c r="AJ36" s="58"/>
-    </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N37" s="59"/>
-      <c r="O37" s="101"/>
-      <c r="P37" s="101"/>
-      <c r="Q37" s="101"/>
-      <c r="R37" s="101"/>
-      <c r="S37" s="101"/>
-      <c r="T37" s="101"/>
-      <c r="U37" s="101"/>
-      <c r="V37" s="101"/>
-      <c r="W37" s="101"/>
       <c r="X37" s="58"/>
-      <c r="Z37" s="59"/>
-      <c r="AI37" s="18"/>
-      <c r="AJ37" s="58"/>
-    </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N38" s="59"/>
-      <c r="O38" s="101"/>
-      <c r="P38" s="101"/>
-      <c r="Q38" s="101"/>
-      <c r="R38" s="101"/>
-      <c r="S38" s="101"/>
-      <c r="T38" s="101"/>
-      <c r="U38" s="101"/>
-      <c r="V38" s="101"/>
-      <c r="W38" s="101"/>
       <c r="X38" s="58"/>
-      <c r="Z38" s="59"/>
-      <c r="AJ38" s="58"/>
-    </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N39" s="59"/>
-      <c r="O39" s="101" t="s">
-        <v>319</v>
-      </c>
-      <c r="P39" s="101"/>
-      <c r="Q39" s="101"/>
-      <c r="R39" s="101"/>
-      <c r="S39" s="101"/>
-      <c r="T39" s="101"/>
-      <c r="U39" s="101"/>
-      <c r="V39" s="101"/>
-      <c r="W39" s="102" t="s">
-        <v>318</v>
+      <c r="O39" t="s">
+        <v>312</v>
+      </c>
+      <c r="W39" s="18" t="s">
+        <v>311</v>
       </c>
       <c r="X39" s="58"/>
-      <c r="Z39" s="59"/>
-      <c r="AJ39" s="58"/>
-    </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N40" s="59"/>
-      <c r="O40" s="101"/>
-      <c r="P40" s="101"/>
-      <c r="Q40" s="101"/>
-      <c r="R40" s="101"/>
-      <c r="S40" s="101"/>
-      <c r="T40" s="101"/>
-      <c r="U40" s="101" t="s">
-        <v>316</v>
-      </c>
-      <c r="V40" s="101"/>
-      <c r="W40" s="101"/>
+      <c r="U40" t="s">
+        <v>309</v>
+      </c>
       <c r="X40" s="58"/>
-      <c r="Z40" s="59"/>
-      <c r="AJ40" s="58"/>
-    </row>
-    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N41" s="59"/>
-      <c r="O41" s="101"/>
-      <c r="P41" s="101"/>
-      <c r="Q41" s="101"/>
-      <c r="R41" s="101"/>
-      <c r="S41" s="101"/>
-      <c r="T41" s="101"/>
-      <c r="U41" s="101"/>
-      <c r="V41" s="101"/>
-      <c r="W41" s="101"/>
       <c r="X41" s="58"/>
-      <c r="Z41" s="59"/>
-      <c r="AJ41" s="58"/>
-    </row>
-    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N42" s="60"/>
       <c r="O42" s="61"/>
       <c r="P42" s="61"/>
@@ -15489,17 +18567,25 @@
       <c r="V42" s="61"/>
       <c r="W42" s="61"/>
       <c r="X42" s="62"/>
-      <c r="Z42" s="60"/>
-      <c r="AA42" s="61"/>
-      <c r="AB42" s="72"/>
-      <c r="AC42" s="61"/>
-      <c r="AD42" s="61"/>
-      <c r="AE42" s="61"/>
-      <c r="AF42" s="61"/>
-      <c r="AG42" s="61"/>
-      <c r="AH42" s="61"/>
-      <c r="AI42" s="61"/>
-      <c r="AJ42" s="62"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="T48">
+        <v>-254</v>
+      </c>
+      <c r="V48">
+        <v>-104</v>
+      </c>
+      <c r="X48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="21:23" x14ac:dyDescent="0.25">
+      <c r="U49">
+        <v>140</v>
+      </c>
+      <c r="W49">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/research/Astrophysics_Personal_Glossary_Notebook.xlsx
+++ b/research/Astrophysics_Personal_Glossary_Notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Python\curvesim\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429D38E9-2BB1-4333-A93B-508ED3005387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D3AD34-BEDF-4AE4-924B-F661EC9132EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="338">
   <si>
     <t>DT</t>
   </si>
@@ -1232,9 +1232,6 @@
     <t>T=25%*P</t>
   </si>
   <si>
-    <t>T=50%*P</t>
-  </si>
-  <si>
     <t xml:space="preserve">T=75%*P  </t>
   </si>
   <si>
@@ -1370,16 +1367,22 @@
     <t xml:space="preserve">nu=90    </t>
   </si>
   <si>
-    <t xml:space="preserve"> nu=135 (eclipse)    </t>
-  </si>
-  <si>
-    <t>nu=90 (eclipse)</t>
-  </si>
-  <si>
     <t xml:space="preserve">nu=270      </t>
   </si>
   <si>
-    <t>nu = 315</t>
+    <t xml:space="preserve">         T=50%*P</t>
+  </si>
+  <si>
+    <t>nu=90 (primary eclipse)</t>
+  </si>
+  <si>
+    <t>nu=270 (secondary eclipse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nu=135 (primary eclipse)    </t>
+  </si>
+  <si>
+    <t>nu=315 (secondary eclipse)</t>
   </si>
 </sst>
 </file>
@@ -1928,7 +1931,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2127,6 +2130,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -6703,16 +6709,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>341949</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>56288</xdr:rowOff>
+      <xdr:rowOff>65719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>305664</xdr:colOff>
+      <xdr:colOff>324713</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>113345</xdr:rowOff>
+      <xdr:rowOff>111438</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6726,9 +6732,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="6923724" y="4161563"/>
-          <a:ext cx="1963965" cy="57057"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7972424" y="4170994"/>
+          <a:ext cx="934314" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7052,16 +7058,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>218210</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>31717</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>341256</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>150979</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>156544</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>27933</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>108140</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7075,7 +7081,7 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
+        <a:xfrm rot="5400000">
           <a:off x="4799735" y="3755992"/>
           <a:ext cx="1933019" cy="886827"/>
         </a:xfrm>
@@ -7118,16 +7124,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>13594</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>179293</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>299344</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>193594</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>169472</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>79294</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>150422</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7142,7 +7148,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6195319" y="4094068"/>
+          <a:off x="5680969" y="4646518"/>
           <a:ext cx="180000" cy="180679"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7186,16 +7192,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>186196</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133568</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>24271</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>143093</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7210,7 +7216,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6686550" y="4152900"/>
+          <a:off x="5724525" y="5114925"/>
           <a:ext cx="81421" cy="85943"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7887,278 +7893,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9439954" y="4742890"/>
-          <a:ext cx="76641" cy="81990"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>332400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>132876</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="Ellipse 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F567516-B124-420B-B1AC-6DF688A04D7C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16906875" y="4619625"/>
-          <a:ext cx="180000" cy="190026"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>338799</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>149037</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>20170</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>44480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="Ellipse 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E433B0F-42FF-40C3-A058-C34F8324BC28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14692974" y="4825812"/>
-          <a:ext cx="81421" cy="85943"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>299344</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>169768</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>79294</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>159947</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="Ellipse 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBC39AA0-EA0B-4B15-AA9D-76C6BF340060}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14653519" y="4656043"/>
-          <a:ext cx="180000" cy="180679"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>200704</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85165</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>277345</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>167155</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="Ellipse 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E977A87-59BD-40F7-B013-5DFBA317B6E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16955179" y="4952440"/>
           <a:ext cx="76641" cy="81990"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -8518,106 +8252,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="Grafik 101" descr="Häkchen mit einfarbiger Füllung">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CE6169A-C560-F154-F9F4-2EF5693EDE67}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3086100" y="1724025"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="Grafik 102" descr="Häkchen mit einfarbiger Füllung">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29B6B37-E7AA-4BC7-8358-EDD03C230581}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7839075" y="6010275"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>46</xdr:col>
@@ -9294,51 +8928,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="914400" cy="914400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Grafik 50" descr="Häkchen mit einfarbiger Füllung">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2638F282-8DF8-4359-92EB-5A291143121A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3086100" y="1724025"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -10015,219 +9604,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="914400" cy="914400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="99" name="Grafik 98" descr="Häkchen mit einfarbiger Füllung">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9037319A-F5B2-46FB-9413-874648D369FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3209925" y="3219450"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="Grafik 106" descr="Schließen mit einfarbiger Füllung">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8413BA3-9861-46CB-AD70-D5C6765CF1E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6981825" y="3533775"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="Grafik 107" descr="Schließen mit einfarbiger Füllung">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE231AE-DB92-46F0-8A48-7E7EA5937F5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13954125" y="3724275"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>376696</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95468</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="Ellipse 119">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92218115-F519-4DDB-8A5D-48F4374ED3F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="390525" y="1638300"/>
-          <a:ext cx="81421" cy="85943"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
@@ -10904,51 +10280,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="914400" cy="914400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="133" name="Grafik 132" descr="Häkchen mit einfarbiger Füllung">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B83C008-D3FC-4D53-A9BF-C6F4211A4B60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11544300" y="6848475"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
@@ -11625,56 +10956,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="145" name="Grafik 144" descr="Häkchen mit einfarbiger Füllung">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD069741-C122-4779-9E29-F9102B796C05}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11563350" y="5962650"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
@@ -11879,54 +11160,408 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>256200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47151</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="150" name="Grafik 149" descr="Häkchen mit einfarbiger Füllung">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Ellipse 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D89972-D5E8-4BD5-912C-7A0D09AD5E3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B6D448-6DAC-4230-B72E-1EECA6B7486B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17230725" y="3771900"/>
+          <a:ext cx="180000" cy="190026"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>294324</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>56288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>258039</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>113345</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Ellipse 2">
           <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979C8BBD-399F-4E21-8EA4-A97B750509B5}"/>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8823213">
+          <a:off x="15848649" y="4161563"/>
+          <a:ext cx="1963965" cy="57057"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>156544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Ellipse 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5AB31B-0086-4C69-BD9C-2A197736C850}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12011025" y="4133850"/>
-          <a:ext cx="914400" cy="914400"/>
+          <a:off x="14487525" y="3755992"/>
+          <a:ext cx="1019175" cy="886827"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>366019</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>145969</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>169472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Ellipse 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A5A29E-6494-49C1-A6D4-73AB7CDF8223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6147694" y="1427068"/>
+          <a:ext cx="180000" cy="180679"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>48304</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>124945</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Ellipse 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C71A6A16-9A2B-4961-B4B7-EA67A7794487}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17602879" y="3618940"/>
+          <a:ext cx="76641" cy="81990"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>386221</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>124043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Ellipse 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3785E3-035C-4E47-A5EA-7922FFE8C3BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15459075" y="4143375"/>
+          <a:ext cx="81421" cy="85943"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -14703,10 +14338,10 @@
         <v>277</v>
       </c>
       <c r="H1" s="64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I1" s="64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J1" s="81" t="s">
         <v>278</v>
@@ -14736,10 +14371,10 @@
         <v>277</v>
       </c>
       <c r="T1" s="77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U1" s="64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="V1" s="81" t="s">
         <v>278</v>
@@ -14815,7 +14450,7 @@
       <c r="K4" s="58"/>
       <c r="M4" s="59"/>
       <c r="O4" s="73" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P4" s="75"/>
       <c r="W4" s="58"/>
@@ -14844,7 +14479,7 @@
       <c r="K7" s="58"/>
       <c r="M7" s="59"/>
       <c r="U7" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="W7" s="58"/>
     </row>
@@ -14873,7 +14508,7 @@
       <c r="M9" s="59"/>
       <c r="Q9" s="27"/>
       <c r="V9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="W9" s="58"/>
     </row>
@@ -14882,10 +14517,10 @@
       <c r="K10" s="58"/>
       <c r="M10" s="59"/>
       <c r="N10" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q10" s="27" t="s">
         <v>299</v>
-      </c>
-      <c r="Q10" s="27" t="s">
-        <v>300</v>
       </c>
       <c r="W10" s="58"/>
     </row>
@@ -14918,7 +14553,7 @@
       <c r="M13" s="60"/>
       <c r="N13" s="61"/>
       <c r="O13" s="72" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P13" s="61"/>
       <c r="Q13" s="61"/>
@@ -14952,10 +14587,10 @@
         <v>277</v>
       </c>
       <c r="H15" s="64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I15" s="64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J15" s="81" t="s">
         <v>278</v>
@@ -15019,12 +14654,12 @@
       <c r="H21" s="18"/>
       <c r="I21" s="11"/>
       <c r="K21" s="90" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="59" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J22" s="18"/>
       <c r="K22" s="58"/>
@@ -15032,10 +14667,10 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="59"/>
       <c r="F23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K23" s="58"/>
     </row>
@@ -17518,10 +17153,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="B1:AV49"/>
+  <dimension ref="B1:AV42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ33" sqref="AJ33"/>
+      <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17560,10 +17195,10 @@
         <v>277</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J2" s="64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K2" s="81" t="s">
         <v>278</v>
@@ -17593,10 +17228,10 @@
         <v>277</v>
       </c>
       <c r="U2" s="64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V2" s="64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W2" s="81" t="s">
         <v>278</v>
@@ -17626,10 +17261,10 @@
         <v>277</v>
       </c>
       <c r="AG2" s="77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AH2" s="64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI2" s="81" t="s">
         <v>278</v>
@@ -17659,10 +17294,10 @@
         <v>277</v>
       </c>
       <c r="AS2" s="64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AT2" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AU2" s="81" t="s">
         <v>278</v>
@@ -17810,18 +17445,18 @@
       <c r="N6" s="59"/>
       <c r="O6" s="27"/>
       <c r="R6" t="s">
-        <v>280</v>
+        <v>335</v>
       </c>
       <c r="X6" s="58"/>
       <c r="Z6" s="59"/>
       <c r="AA6" s="27"/>
       <c r="AC6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AJ6" s="58"/>
       <c r="AL6" s="59"/>
       <c r="AM6" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AV6" s="58"/>
     </row>
@@ -17842,53 +17477,53 @@
     <row r="8" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B8" s="59"/>
       <c r="I8" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J8" s="11"/>
       <c r="L8" s="90" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N8" s="59"/>
       <c r="U8" s="18"/>
       <c r="V8" s="11"/>
       <c r="X8" s="90" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Z8" s="59"/>
       <c r="AG8" s="18"/>
       <c r="AH8" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AJ8" s="90" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AL8" s="59"/>
       <c r="AS8" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AT8" s="11"/>
       <c r="AV8" s="90" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B9" s="59" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="58"/>
       <c r="N9" s="59" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W9" s="18"/>
       <c r="X9" s="58"/>
       <c r="Z9" s="59" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AI9" s="18"/>
       <c r="AJ9" s="58"/>
       <c r="AL9" s="59" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AU9" s="18"/>
       <c r="AV9" s="58"/>
@@ -17896,25 +17531,25 @@
     <row r="10" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B10" s="59"/>
       <c r="G10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L10" s="58"/>
       <c r="N10" s="59"/>
       <c r="S10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="X10" s="58"/>
       <c r="Z10" s="59"/>
       <c r="AE10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AJ10" s="58"/>
       <c r="AL10" s="59"/>
       <c r="AQ10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AV10" s="58"/>
     </row>
@@ -17941,12 +17576,12 @@
       <c r="X12" s="58"/>
       <c r="Z12" s="59"/>
       <c r="AC12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AJ12" s="58"/>
       <c r="AL12" s="59"/>
       <c r="AM12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AV12" s="58"/>
     </row>
@@ -18029,10 +17664,10 @@
         <v>277</v>
       </c>
       <c r="I16" s="64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J16" s="64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K16" s="87" t="s">
         <v>278</v>
@@ -18062,12 +17697,12 @@
         <v>277</v>
       </c>
       <c r="U16" s="64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V16" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="W16" s="81" t="s">
+        <v>302</v>
+      </c>
+      <c r="W16" s="87" t="s">
         <v>278</v>
       </c>
       <c r="X16" s="85" t="s">
@@ -18095,10 +17730,10 @@
         <v>277</v>
       </c>
       <c r="AG16" s="64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AH16" s="64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI16" s="81" t="s">
         <v>278</v>
@@ -18128,12 +17763,12 @@
         <v>277</v>
       </c>
       <c r="AS16" s="64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AT16" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="AU16" s="81" t="s">
+        <v>302</v>
+      </c>
+      <c r="AU16" s="87" t="s">
         <v>278</v>
       </c>
       <c r="AV16" s="85" t="s">
@@ -18185,7 +17820,7 @@
       <c r="T17" s="66"/>
       <c r="U17" s="66"/>
       <c r="V17" s="66"/>
-      <c r="W17" s="82">
+      <c r="W17" s="88">
         <v>0</v>
       </c>
       <c r="X17" s="86">
@@ -18223,19 +17858,19 @@
         <v>85</v>
       </c>
       <c r="AN17" s="84">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AO17" s="66">
         <v>0</v>
       </c>
       <c r="AP17" s="88">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AQ17" s="66"/>
       <c r="AR17" s="66"/>
       <c r="AS17" s="66"/>
       <c r="AT17" s="66"/>
-      <c r="AU17" s="82">
+      <c r="AU17" s="88">
         <v>0</v>
       </c>
       <c r="AV17" s="86">
@@ -18264,10 +17899,10 @@
       <c r="Z19" s="59"/>
       <c r="AB19" s="74"/>
       <c r="AC19" s="18" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AD19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AJ19" s="58"/>
       <c r="AL19" s="59"/>
@@ -18278,7 +17913,7 @@
     <row r="20" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B20" s="59"/>
       <c r="C20" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L20" s="58"/>
       <c r="N20" s="59"/>
@@ -18287,7 +17922,7 @@
       <c r="Z20" s="59"/>
       <c r="AA20" s="18"/>
       <c r="AE20" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AJ20" s="58"/>
       <c r="AL20" s="59"/>
@@ -18315,27 +17950,28 @@
       </c>
       <c r="J22" s="11"/>
       <c r="L22" s="90" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N22" s="59"/>
       <c r="V22" s="11"/>
       <c r="X22" s="58"/>
       <c r="Z22" s="59"/>
       <c r="AF22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AH22" s="11"/>
       <c r="AI22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AJ22" s="58"/>
       <c r="AL22" s="59"/>
+      <c r="AS22" s="18"/>
       <c r="AT22" s="11"/>
-      <c r="AV22" s="58"/>
+      <c r="AV22" s="90"/>
     </row>
     <row r="23" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B23" s="59" t="s">
-        <v>287</v>
+      <c r="B23" s="94" t="s">
+        <v>333</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="58"/>
@@ -18344,7 +17980,7 @@
       <c r="X23" s="58"/>
       <c r="Z23" s="59"/>
       <c r="AE23" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AI23" s="18"/>
       <c r="AJ23" s="58"/>
@@ -18355,7 +17991,7 @@
     <row r="24" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B24" s="59"/>
       <c r="G24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L24" s="58"/>
       <c r="N24" s="59"/>
@@ -18374,7 +18010,7 @@
       <c r="X25" s="58"/>
       <c r="Z25" s="59"/>
       <c r="AD25" s="27" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AJ25" s="58"/>
       <c r="AL25" s="59"/>
@@ -18399,7 +18035,7 @@
       <c r="N27" s="59"/>
       <c r="X27" s="58"/>
       <c r="Z27" s="59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AJ27" s="58"/>
       <c r="AL27" s="59"/>
@@ -18453,7 +18089,7 @@
     </row>
     <row r="30" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N30" s="91"/>
       <c r="O30" s="92"/>
@@ -18469,11 +18105,11 @@
     </row>
     <row r="31" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N31" s="59"/>
       <c r="O31" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
@@ -18481,7 +18117,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
       <c r="U31" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
@@ -18489,31 +18125,31 @@
     </row>
     <row r="32" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N32" s="59"/>
       <c r="X32" s="58"/>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N33" s="59"/>
       <c r="O33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X33" s="58"/>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N34" s="59"/>
       <c r="Q34" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="X34" s="58"/>
     </row>
@@ -18537,17 +18173,17 @@
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N39" s="59"/>
       <c r="O39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="W39" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X39" s="58"/>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N40" s="59"/>
       <c r="U40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X40" s="58"/>
     </row>
@@ -18568,25 +18204,6 @@
       <c r="W42" s="61"/>
       <c r="X42" s="62"/>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="T48">
-        <v>-254</v>
-      </c>
-      <c r="V48">
-        <v>-104</v>
-      </c>
-      <c r="X48">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U49">
-        <v>140</v>
-      </c>
-      <c r="W49">
-        <v>124</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/research/Astrophysics_Personal_Glossary_Notebook.xlsx
+++ b/research/Astrophysics_Personal_Glossary_Notebook.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Python\curvesim\research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulsc\OneDrive - AspIT - Ondrive\Uli\Python\curvesim\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D3AD34-BEDF-4AE4-924B-F661EC9132EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79510B41-F6BD-4E6C-B6D8-FC8B6A43F0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orbital Period" sheetId="1" r:id="rId1"/>
     <sheet name="Eclipse" sheetId="3" r:id="rId2"/>
-    <sheet name="Einflüsse auf light dips" sheetId="5" r:id="rId3"/>
-    <sheet name="Bahnneigung" sheetId="4" r:id="rId4"/>
-    <sheet name="Sonnensystemorbits" sheetId="10" r:id="rId5"/>
-    <sheet name=" TIC 178155732" sheetId="6" r:id="rId6"/>
-    <sheet name="Orbit glossary" sheetId="7" r:id="rId7"/>
-    <sheet name="Kepler Parameter" sheetId="9" r:id="rId8"/>
-    <sheet name="Parameter-Interpretation" sheetId="15" r:id="rId9"/>
-    <sheet name="delete" sheetId="16" r:id="rId10"/>
-    <sheet name="Exoplanetenparameterableitung" sheetId="12" r:id="rId11"/>
+    <sheet name="Multiple eclipses" sheetId="17" r:id="rId3"/>
+    <sheet name="Einflüsse auf light dips" sheetId="5" r:id="rId4"/>
+    <sheet name="Bahnneigung" sheetId="4" r:id="rId5"/>
+    <sheet name="Sonnensystemorbits" sheetId="10" r:id="rId6"/>
+    <sheet name=" TIC 178155732" sheetId="6" r:id="rId7"/>
+    <sheet name="Orbit glossary" sheetId="7" r:id="rId8"/>
+    <sheet name="Kepler Parameter" sheetId="9" r:id="rId9"/>
+    <sheet name="Parameter-Interpretation" sheetId="15" r:id="rId10"/>
+    <sheet name="delete" sheetId="16" r:id="rId11"/>
+    <sheet name="Exoplanetenparameterableitung" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="346">
   <si>
     <t>DT</t>
   </si>
@@ -1384,6 +1385,99 @@
   <si>
     <t>nu=315 (secondary eclipse)</t>
   </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Relative eclipsed area of the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yellow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> body</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Relative eclipsed area of the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>purple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> body</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Relative eclipsed area of the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>red</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> body</t>
+    </r>
+  </si>
+  <si>
+    <t>Eclipsed y</t>
+  </si>
+  <si>
+    <t>Eclipsed p</t>
+  </si>
+  <si>
+    <t>Eclipsed r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclipsed y =    y*r  +  y*p  -  y*r*p </t>
+  </si>
 </sst>
 </file>
 
@@ -1398,7 +1492,7 @@
     <numFmt numFmtId="169" formatCode="0.000000"/>
     <numFmt numFmtId="170" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1524,6 +1618,35 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1931,7 +2054,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2133,12 +2256,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Link" xfId="3" builtinId="8"/>
-    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Procent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2232,8 +2361,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8029575" y="1628775"/>
-          <a:ext cx="4799625" cy="4761525"/>
+          <a:off x="8239125" y="1567815"/>
+          <a:ext cx="4917735" cy="4571025"/>
           <a:chOff x="7934325" y="1552575"/>
           <a:chExt cx="4761525" cy="4761525"/>
         </a:xfrm>
@@ -4791,6 +4920,276 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>135256</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Ellipse 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85B7FD9F-72DB-4587-AB08-4EB41F5ED2A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8143875" y="1447801"/>
+          <a:ext cx="7484745" cy="7193280"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="75000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>283094</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Ellipse 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E889FD29-5D37-E068-7708-680AFC1EB928}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="361952"/>
+          <a:ext cx="5721869" cy="5438774"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Gruppieren 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5877681-B61B-484B-8455-F8E4605B85C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13916025" y="285750"/>
+          <a:ext cx="5562600" cy="5581650"/>
+          <a:chOff x="7934325" y="1552575"/>
+          <a:chExt cx="4761525" cy="4761525"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Ellipse 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7332D283-9A2D-9F15-1C24-1BF4BD8F585B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7934325" y="1552575"/>
+            <a:ext cx="4752000" cy="4752000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Ellipse 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C77E78-BC86-B8A7-2E51-B83F49094F47}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7943850" y="1562100"/>
+            <a:ext cx="4752000" cy="4752000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="12700">
+            <a:prstDash val="sysDash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4884,7 +5283,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4977,7 +5376,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5914,7 +6313,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6097,7 +6496,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11567,7 +11966,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14028,16 +14427,16 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
         <v>4</v>
       </c>
@@ -14053,7 +14452,7 @@
         <v>39.478417604357432</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G10" t="s">
         <v>5</v>
       </c>
@@ -14067,7 +14466,7 @@
         <v>149597870000</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
         <v>6</v>
       </c>
@@ -14083,7 +14482,7 @@
         <v>3.3479289288137507E+33</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>12756270</v>
       </c>
@@ -14100,7 +14499,7 @@
         <v>6.6740800000000003E-11</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>6378135</v>
       </c>
@@ -14117,7 +14516,7 @@
         <v>1.9884E+30</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="G14" t="s">
         <v>10</v>
@@ -14132,7 +14531,7 @@
         <v>5.9720000000000003E+24</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="G15" t="s">
         <v>8</v>
@@ -14149,7 +14548,7 @@
         <v>1.988405972E+30</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="G16" t="s">
         <v>11</v>
@@ -14166,7 +14565,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="G17" t="s">
         <v>12</v>
@@ -14183,7 +14582,7 @@
         <v>31558746.865251575</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>50000</v>
       </c>
@@ -14205,7 +14604,7 @@
         <v>365.26327390337474</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>30</v>
       </c>
@@ -14213,7 +14612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <f>B18*B19</f>
         <v>1500000</v>
@@ -14222,7 +14621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f>B20/3600/24</f>
         <v>17.361111111111111</v>
@@ -14245,7 +14644,7 @@
         <v>939951138769.36182</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="G22" t="s">
         <v>16</v>
@@ -14262,10 +14661,10 @@
         <v>29784.171810836851</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="G24" t="s">
         <v>19</v>
@@ -14276,7 +14675,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="G25" t="s">
         <v>18</v>
@@ -14286,7 +14685,7 @@
         <v>149597869999.99948</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="G26" t="s">
         <v>20</v>
@@ -14296,7 +14695,7 @@
         <v>149597870000</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H32" s="69"/>
     </row>
   </sheetData>
@@ -14306,2873 +14705,30 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB2A4CD-F821-4A7B-B9C5-50F953ABE9A7}">
-  <dimension ref="A1:W27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:W13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="81" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>277</v>
-      </c>
-      <c r="H1" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="I1" s="64" t="s">
-        <v>302</v>
-      </c>
-      <c r="J1" s="81" t="s">
-        <v>278</v>
-      </c>
-      <c r="K1" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="M1" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="P1" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q1" s="81" t="s">
-        <v>140</v>
-      </c>
-      <c r="R1" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="S1" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="T1" s="77" t="s">
-        <v>303</v>
-      </c>
-      <c r="U1" s="64" t="s">
-        <v>302</v>
-      </c>
-      <c r="V1" s="81" t="s">
-        <v>278</v>
-      </c>
-      <c r="W1" s="70" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="65">
-        <v>0.7</v>
-      </c>
-      <c r="B2" s="82">
-        <v>85</v>
-      </c>
-      <c r="C2" s="80">
-        <v>0</v>
-      </c>
-      <c r="D2" s="66">
-        <v>0</v>
-      </c>
-      <c r="E2" s="82">
-        <v>0</v>
-      </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="71">
-        <v>0</v>
-      </c>
-      <c r="M2" s="65">
-        <v>0.7</v>
-      </c>
-      <c r="N2" s="82">
-        <v>85</v>
-      </c>
-      <c r="O2" s="80">
-        <v>0</v>
-      </c>
-      <c r="P2" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="82">
-        <v>0</v>
-      </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="U2" s="66"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="K3" s="58"/>
-      <c r="M3" s="59"/>
-      <c r="W3" s="58"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="C4" s="73" t="s">
-        <v>285</v>
-      </c>
-      <c r="D4" s="75"/>
-      <c r="K4" s="58"/>
-      <c r="M4" s="59"/>
-      <c r="O4" s="73" t="s">
-        <v>295</v>
-      </c>
-      <c r="P4" s="75"/>
-      <c r="W4" s="58"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="27"/>
-      <c r="K5" s="58"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="27"/>
-      <c r="W5" s="58"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="58"/>
-      <c r="M6" s="59"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="58"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="I7" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="K7" s="58"/>
-      <c r="M7" s="59"/>
-      <c r="U7" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="W7" s="58"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="58"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="18"/>
-      <c r="Q8" s="27"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="58"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="J9" t="s">
-        <v>281</v>
-      </c>
-      <c r="K9" s="58"/>
-      <c r="M9" s="59"/>
-      <c r="Q9" s="27"/>
-      <c r="V9" t="s">
-        <v>297</v>
-      </c>
-      <c r="W9" s="58"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="K10" s="58"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q10" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="W10" s="58"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="K11" s="58"/>
-      <c r="M11" s="59"/>
-      <c r="W11" s="58"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="K12" s="58"/>
-      <c r="M12" s="59"/>
-      <c r="W12" s="58"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="72" t="s">
-        <v>284</v>
-      </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="72" t="s">
-        <v>300</v>
-      </c>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="62"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="81" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="77" t="s">
-        <v>277</v>
-      </c>
-      <c r="H15" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="I15" s="64" t="s">
-        <v>302</v>
-      </c>
-      <c r="J15" s="81" t="s">
-        <v>278</v>
-      </c>
-      <c r="K15" s="70" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="65">
-        <v>0.7</v>
-      </c>
-      <c r="B16" s="82">
-        <v>85</v>
-      </c>
-      <c r="C16" s="80">
-        <v>0</v>
-      </c>
-      <c r="D16" s="66">
-        <v>0</v>
-      </c>
-      <c r="E16" s="82">
-        <v>0</v>
-      </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="K17" s="58"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="K18" s="58"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="27"/>
-      <c r="E19" t="s">
-        <v>280</v>
-      </c>
-      <c r="K19" s="58"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="58"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="11"/>
-      <c r="K21" s="90" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
-        <v>324</v>
-      </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="58"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="F23" t="s">
-        <v>325</v>
-      </c>
-      <c r="J23" t="s">
-        <v>322</v>
-      </c>
-      <c r="K23" s="58"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="K24" s="58"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="E25" t="s">
-        <v>281</v>
-      </c>
-      <c r="K25" s="58"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="K26" s="58"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="62"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="44.5703125" customWidth="1"/>
-    <col min="3" max="3" width="51.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:O51"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L8" s="9"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="13">
-        <f>2*B13*B14</f>
-        <v>1.8</v>
-      </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="13">
-        <f>2*ACOS(1-B15/B13)</f>
-        <v>4.9961830895930177</v>
-      </c>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="13">
-        <f>B13*B13*(B16-SIN(B16))/2</f>
-        <v>2.9780915447965088</v>
-      </c>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="15">
-        <f>B17/(PI()*B13*B13)</f>
-        <v>0.94795598066908615</v>
-      </c>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I40" s="6"/>
-    </row>
-    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="G45" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="H45" s="23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="G46" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="H46" s="23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G47" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="H47" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O49" s="18"/>
-    </row>
-    <row r="50" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O50" s="20"/>
-    </row>
-    <row r="51" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O51" s="19"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A22" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A34" r:id="rId2" location="Schnittpunkte_zweier_Kreise" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="Mitte-Rand-Verdunkelung" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A34" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="12">
-        <v>88820</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f>SQRT(B3^2+C3^2)</f>
-        <v>88820</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="B4" s="10">
-        <f>COS(A4/180*PI())*D3</f>
-        <v>85118.211063993134</v>
-      </c>
-      <c r="C4" s="10">
-        <f>SIN(A4/180*PI())*D3</f>
-        <v>25374.840792909752</v>
-      </c>
-      <c r="D4" s="10">
-        <f>SQRT(B4^2+C4^2)</f>
-        <v>88820</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="36"/>
-    <col min="3" max="3" width="31.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" s="44" t="str">
-        <f t="shared" ref="D2:D7" si="0">A2&amp;" = "&amp;B2&amp;"  # "&amp;C2</f>
-        <v>a = 0.38709893  # [au] semi-major axis</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v>e = 0.20563069  # [1] eccentricity</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v>i = 7.00487  # [deg] inclination</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D5" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v>Ω = 48.33167  # [deg] longitude of ascending node</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D6" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v>ϖ = 77.45645  # [deg] longitude of periapsis</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="D7" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>L = 252.25084  # [deg] mean longitude</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="D9" s="44" t="str">
-        <f t="shared" ref="D9:D14" si="1">A9&amp;" = "&amp;B9&amp;"  # "&amp;C9</f>
-        <v>a = 0.72333199  # [au] semi-major axis</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="D10" s="44" t="str">
-        <f t="shared" si="1"/>
-        <v>e = 0.00677323  # [1] eccentricity</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" s="44" t="str">
-        <f t="shared" si="1"/>
-        <v>i = 3.39471  # [deg] inclination</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D12" s="44" t="str">
-        <f t="shared" si="1"/>
-        <v>Ω = 76.68069  # [deg] longitude of ascending node</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D13" s="44" t="str">
-        <f t="shared" si="1"/>
-        <v>ϖ = 131.53298  # [deg] longitude of periapsis</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="D14" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>L = 181.97973  # [deg] mean longitude</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="D16" s="44" t="str">
-        <f t="shared" ref="D16:D21" si="2">A16&amp;" = "&amp;B16&amp;"  # "&amp;C16</f>
-        <v>a = 1.00000011  # [au] semi-major axis</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="D17" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>e = 0.01671022  # [1] eccentricity</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D18" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>i = 0.00005  # [deg] inclination</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D19" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>Ω = -11.26064  # [deg] longitude of ascending node</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D20" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>ϖ = 102.94719  # [deg] longitude of periapsis</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="D21" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>L = 100.46435  # [deg] mean longitude</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="D23" s="44" t="str">
-        <f t="shared" ref="D23:D28" si="3">A23&amp;" = "&amp;B23&amp;"  # "&amp;C23</f>
-        <v>a = 1.52366231  # [au] semi-major axis</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="D24" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v>e = 0.09341233  # [1] eccentricity</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D25" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v>i = 1.85061  # [deg] inclination</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D26" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v>Ω = 49.57854  # [deg] longitude of ascending node</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D27" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v>ϖ = 336.04084  # [deg] longitude of periapsis</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="D28" s="47" t="str">
-        <f t="shared" si="3"/>
-        <v>L = 355.45332  # [deg] mean longitude</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="D30" s="44" t="str">
-        <f t="shared" ref="D30:D35" si="4">A30&amp;" = "&amp;B30&amp;"  # "&amp;C30</f>
-        <v>a = 5.20336301  # [au] semi-major axis</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="D31" s="44" t="str">
-        <f t="shared" si="4"/>
-        <v>e = 0.04839266  # [1] eccentricity</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D32" s="44" t="str">
-        <f t="shared" si="4"/>
-        <v>i = 1.30530  # [deg] inclination</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D33" s="44" t="str">
-        <f t="shared" si="4"/>
-        <v>Ω = 100.55615  # [deg] longitude of ascending node</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D34" s="44" t="str">
-        <f t="shared" si="4"/>
-        <v>ϖ = 14.75385  # [deg] longitude of periapsis</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="D35" s="47" t="str">
-        <f t="shared" si="4"/>
-        <v>L = 34.40438  # [deg] mean longitude</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="D37" s="44" t="str">
-        <f t="shared" ref="D37:D42" si="5">A37&amp;" = "&amp;B37&amp;"  # "&amp;C37</f>
-        <v>a = 9.53707032  # [au] semi-major axis</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="D38" s="44" t="str">
-        <f t="shared" si="5"/>
-        <v>e = 0.05415060  # [1] eccentricity</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D39" s="44" t="str">
-        <f t="shared" si="5"/>
-        <v>i = 2.48446  # [deg] inclination</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D40" s="44" t="str">
-        <f t="shared" si="5"/>
-        <v>Ω = 113.71504  # [deg] longitude of ascending node</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="B41" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D41" s="44" t="str">
-        <f t="shared" si="5"/>
-        <v>ϖ = 92.43194  # [deg] longitude of periapsis</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="D42" s="47" t="str">
-        <f t="shared" si="5"/>
-        <v>L = 49.94432  # [deg] mean longitude</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="49"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="D44" s="44" t="str">
-        <f t="shared" ref="D44:D49" si="6">A44&amp;" = "&amp;B44&amp;"  # "&amp;C44</f>
-        <v>a = 19.19126393  # [au] semi-major axis</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="D45" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>e = 0.04716771  # [1] eccentricity</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D46" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>i = 0.76986  # [deg] inclination</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D47" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>Ω = 74.22988  # [deg] longitude of ascending node</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="B48" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D48" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>ϖ = 170.96424  # [deg] longitude of periapsis</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="C49" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="D49" s="47" t="str">
-        <f t="shared" si="6"/>
-        <v>L = 313.23218  # [deg] mean longitude</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="49"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="D51" s="44" t="str">
-        <f t="shared" ref="D51:D56" si="7">A51&amp;" = "&amp;B51&amp;"  # "&amp;C51</f>
-        <v>a = 30.06896348  # [au] semi-major axis</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="D52" s="44" t="str">
-        <f t="shared" si="7"/>
-        <v>e = 0.00858587  # [1] eccentricity</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D53" s="44" t="str">
-        <f t="shared" si="7"/>
-        <v>i = 1.76917  # [deg] inclination</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D54" s="44" t="str">
-        <f t="shared" si="7"/>
-        <v>Ω = 131.72169  # [deg] longitude of ascending node</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="B55" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D55" s="44" t="str">
-        <f t="shared" si="7"/>
-        <v>ϖ = 44.97135  # [deg] longitude of periapsis</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B56" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="C56" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="D56" s="47" t="str">
-        <f t="shared" si="7"/>
-        <v>L = 304.88003  # [deg] mean longitude</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
-      <c r="B57" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="49"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="D58" s="44" t="str">
-        <f t="shared" ref="D58:D63" si="8">A58&amp;" = "&amp;B58&amp;"  # "&amp;C58</f>
-        <v>a = 39.48168677  # [au] semi-major axis</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B59" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="D59" s="44" t="str">
-        <f t="shared" si="8"/>
-        <v>e = 0.24880766  # [1] eccentricity</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D60" s="44" t="str">
-        <f t="shared" si="8"/>
-        <v>i = 17.14175  # [deg] inclination</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D61" s="44" t="str">
-        <f t="shared" si="8"/>
-        <v>Ω = 110.30347  # [deg] longitude of ascending node</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="B62" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D62" s="44" t="str">
-        <f t="shared" si="8"/>
-        <v>ϖ = 224.06676  # [deg] longitude of periapsis</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B63" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="C63" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="D63" s="47" t="str">
-        <f t="shared" si="8"/>
-        <v>L = 238.92881  # [deg] mean longitude</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:R24"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="E2" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="N3" s="21"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="N4" s="21"/>
-      <c r="R4" s="25"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="N5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="21">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="F6">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="G6">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="N6" s="21"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="54"/>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="21">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="F7">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G7">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="N7" s="21"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="H8" s="21">
-        <v>3.5859899999999998</v>
-      </c>
-      <c r="I8">
-        <v>1.4999999999999999E-4</v>
-      </c>
-      <c r="J8">
-        <v>1.4999999999999999E-4</v>
-      </c>
-      <c r="K8" s="21">
-        <v>5.9729299999999999</v>
-      </c>
-      <c r="L8">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="M8">
-        <v>5.2999999999999998E-4</v>
-      </c>
-      <c r="N8" s="21">
-        <v>11.23</v>
-      </c>
-      <c r="O8">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="P8">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="H9" s="21">
-        <v>2.085</v>
-      </c>
-      <c r="I9">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="J9">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="K9" s="21">
-        <v>1.9390000000000001</v>
-      </c>
-      <c r="L9">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="M9">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="N9" s="21">
-        <v>2.1640000000000001</v>
-      </c>
-      <c r="O9">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="P9">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>264</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="H10" s="21">
-        <v>2458409.1896899999</v>
-      </c>
-      <c r="I10">
-        <v>8.4000000000000003E-4</v>
-      </c>
-      <c r="J10">
-        <v>8.3000000000000001E-4</v>
-      </c>
-      <c r="K10" s="21">
-        <v>2458415.6343999999</v>
-      </c>
-      <c r="L10">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="M10">
-        <v>1.4E-3</v>
-      </c>
-      <c r="N10" s="21">
-        <v>2458409.7327999999</v>
-      </c>
-      <c r="O10">
-        <v>2E-3</v>
-      </c>
-      <c r="P10">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" s="21">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="I11">
-        <v>1E-3</v>
-      </c>
-      <c r="J11">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="K11" s="21">
-        <v>6.7400000000000002E-2</v>
-      </c>
-      <c r="L11">
-        <v>1.4E-3</v>
-      </c>
-      <c r="M11">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="N11" s="21">
-        <v>0.1027</v>
-      </c>
-      <c r="O11">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="P11">
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="21">
-        <v>85.5</v>
-      </c>
-      <c r="I12">
-        <v>1.5</v>
-      </c>
-      <c r="J12">
-        <v>0.5</v>
-      </c>
-      <c r="K12" s="21">
-        <v>86.23</v>
-      </c>
-      <c r="L12">
-        <v>0.26</v>
-      </c>
-      <c r="M12">
-        <v>0.26</v>
-      </c>
-      <c r="N12" s="21">
-        <v>87.43</v>
-      </c>
-      <c r="O12">
-        <v>0.18</v>
-      </c>
-      <c r="P12">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="56">
-        <v>1</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="H14" s="21">
-        <v>1572</v>
-      </c>
-      <c r="I14">
-        <v>22</v>
-      </c>
-      <c r="J14">
-        <v>19</v>
-      </c>
-      <c r="K14" s="21">
-        <v>1326</v>
-      </c>
-      <c r="L14">
-        <v>18</v>
-      </c>
-      <c r="M14">
-        <v>16</v>
-      </c>
-      <c r="N14" s="21">
-        <v>1075</v>
-      </c>
-      <c r="O14">
-        <v>15</v>
-      </c>
-      <c r="P14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="H15" s="21">
-        <v>1.46E-2</v>
-      </c>
-      <c r="I15">
-        <v>3.5E-4</v>
-      </c>
-      <c r="J15">
-        <v>3.5E-4</v>
-      </c>
-      <c r="K15" s="21">
-        <v>1.358E-2</v>
-      </c>
-      <c r="L15">
-        <v>3.8000000000000002E-4</v>
-      </c>
-      <c r="M15">
-        <v>3.8999999999999999E-4</v>
-      </c>
-      <c r="N15" s="21">
-        <v>1.5140000000000001E-2</v>
-      </c>
-      <c r="O15">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="P15">
-        <v>4.8999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="H16" s="21">
-        <v>7.87</v>
-      </c>
-      <c r="I16">
-        <v>0.23</v>
-      </c>
-      <c r="J16">
-        <v>0.24</v>
-      </c>
-      <c r="K16" s="21">
-        <v>11.06</v>
-      </c>
-      <c r="L16">
-        <v>0.32</v>
-      </c>
-      <c r="M16">
-        <v>0.34</v>
-      </c>
-      <c r="N16" s="21">
-        <v>16.850000000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.49</v>
-      </c>
-      <c r="P16">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="H17" s="21">
-        <v>7.29</v>
-      </c>
-      <c r="I17">
-        <v>0.83</v>
-      </c>
-      <c r="J17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K17" s="21">
-        <v>10.88</v>
-      </c>
-      <c r="L17">
-        <v>0.64</v>
-      </c>
-      <c r="M17">
-        <v>0.81</v>
-      </c>
-      <c r="N17" s="21">
-        <v>15.9</v>
-      </c>
-      <c r="O17">
-        <v>1.8</v>
-      </c>
-      <c r="P17">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="H18" s="21">
-        <v>2.13E-4</v>
-      </c>
-      <c r="I18">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="J18">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K18" s="21">
-        <v>1.84E-4</v>
-      </c>
-      <c r="L18">
-        <v>1.1E-5</v>
-      </c>
-      <c r="M18">
-        <v>1.1E-5</v>
-      </c>
-      <c r="N18" s="21">
-        <v>2.2900000000000001E-4</v>
-      </c>
-      <c r="O18">
-        <v>1.5E-5</v>
-      </c>
-      <c r="P18">
-        <v>1.5E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="H19" s="21">
-        <v>0.1129</v>
-      </c>
-      <c r="I19">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="J19">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="K19" s="21">
-        <v>0.12089999999999999</v>
-      </c>
-      <c r="L19">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="M19">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="N19" s="21">
-        <v>0.1431</v>
-      </c>
-      <c r="O19">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="P19">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="21">
-        <v>0.59</v>
-      </c>
-      <c r="I20">
-        <v>0.1</v>
-      </c>
-      <c r="J20">
-        <v>0.27</v>
-      </c>
-      <c r="K20" s="21">
-        <v>0.72</v>
-      </c>
-      <c r="L20">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="M20">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="N20" s="21">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="O20">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="P20">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="21">
-        <v>1.347</v>
-      </c>
-      <c r="I21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="J21">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="K21" s="21">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="L21">
-        <v>0.04</v>
-      </c>
-      <c r="M21">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="N21" s="21">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="O21">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="P21">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D24" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="D20" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="D13" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="D11" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="D12" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="D23" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="D24" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId10"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:K38"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" customWidth="1"/>
-    <col min="4" max="4" width="53.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="K1">
-        <f>0.043333</f>
-        <v>4.3333000000000003E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K2">
-        <f>K1*180/PI()</f>
-        <v>2.4827980136403962</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="31"/>
-    </row>
-    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="31" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="31"/>
-    </row>
-    <row r="13" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-    </row>
-    <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="D21" s="31"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="D22" s="31"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="D23" s="31"/>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="D24" s="31"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="67" t="s">
-        <v>274</v>
-      </c>
-      <c r="C30" s="67" t="s">
-        <v>275</v>
-      </c>
-      <c r="D30" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="E30" s="57" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
-        <v>227</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D29" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="A38" r:id="rId2" location="Alternative_parametrizations" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAECBCED-83AE-4F4D-A925-5C28E22DAD62}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="B1:AV42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" customWidth="1"/>
     <col min="2" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="1.28515625" customWidth="1"/>
+    <col min="13" max="13" width="1.33203125" customWidth="1"/>
     <col min="14" max="24" width="6" customWidth="1"/>
-    <col min="25" max="25" width="1.28515625" customWidth="1"/>
+    <col min="25" max="25" width="1.33203125" customWidth="1"/>
     <col min="26" max="36" width="6" customWidth="1"/>
-    <col min="37" max="37" width="1.28515625" customWidth="1"/>
+    <col min="37" max="37" width="1.33203125" customWidth="1"/>
     <col min="38" max="48" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:48" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:48" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B2" s="63" t="s">
         <v>45</v>
       </c>
@@ -17306,7 +14862,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B3" s="65">
         <v>0.7</v>
       </c>
@@ -17408,7 +14964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B4" s="59"/>
       <c r="L4" s="58"/>
       <c r="N4" s="59"/>
@@ -17418,7 +14974,7 @@
       <c r="AL4" s="59"/>
       <c r="AV4" s="58"/>
     </row>
-    <row r="5" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B5" s="59"/>
       <c r="D5" s="74"/>
       <c r="E5" s="75"/>
@@ -17436,7 +14992,7 @@
       <c r="AO5" s="75"/>
       <c r="AV5" s="58"/>
     </row>
-    <row r="6" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B6" s="59"/>
       <c r="C6" s="27" t="s">
         <v>279</v>
@@ -17460,7 +15016,7 @@
       </c>
       <c r="AV6" s="58"/>
     </row>
-    <row r="7" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B7" s="59"/>
       <c r="K7" s="11"/>
       <c r="L7" s="58"/>
@@ -17474,7 +15030,7 @@
       <c r="AU7" s="11"/>
       <c r="AV7" s="58"/>
     </row>
-    <row r="8" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B8" s="59"/>
       <c r="I8" s="18" t="s">
         <v>307</v>
@@ -17506,7 +15062,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B9" s="59" t="s">
         <v>305</v>
       </c>
@@ -17528,7 +15084,7 @@
       <c r="AU9" s="18"/>
       <c r="AV9" s="58"/>
     </row>
-    <row r="10" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B10" s="59"/>
       <c r="G10" t="s">
         <v>306</v>
@@ -17553,7 +15109,7 @@
       </c>
       <c r="AV10" s="58"/>
     </row>
-    <row r="11" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B11" s="59"/>
       <c r="L11" s="58"/>
       <c r="N11" s="59"/>
@@ -17563,7 +15119,7 @@
       <c r="AL11" s="59"/>
       <c r="AV11" s="58"/>
     </row>
-    <row r="12" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B12" s="59"/>
       <c r="C12" t="s">
         <v>269</v>
@@ -17585,7 +15141,7 @@
       </c>
       <c r="AV12" s="58"/>
     </row>
-    <row r="13" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B13" s="59"/>
       <c r="L13" s="58"/>
       <c r="N13" s="59"/>
@@ -17595,7 +15151,7 @@
       <c r="AL13" s="59"/>
       <c r="AV13" s="58"/>
     </row>
-    <row r="14" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B14" s="60"/>
       <c r="C14" s="61"/>
       <c r="D14" s="76"/>
@@ -17641,7 +15197,7 @@
       <c r="AU14" s="61"/>
       <c r="AV14" s="62"/>
     </row>
-    <row r="16" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B16" s="63" t="s">
         <v>45</v>
       </c>
@@ -17775,7 +15331,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B17" s="65">
         <v>0.7</v>
       </c>
@@ -17877,7 +15433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B18" s="59"/>
       <c r="L18" s="58"/>
       <c r="N18" s="59"/>
@@ -17887,7 +15443,7 @@
       <c r="AL18" s="59"/>
       <c r="AV18" s="58"/>
     </row>
-    <row r="19" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B19" s="59"/>
       <c r="D19" s="74"/>
       <c r="E19" s="75"/>
@@ -17910,7 +15466,7 @@
       <c r="AO19" s="75"/>
       <c r="AV19" s="58"/>
     </row>
-    <row r="20" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B20" s="59"/>
       <c r="C20" s="27" t="s">
         <v>287</v>
@@ -17929,7 +15485,7 @@
       <c r="AM20" s="27"/>
       <c r="AV20" s="58"/>
     </row>
-    <row r="21" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B21" s="59"/>
       <c r="K21" s="11"/>
       <c r="L21" s="58"/>
@@ -17943,7 +15499,7 @@
       <c r="AU21" s="11"/>
       <c r="AV21" s="58"/>
     </row>
-    <row r="22" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B22" s="59"/>
       <c r="I22" s="18" t="s">
         <v>286</v>
@@ -17969,7 +15525,7 @@
       <c r="AT22" s="11"/>
       <c r="AV22" s="90"/>
     </row>
-    <row r="23" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B23" s="94" t="s">
         <v>333</v>
       </c>
@@ -17988,7 +15544,7 @@
       <c r="AU23" s="18"/>
       <c r="AV23" s="58"/>
     </row>
-    <row r="24" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B24" s="59"/>
       <c r="G24" t="s">
         <v>320</v>
@@ -18003,7 +15559,7 @@
       <c r="AL24" s="59"/>
       <c r="AV24" s="58"/>
     </row>
-    <row r="25" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B25" s="59"/>
       <c r="L25" s="58"/>
       <c r="N25" s="59"/>
@@ -18016,7 +15572,7 @@
       <c r="AL25" s="59"/>
       <c r="AV25" s="58"/>
     </row>
-    <row r="26" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B26" s="59"/>
       <c r="C26" t="s">
         <v>286</v>
@@ -18029,7 +15585,7 @@
       <c r="AL26" s="59"/>
       <c r="AV26" s="58"/>
     </row>
-    <row r="27" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B27" s="59"/>
       <c r="L27" s="58"/>
       <c r="N27" s="59"/>
@@ -18041,7 +15597,7 @@
       <c r="AL27" s="59"/>
       <c r="AV27" s="58"/>
     </row>
-    <row r="28" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B28" s="60"/>
       <c r="C28" s="61"/>
       <c r="D28" s="76"/>
@@ -18087,7 +15643,7 @@
       <c r="AU28" s="61"/>
       <c r="AV28" s="62"/>
     </row>
-    <row r="30" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>288</v>
       </c>
@@ -18103,7 +15659,7 @@
       <c r="W30" s="92"/>
       <c r="X30" s="93"/>
     </row>
-    <row r="31" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>292</v>
       </c>
@@ -18123,14 +15679,14 @@
       <c r="W31" s="21"/>
       <c r="X31" s="58"/>
     </row>
-    <row r="32" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>293</v>
       </c>
       <c r="N32" s="59"/>
       <c r="X32" s="58"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>294</v>
       </c>
@@ -18140,7 +15696,7 @@
       </c>
       <c r="X33" s="58"/>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>289</v>
       </c>
@@ -18153,24 +15709,24 @@
       </c>
       <c r="X34" s="58"/>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
       <c r="N35" s="59"/>
       <c r="O35" s="18"/>
       <c r="X35" s="58"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
       <c r="N36" s="59"/>
       <c r="X36" s="58"/>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
       <c r="N37" s="59"/>
       <c r="X37" s="58"/>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
       <c r="N38" s="59"/>
       <c r="X38" s="58"/>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
       <c r="N39" s="59"/>
       <c r="O39" t="s">
         <v>311</v>
@@ -18180,18 +15736,18 @@
       </c>
       <c r="X39" s="58"/>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
       <c r="N40" s="59"/>
       <c r="U40" t="s">
         <v>308</v>
       </c>
       <c r="X40" s="58"/>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
       <c r="N41" s="59"/>
       <c r="X41" s="58"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
       <c r="N42" s="60"/>
       <c r="O42" s="61"/>
       <c r="P42" s="61"/>
@@ -18208,4 +15764,2971 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB2A4CD-F821-4A7B-B9C5-50F953ABE9A7}">
+  <dimension ref="A1:W27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:W13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="J1" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="K1" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="R1" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="T1" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="U1" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="V1" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="W1" s="70" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="65">
+        <v>0.7</v>
+      </c>
+      <c r="B2" s="82">
+        <v>85</v>
+      </c>
+      <c r="C2" s="80">
+        <v>0</v>
+      </c>
+      <c r="D2" s="66">
+        <v>0</v>
+      </c>
+      <c r="E2" s="82">
+        <v>0</v>
+      </c>
+      <c r="F2" s="66"/>
+      <c r="G2" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="71">
+        <v>0</v>
+      </c>
+      <c r="M2" s="65">
+        <v>0.7</v>
+      </c>
+      <c r="N2" s="82">
+        <v>85</v>
+      </c>
+      <c r="O2" s="80">
+        <v>0</v>
+      </c>
+      <c r="P2" s="66">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="82">
+        <v>0</v>
+      </c>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="U2" s="66"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="59"/>
+      <c r="K3" s="58"/>
+      <c r="M3" s="59"/>
+      <c r="W3" s="58"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="59"/>
+      <c r="C4" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="K4" s="58"/>
+      <c r="M4" s="59"/>
+      <c r="O4" s="73" t="s">
+        <v>295</v>
+      </c>
+      <c r="P4" s="75"/>
+      <c r="W4" s="58"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="59"/>
+      <c r="B5" s="27"/>
+      <c r="K5" s="58"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="27"/>
+      <c r="W5" s="58"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="59"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="58"/>
+      <c r="M6" s="59"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="58"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="59"/>
+      <c r="I7" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="K7" s="58"/>
+      <c r="M7" s="59"/>
+      <c r="U7" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="W7" s="58"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="59"/>
+      <c r="B8" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="58"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="18"/>
+      <c r="Q8" s="27"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="58"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="59"/>
+      <c r="J9" t="s">
+        <v>281</v>
+      </c>
+      <c r="K9" s="58"/>
+      <c r="M9" s="59"/>
+      <c r="Q9" s="27"/>
+      <c r="V9" t="s">
+        <v>297</v>
+      </c>
+      <c r="W9" s="58"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="59"/>
+      <c r="K10" s="58"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q10" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="W10" s="58"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="59"/>
+      <c r="K11" s="58"/>
+      <c r="M11" s="59"/>
+      <c r="W11" s="58"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="59"/>
+      <c r="K12" s="58"/>
+      <c r="M12" s="59"/>
+      <c r="W12" s="58"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="60"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="72" t="s">
+        <v>300</v>
+      </c>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="62"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="I15" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="J15" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="K15" s="70" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="65">
+        <v>0.7</v>
+      </c>
+      <c r="B16" s="82">
+        <v>85</v>
+      </c>
+      <c r="C16" s="80">
+        <v>0</v>
+      </c>
+      <c r="D16" s="66">
+        <v>0</v>
+      </c>
+      <c r="E16" s="82">
+        <v>0</v>
+      </c>
+      <c r="F16" s="66"/>
+      <c r="G16" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="59"/>
+      <c r="K17" s="58"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="59"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="K18" s="58"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="59"/>
+      <c r="B19" s="27"/>
+      <c r="E19" t="s">
+        <v>280</v>
+      </c>
+      <c r="K19" s="58"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="59"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="58"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="59"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="11"/>
+      <c r="K21" s="90" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="J22" s="18"/>
+      <c r="K22" s="58"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="59"/>
+      <c r="F23" t="s">
+        <v>325</v>
+      </c>
+      <c r="J23" t="s">
+        <v>322</v>
+      </c>
+      <c r="K23" s="58"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="59"/>
+      <c r="K24" s="58"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
+      <c r="E25" t="s">
+        <v>281</v>
+      </c>
+      <c r="K25" s="58"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="59"/>
+      <c r="K26" s="58"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="60"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="44.5546875" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:O51"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L8" s="9"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="13">
+        <f>2*B13*B14</f>
+        <v>1.8</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="13">
+        <f>2*ACOS(1-B15/B13)</f>
+        <v>4.9961830895930177</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="13">
+        <f>B13*B13*(B16-SIN(B16))/2</f>
+        <v>2.9780915447965088</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="15">
+        <f>B17/(PI()*B13*B13)</f>
+        <v>0.94795598066908615</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I40" s="6"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="G45" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="G46" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G47" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O49" s="18"/>
+    </row>
+    <row r="50" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O50" s="20"/>
+    </row>
+    <row r="51" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O51" s="19"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A22" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A34" r:id="rId2" location="Schnittpunkte_zweier_Kreise" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EACE58-CF7A-4AFD-9322-265D9901C988}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="95"/>
+      <c r="B3" s="95" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="95" t="s">
+        <v>339</v>
+      </c>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="95"/>
+      <c r="B4" s="95" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+    </row>
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="95"/>
+      <c r="B5" s="95" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="97" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="95" t="s">
+        <v>341</v>
+      </c>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+    </row>
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A6" s="95"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+    </row>
+    <row r="7" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A7" s="95"/>
+      <c r="B7" s="98" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+    </row>
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+    </row>
+    <row r="9" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B9" s="96"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="Mitte-Rand-Verdunkelung" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A34" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12">
+        <v>88820</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>SQRT(B3^2+C3^2)</f>
+        <v>88820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="B4" s="10">
+        <f>COS(A4/180*PI())*D3</f>
+        <v>85118.211063993134</v>
+      </c>
+      <c r="C4" s="10">
+        <f>SIN(A4/180*PI())*D3</f>
+        <v>25374.840792909752</v>
+      </c>
+      <c r="D4" s="10">
+        <f>SQRT(B4^2+C4^2)</f>
+        <v>88820</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="36"/>
+    <col min="3" max="3" width="31.88671875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
+      <c r="B1" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="44" t="str">
+        <f t="shared" ref="D2:D7" si="0">A2&amp;" = "&amp;B2&amp;"  # "&amp;C2</f>
+        <v>a = 0.38709893  # [au] semi-major axis</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>e = 0.20563069  # [1] eccentricity</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>i = 7.00487  # [deg] inclination</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Ω = 48.33167  # [deg] longitude of ascending node</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>ϖ = 77.45645  # [deg] longitude of periapsis</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>L = 252.25084  # [deg] mean longitude</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="42"/>
+      <c r="B8" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="44" t="str">
+        <f t="shared" ref="D9:D14" si="1">A9&amp;" = "&amp;B9&amp;"  # "&amp;C9</f>
+        <v>a = 0.72333199  # [au] semi-major axis</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>e = 0.00677323  # [1] eccentricity</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>i = 3.39471  # [deg] inclination</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>Ω = 76.68069  # [deg] longitude of ascending node</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>ϖ = 131.53298  # [deg] longitude of periapsis</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>L = 181.97973  # [deg] mean longitude</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
+      <c r="B15" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="44" t="str">
+        <f t="shared" ref="D16:D21" si="2">A16&amp;" = "&amp;B16&amp;"  # "&amp;C16</f>
+        <v>a = 1.00000011  # [au] semi-major axis</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>e = 0.01671022  # [1] eccentricity</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>i = 0.00005  # [deg] inclination</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D19" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>Ω = -11.26064  # [deg] longitude of ascending node</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>ϖ = 102.94719  # [deg] longitude of periapsis</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>L = 100.46435  # [deg] mean longitude</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="42"/>
+      <c r="B22" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="D23" s="44" t="str">
+        <f t="shared" ref="D23:D28" si="3">A23&amp;" = "&amp;B23&amp;"  # "&amp;C23</f>
+        <v>a = 1.52366231  # [au] semi-major axis</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D24" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>e = 0.09341233  # [1] eccentricity</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D25" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>i = 1.85061  # [deg] inclination</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D26" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>Ω = 49.57854  # [deg] longitude of ascending node</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>ϖ = 336.04084  # [deg] longitude of periapsis</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>L = 355.45332  # [deg] mean longitude</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="42"/>
+      <c r="B29" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" s="44" t="str">
+        <f t="shared" ref="D30:D35" si="4">A30&amp;" = "&amp;B30&amp;"  # "&amp;C30</f>
+        <v>a = 5.20336301  # [au] semi-major axis</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D31" s="44" t="str">
+        <f t="shared" si="4"/>
+        <v>e = 0.04839266  # [1] eccentricity</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D32" s="44" t="str">
+        <f t="shared" si="4"/>
+        <v>i = 1.30530  # [deg] inclination</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" s="44" t="str">
+        <f t="shared" si="4"/>
+        <v>Ω = 100.55615  # [deg] longitude of ascending node</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D34" s="44" t="str">
+        <f t="shared" si="4"/>
+        <v>ϖ = 14.75385  # [deg] longitude of periapsis</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D35" s="47" t="str">
+        <f t="shared" si="4"/>
+        <v>L = 34.40438  # [deg] mean longitude</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
+      <c r="B36" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="D37" s="44" t="str">
+        <f t="shared" ref="D37:D42" si="5">A37&amp;" = "&amp;B37&amp;"  # "&amp;C37</f>
+        <v>a = 9.53707032  # [au] semi-major axis</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D38" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>e = 0.05415060  # [1] eccentricity</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>i = 2.48446  # [deg] inclination</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Ω = 113.71504  # [deg] longitude of ascending node</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D41" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>ϖ = 92.43194  # [deg] longitude of periapsis</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D42" s="47" t="str">
+        <f t="shared" si="5"/>
+        <v>L = 49.94432  # [deg] mean longitude</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="42"/>
+      <c r="B43" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="D44" s="44" t="str">
+        <f t="shared" ref="D44:D49" si="6">A44&amp;" = "&amp;B44&amp;"  # "&amp;C44</f>
+        <v>a = 19.19126393  # [au] semi-major axis</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D45" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>e = 0.04716771  # [1] eccentricity</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D46" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>i = 0.76986  # [deg] inclination</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D47" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Ω = 74.22988  # [deg] longitude of ascending node</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D48" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>ϖ = 170.96424  # [deg] longitude of periapsis</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D49" s="47" t="str">
+        <f t="shared" si="6"/>
+        <v>L = 313.23218  # [deg] mean longitude</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="42"/>
+      <c r="B50" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="48"/>
+      <c r="D50" s="49"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="D51" s="44" t="str">
+        <f t="shared" ref="D51:D56" si="7">A51&amp;" = "&amp;B51&amp;"  # "&amp;C51</f>
+        <v>a = 30.06896348  # [au] semi-major axis</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D52" s="44" t="str">
+        <f t="shared" si="7"/>
+        <v>e = 0.00858587  # [1] eccentricity</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D53" s="44" t="str">
+        <f t="shared" si="7"/>
+        <v>i = 1.76917  # [deg] inclination</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D54" s="44" t="str">
+        <f t="shared" si="7"/>
+        <v>Ω = 131.72169  # [deg] longitude of ascending node</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D55" s="44" t="str">
+        <f t="shared" si="7"/>
+        <v>ϖ = 44.97135  # [deg] longitude of periapsis</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D56" s="47" t="str">
+        <f t="shared" si="7"/>
+        <v>L = 304.88003  # [deg] mean longitude</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="42"/>
+      <c r="B57" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="48"/>
+      <c r="D57" s="49"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="D58" s="44" t="str">
+        <f t="shared" ref="D58:D63" si="8">A58&amp;" = "&amp;B58&amp;"  # "&amp;C58</f>
+        <v>a = 39.48168677  # [au] semi-major axis</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D59" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>e = 0.24880766  # [1] eccentricity</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D60" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>i = 17.14175  # [deg] inclination</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D61" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>Ω = 110.30347  # [deg] longitude of ascending node</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D62" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>ϖ = 224.06676  # [deg] longitude of periapsis</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D63" s="47" t="str">
+        <f t="shared" si="8"/>
+        <v>L = 238.92881  # [deg] mean longitude</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:R24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="E2" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="N3" s="21"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="N4" s="21"/>
+      <c r="R4" s="25"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="N5" s="21"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="N6" s="21"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="N7" s="21"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="H8" s="21">
+        <v>3.5859899999999998</v>
+      </c>
+      <c r="I8">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="J8">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="K8" s="21">
+        <v>5.9729299999999999</v>
+      </c>
+      <c r="L8">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="M8">
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="N8" s="21">
+        <v>11.23</v>
+      </c>
+      <c r="O8">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="P8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="H9" s="21">
+        <v>2.085</v>
+      </c>
+      <c r="I9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K9" s="21">
+        <v>1.9390000000000001</v>
+      </c>
+      <c r="L9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="M9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="N9" s="21">
+        <v>2.1640000000000001</v>
+      </c>
+      <c r="O9">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="P9">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="H10" s="21">
+        <v>2458409.1896899999</v>
+      </c>
+      <c r="I10">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="J10">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="K10" s="21">
+        <v>2458415.6343999999</v>
+      </c>
+      <c r="L10">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="M10">
+        <v>1.4E-3</v>
+      </c>
+      <c r="N10" s="21">
+        <v>2458409.7327999999</v>
+      </c>
+      <c r="O10">
+        <v>2E-3</v>
+      </c>
+      <c r="P10">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="21">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I11">
+        <v>1E-3</v>
+      </c>
+      <c r="J11">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="K11" s="21">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="L11">
+        <v>1.4E-3</v>
+      </c>
+      <c r="M11">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="N11" s="21">
+        <v>0.1027</v>
+      </c>
+      <c r="O11">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="P11">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="21">
+        <v>85.5</v>
+      </c>
+      <c r="I12">
+        <v>1.5</v>
+      </c>
+      <c r="J12">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="21">
+        <v>86.23</v>
+      </c>
+      <c r="L12">
+        <v>0.26</v>
+      </c>
+      <c r="M12">
+        <v>0.26</v>
+      </c>
+      <c r="N12" s="21">
+        <v>87.43</v>
+      </c>
+      <c r="O12">
+        <v>0.18</v>
+      </c>
+      <c r="P12">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="56">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="H14" s="21">
+        <v>1572</v>
+      </c>
+      <c r="I14">
+        <v>22</v>
+      </c>
+      <c r="J14">
+        <v>19</v>
+      </c>
+      <c r="K14" s="21">
+        <v>1326</v>
+      </c>
+      <c r="L14">
+        <v>18</v>
+      </c>
+      <c r="M14">
+        <v>16</v>
+      </c>
+      <c r="N14" s="21">
+        <v>1075</v>
+      </c>
+      <c r="O14">
+        <v>15</v>
+      </c>
+      <c r="P14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="H15" s="21">
+        <v>1.46E-2</v>
+      </c>
+      <c r="I15">
+        <v>3.5E-4</v>
+      </c>
+      <c r="J15">
+        <v>3.5E-4</v>
+      </c>
+      <c r="K15" s="21">
+        <v>1.358E-2</v>
+      </c>
+      <c r="L15">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="M15">
+        <v>3.8999999999999999E-4</v>
+      </c>
+      <c r="N15" s="21">
+        <v>1.5140000000000001E-2</v>
+      </c>
+      <c r="O15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="P15">
+        <v>4.8999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="H16" s="21">
+        <v>7.87</v>
+      </c>
+      <c r="I16">
+        <v>0.23</v>
+      </c>
+      <c r="J16">
+        <v>0.24</v>
+      </c>
+      <c r="K16" s="21">
+        <v>11.06</v>
+      </c>
+      <c r="L16">
+        <v>0.32</v>
+      </c>
+      <c r="M16">
+        <v>0.34</v>
+      </c>
+      <c r="N16" s="21">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.49</v>
+      </c>
+      <c r="P16">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="H17" s="21">
+        <v>7.29</v>
+      </c>
+      <c r="I17">
+        <v>0.83</v>
+      </c>
+      <c r="J17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K17" s="21">
+        <v>10.88</v>
+      </c>
+      <c r="L17">
+        <v>0.64</v>
+      </c>
+      <c r="M17">
+        <v>0.81</v>
+      </c>
+      <c r="N17" s="21">
+        <v>15.9</v>
+      </c>
+      <c r="O17">
+        <v>1.8</v>
+      </c>
+      <c r="P17">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="H18" s="21">
+        <v>2.13E-4</v>
+      </c>
+      <c r="I18">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J18">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K18" s="21">
+        <v>1.84E-4</v>
+      </c>
+      <c r="L18">
+        <v>1.1E-5</v>
+      </c>
+      <c r="M18">
+        <v>1.1E-5</v>
+      </c>
+      <c r="N18" s="21">
+        <v>2.2900000000000001E-4</v>
+      </c>
+      <c r="O18">
+        <v>1.5E-5</v>
+      </c>
+      <c r="P18">
+        <v>1.5E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="H19" s="21">
+        <v>0.1129</v>
+      </c>
+      <c r="I19">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="J19">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K19" s="21">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="L19">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N19" s="21">
+        <v>0.1431</v>
+      </c>
+      <c r="O19">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="P19">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="21">
+        <v>0.59</v>
+      </c>
+      <c r="I20">
+        <v>0.1</v>
+      </c>
+      <c r="J20">
+        <v>0.27</v>
+      </c>
+      <c r="K20" s="21">
+        <v>0.72</v>
+      </c>
+      <c r="L20">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M20">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="N20" s="21">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="O20">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="P20">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="21">
+        <v>1.347</v>
+      </c>
+      <c r="I21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J21">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="K21" s="21">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="L21">
+        <v>0.04</v>
+      </c>
+      <c r="M21">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="N21" s="21">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="O21">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="P21">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D23" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D24" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="D20" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="D13" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="D12" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="D23" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="D24" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:K38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.109375" customWidth="1"/>
+    <col min="4" max="4" width="53.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1">
+        <f>0.043333</f>
+        <v>4.3333000000000003E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <f>K1*180/PI()</f>
+        <v>2.4827980136403962</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="31"/>
+    </row>
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+    </row>
+    <row r="15" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="44.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" s="31"/>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D22" s="31"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" s="31"/>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="31"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="38"/>
+      <c r="B28" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="67"/>
+      <c r="B30" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D29" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="A38" r:id="rId2" location="Alternative_parametrizations" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>